--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10103_顧客登録.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10103_顧客登録.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBA356-5D9E-4334-90B8-5BFEEC864BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF2DD7-9851-4342-86F6-BDA25B08EF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1770" windowWidth="33090" windowHeight="18225" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -57,8 +57,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -85,8 +85,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -8799,72 +8799,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8971,6 +8905,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9102,8 +9102,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="7905750" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -9514,9 +9514,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9554,9 +9554,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9589,26 +9589,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9641,26 +9624,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9841,9 +9807,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="6.625" style="1"/>
+    <col min="1" max="16384" width="6.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -9929,7 +9895,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="19">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -9937,12 +9903,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="18.75">
+    <row r="33" spans="6:10" ht="19">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="18.75">
+    <row r="34" spans="6:10" ht="19">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -10452,63 +10418,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="22"/>
+    <col min="1" max="16384" width="3.58203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="206" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="184" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="208"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221" t="s">
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="199" t="s">
         <v>584</v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="203" t="s">
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="230" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="208" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="232"/>
-      <c r="AG1" s="197" t="str">
+      <c r="AD1" s="209"/>
+      <c r="AE1" s="209"/>
+      <c r="AF1" s="210"/>
+      <c r="AG1" s="175" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="176"/>
+      <c r="AI1" s="177"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10516,53 +10482,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="203" t="s">
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="202"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="209" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="187" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="188"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="175" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="176"/>
+      <c r="AI2" s="177"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10570,45 +10536,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="206" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="205"/>
-      <c r="AC3" s="230"/>
-      <c r="AD3" s="231"/>
-      <c r="AE3" s="231"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="206"/>
+      <c r="U3" s="206"/>
+      <c r="V3" s="206"/>
+      <c r="W3" s="206"/>
+      <c r="X3" s="206"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="208"/>
+      <c r="AD3" s="209"/>
+      <c r="AE3" s="209"/>
+      <c r="AF3" s="210"/>
+      <c r="AG3" s="175"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="177"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10645,85 +10611,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="200" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="200" t="s">
+      <c r="H7" s="180"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="200" t="s">
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="179"/>
+      <c r="Q7" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="202"/>
-      <c r="W7" s="202"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="200" t="s">
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="180"/>
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="180"/>
+      <c r="AA7" s="180"/>
+      <c r="AB7" s="180"/>
+      <c r="AC7" s="180"/>
+      <c r="AD7" s="180"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="201"/>
+      <c r="AG7" s="180"/>
+      <c r="AH7" s="180"/>
+      <c r="AI7" s="179"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="188"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="190"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="194"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="230"/>
+      <c r="AE8" s="231"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10731,934 +10697,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="222"/>
+      <c r="AF9" s="217"/>
+      <c r="AG9" s="218"/>
+      <c r="AH9" s="218"/>
+      <c r="AI9" s="219"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="183"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="217"/>
+      <c r="AG10" s="218"/>
+      <c r="AH10" s="218"/>
+      <c r="AI10" s="219"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="183"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
+      <c r="AF11" s="217"/>
+      <c r="AG11" s="218"/>
+      <c r="AH11" s="218"/>
+      <c r="AI11" s="219"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="183"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
+      <c r="AF12" s="217"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
+      <c r="AI12" s="219"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="181"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="183"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="221"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
+      <c r="AF13" s="217"/>
+      <c r="AG13" s="218"/>
+      <c r="AH13" s="218"/>
+      <c r="AI13" s="219"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="183"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="215"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="216"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="218"/>
+      <c r="L14" s="218"/>
+      <c r="M14" s="218"/>
+      <c r="N14" s="218"/>
+      <c r="O14" s="218"/>
+      <c r="P14" s="219"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
+      <c r="AC14" s="221"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="222"/>
+      <c r="AF14" s="217"/>
+      <c r="AG14" s="218"/>
+      <c r="AH14" s="218"/>
+      <c r="AI14" s="219"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="218"/>
+      <c r="L15" s="218"/>
+      <c r="M15" s="218"/>
+      <c r="N15" s="218"/>
+      <c r="O15" s="218"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="221"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="221"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="221"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="222"/>
+      <c r="AF15" s="217"/>
+      <c r="AG15" s="218"/>
+      <c r="AH15" s="218"/>
+      <c r="AI15" s="219"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="181"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="183"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="216"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="218"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="218"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="219"/>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
+      <c r="AB16" s="221"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="221"/>
+      <c r="AE16" s="222"/>
+      <c r="AF16" s="217"/>
+      <c r="AG16" s="218"/>
+      <c r="AH16" s="218"/>
+      <c r="AI16" s="219"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="183"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="219"/>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="217"/>
+      <c r="AG17" s="218"/>
+      <c r="AH17" s="218"/>
+      <c r="AI17" s="219"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="183"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="219"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="222"/>
+      <c r="AF18" s="217"/>
+      <c r="AG18" s="218"/>
+      <c r="AH18" s="218"/>
+      <c r="AI18" s="219"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="183"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="219"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="222"/>
+      <c r="AF19" s="217"/>
+      <c r="AG19" s="218"/>
+      <c r="AH19" s="218"/>
+      <c r="AI19" s="219"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="183"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="218"/>
+      <c r="L20" s="218"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="218"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="219"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="221"/>
+      <c r="S20" s="221"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="221"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="221"/>
+      <c r="Y20" s="221"/>
+      <c r="Z20" s="221"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="221"/>
+      <c r="AE20" s="222"/>
+      <c r="AF20" s="217"/>
+      <c r="AG20" s="218"/>
+      <c r="AH20" s="218"/>
+      <c r="AI20" s="219"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="183"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="218"/>
+      <c r="M21" s="218"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="218"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="220"/>
+      <c r="R21" s="221"/>
+      <c r="S21" s="221"/>
+      <c r="T21" s="221"/>
+      <c r="U21" s="221"/>
+      <c r="V21" s="221"/>
+      <c r="W21" s="221"/>
+      <c r="X21" s="221"/>
+      <c r="Y21" s="221"/>
+      <c r="Z21" s="221"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="221"/>
+      <c r="AC21" s="221"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="222"/>
+      <c r="AF21" s="217"/>
+      <c r="AG21" s="218"/>
+      <c r="AH21" s="218"/>
+      <c r="AI21" s="219"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="183"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="218"/>
+      <c r="L22" s="218"/>
+      <c r="M22" s="218"/>
+      <c r="N22" s="218"/>
+      <c r="O22" s="218"/>
+      <c r="P22" s="219"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="221"/>
+      <c r="AE22" s="222"/>
+      <c r="AF22" s="217"/>
+      <c r="AG22" s="218"/>
+      <c r="AH22" s="218"/>
+      <c r="AI22" s="219"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="182"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="183"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="218"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="218"/>
+      <c r="P23" s="219"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="222"/>
+      <c r="AF23" s="217"/>
+      <c r="AG23" s="218"/>
+      <c r="AH23" s="218"/>
+      <c r="AI23" s="219"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="183"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="216"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="218"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="219"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="222"/>
+      <c r="AF24" s="217"/>
+      <c r="AG24" s="218"/>
+      <c r="AH24" s="218"/>
+      <c r="AI24" s="219"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="185"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="182"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="183"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="218"/>
+      <c r="L25" s="218"/>
+      <c r="M25" s="218"/>
+      <c r="N25" s="218"/>
+      <c r="O25" s="218"/>
+      <c r="P25" s="219"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="222"/>
+      <c r="AF25" s="217"/>
+      <c r="AG25" s="218"/>
+      <c r="AH25" s="218"/>
+      <c r="AI25" s="219"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="217"/>
+      <c r="K26" s="218"/>
+      <c r="L26" s="218"/>
+      <c r="M26" s="218"/>
+      <c r="N26" s="218"/>
+      <c r="O26" s="218"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="222"/>
+      <c r="AF26" s="217"/>
+      <c r="AG26" s="218"/>
+      <c r="AH26" s="218"/>
+      <c r="AI26" s="219"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="183"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="219"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="222"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="218"/>
+      <c r="AH27" s="218"/>
+      <c r="AI27" s="219"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="181"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="183"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="218"/>
+      <c r="L28" s="218"/>
+      <c r="M28" s="218"/>
+      <c r="N28" s="218"/>
+      <c r="O28" s="218"/>
+      <c r="P28" s="219"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="221"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="221"/>
+      <c r="AE28" s="222"/>
+      <c r="AF28" s="217"/>
+      <c r="AG28" s="218"/>
+      <c r="AH28" s="218"/>
+      <c r="AI28" s="219"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="212"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="218"/>
+      <c r="L29" s="218"/>
+      <c r="M29" s="218"/>
+      <c r="N29" s="218"/>
+      <c r="O29" s="218"/>
+      <c r="P29" s="219"/>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="221"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="221"/>
+      <c r="AE29" s="222"/>
+      <c r="AF29" s="217"/>
+      <c r="AG29" s="218"/>
+      <c r="AH29" s="218"/>
+      <c r="AI29" s="219"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
-      <c r="Y30" s="185"/>
-      <c r="Z30" s="185"/>
-      <c r="AA30" s="185"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="185"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="183"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="218"/>
+      <c r="N30" s="218"/>
+      <c r="O30" s="218"/>
+      <c r="P30" s="219"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="221"/>
+      <c r="S30" s="221"/>
+      <c r="T30" s="221"/>
+      <c r="U30" s="221"/>
+      <c r="V30" s="221"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="221"/>
+      <c r="AE30" s="222"/>
+      <c r="AF30" s="217"/>
+      <c r="AG30" s="218"/>
+      <c r="AH30" s="218"/>
+      <c r="AI30" s="219"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
-      <c r="Y31" s="185"/>
-      <c r="Z31" s="185"/>
-      <c r="AA31" s="185"/>
-      <c r="AB31" s="185"/>
-      <c r="AC31" s="185"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="183"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="218"/>
+      <c r="L31" s="218"/>
+      <c r="M31" s="218"/>
+      <c r="N31" s="218"/>
+      <c r="O31" s="218"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="221"/>
+      <c r="AC31" s="221"/>
+      <c r="AD31" s="221"/>
+      <c r="AE31" s="222"/>
+      <c r="AF31" s="217"/>
+      <c r="AG31" s="218"/>
+      <c r="AH31" s="218"/>
+      <c r="AI31" s="219"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="181"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="183"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="213"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="215"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="218"/>
+      <c r="M32" s="218"/>
+      <c r="N32" s="218"/>
+      <c r="O32" s="218"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
+      <c r="W32" s="221"/>
+      <c r="X32" s="221"/>
+      <c r="Y32" s="221"/>
+      <c r="Z32" s="221"/>
+      <c r="AA32" s="221"/>
+      <c r="AB32" s="221"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="222"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="218"/>
+      <c r="AH32" s="218"/>
+      <c r="AI32" s="219"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="183"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="211"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="218"/>
+      <c r="L33" s="218"/>
+      <c r="M33" s="218"/>
+      <c r="N33" s="218"/>
+      <c r="O33" s="218"/>
+      <c r="P33" s="219"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="221"/>
+      <c r="U33" s="221"/>
+      <c r="V33" s="221"/>
+      <c r="W33" s="221"/>
+      <c r="X33" s="221"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="221"/>
+      <c r="AA33" s="221"/>
+      <c r="AB33" s="221"/>
+      <c r="AC33" s="221"/>
+      <c r="AD33" s="221"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="217"/>
+      <c r="AG33" s="218"/>
+      <c r="AH33" s="218"/>
+      <c r="AI33" s="219"/>
+    </row>
+    <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11682,161 +11803,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11859,18 +11825,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.625" style="28" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="28" customWidth="1"/>
-    <col min="13" max="17" width="8.625" style="28" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.58203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="28" customWidth="1"/>
+    <col min="13" max="17" width="8.58203125" style="28" customWidth="1"/>
     <col min="18" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -11916,7 +11882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+    <row r="8" spans="1:17" ht="11.5" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -11935,7 +11901,7 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="1:17" ht="12" thickTop="1"/>
+    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:17" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
@@ -11989,7 +11955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.5">
+    <row r="11" spans="1:17" ht="22">
       <c r="A11" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -12031,7 +11997,7 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="48"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5">
+    <row r="12" spans="1:17" ht="22">
       <c r="A12" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -12067,7 +12033,7 @@
       <c r="P12" s="46"/>
       <c r="Q12" s="48"/>
     </row>
-    <row r="13" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="13" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A13" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -12105,7 +12071,7 @@
       <c r="P13" s="47"/>
       <c r="Q13" s="46"/>
     </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="14" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A14" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -12139,7 +12105,7 @@
       <c r="P14" s="47"/>
       <c r="Q14" s="46"/>
     </row>
-    <row r="15" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="15" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A15" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -12173,7 +12139,7 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="46"/>
     </row>
-    <row r="16" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="16" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A16" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -12207,7 +12173,7 @@
       <c r="P16" s="46"/>
       <c r="Q16" s="48"/>
     </row>
-    <row r="17" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="17" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A17" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -12241,7 +12207,7 @@
       <c r="P17" s="46"/>
       <c r="Q17" s="48"/>
     </row>
-    <row r="18" spans="1:17" ht="22.5">
+    <row r="18" spans="1:17" ht="22">
       <c r="A18" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -12279,7 +12245,7 @@
       <c r="P18" s="46"/>
       <c r="Q18" s="48"/>
     </row>
-    <row r="19" spans="1:17" ht="22.5">
+    <row r="19" spans="1:17" ht="22">
       <c r="A19" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -12313,7 +12279,7 @@
       <c r="P19" s="46"/>
       <c r="Q19" s="48"/>
     </row>
-    <row r="20" spans="1:17" ht="22.5">
+    <row r="20" spans="1:17" ht="22">
       <c r="A20" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -12347,7 +12313,7 @@
       <c r="P20" s="46"/>
       <c r="Q20" s="48"/>
     </row>
-    <row r="21" spans="1:17" ht="22.5">
+    <row r="21" spans="1:17" ht="22">
       <c r="A21" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -12383,7 +12349,7 @@
       <c r="P21" s="46"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:17" ht="22.5">
+    <row r="22" spans="1:17" ht="22">
       <c r="A22" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -12417,7 +12383,7 @@
       <c r="P22" s="46"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5">
+    <row r="23" spans="1:17" ht="22">
       <c r="A23" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -12451,7 +12417,7 @@
       <c r="P23" s="46"/>
       <c r="Q23" s="48"/>
     </row>
-    <row r="24" spans="1:17" ht="22.5">
+    <row r="24" spans="1:17" ht="22">
       <c r="A24" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -12485,7 +12451,7 @@
       <c r="P24" s="46"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="25" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A25" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -12557,7 +12523,7 @@
       <c r="P26" s="47"/>
       <c r="Q26" s="46"/>
     </row>
-    <row r="27" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="27" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A27" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -12595,7 +12561,7 @@
       <c r="P27" s="47"/>
       <c r="Q27" s="46"/>
     </row>
-    <row r="28" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="28" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A28" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -12629,7 +12595,7 @@
       <c r="P28" s="47"/>
       <c r="Q28" s="46"/>
     </row>
-    <row r="29" spans="1:17" ht="22.5">
+    <row r="29" spans="1:17" ht="22">
       <c r="A29" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -12665,7 +12631,7 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
     </row>
-    <row r="30" spans="1:17" ht="22.5">
+    <row r="30" spans="1:17" ht="22">
       <c r="A30" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -12699,7 +12665,7 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
     </row>
-    <row r="31" spans="1:17" ht="22.5">
+    <row r="31" spans="1:17" ht="22">
       <c r="A31" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -12733,7 +12699,7 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
     </row>
-    <row r="32" spans="1:17" ht="22.5">
+    <row r="32" spans="1:17" ht="22">
       <c r="A32" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -12767,7 +12733,7 @@
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
     </row>
-    <row r="33" spans="1:17" ht="22.5">
+    <row r="33" spans="1:17" ht="22">
       <c r="A33" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -12803,7 +12769,7 @@
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
     </row>
-    <row r="34" spans="1:17" ht="22.5">
+    <row r="34" spans="1:17" ht="22">
       <c r="A34" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -12837,7 +12803,7 @@
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
     </row>
-    <row r="35" spans="1:17" ht="45">
+    <row r="35" spans="1:17" ht="44">
       <c r="A35" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -12873,7 +12839,7 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75">
+    <row r="36" spans="1:17" ht="33">
       <c r="A36" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -12913,7 +12879,7 @@
       <c r="P36" s="67"/>
       <c r="Q36" s="67"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75">
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -12947,7 +12913,7 @@
       <c r="P37" s="67"/>
       <c r="Q37" s="67"/>
     </row>
-    <row r="38" spans="1:17" ht="22.5">
+    <row r="38" spans="1:17" ht="22">
       <c r="A38" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -12981,7 +12947,7 @@
       <c r="P38" s="67"/>
       <c r="Q38" s="67"/>
     </row>
-    <row r="39" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="39" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A39" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -13015,7 +12981,7 @@
       <c r="P39" s="161"/>
       <c r="Q39" s="67"/>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="40" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -13055,7 +13021,7 @@
       <c r="P40" s="161"/>
       <c r="Q40" s="67"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="56.25">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="55">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -13103,7 +13069,7 @@
       <c r="P41" s="142"/>
       <c r="Q41" s="143"/>
     </row>
-    <row r="42" spans="1:17" s="32" customFormat="1" ht="45">
+    <row r="42" spans="1:17" s="32" customFormat="1" ht="44">
       <c r="A42" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -13139,7 +13105,7 @@
       <c r="P42" s="161"/>
       <c r="Q42" s="67"/>
     </row>
-    <row r="43" spans="1:17" s="32" customFormat="1" ht="78.75">
+    <row r="43" spans="1:17" s="32" customFormat="1" ht="77">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -13187,7 +13153,7 @@
       <c r="P43" s="142"/>
       <c r="Q43" s="143"/>
     </row>
-    <row r="44" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="44" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A44" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -13229,7 +13195,7 @@
       <c r="P44" s="46"/>
       <c r="Q44" s="48"/>
     </row>
-    <row r="45" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="45" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -13263,7 +13229,7 @@
       <c r="P45" s="46"/>
       <c r="Q45" s="48"/>
     </row>
-    <row r="46" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="46" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A46" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -13297,7 +13263,7 @@
       <c r="P46" s="46"/>
       <c r="Q46" s="48"/>
     </row>
-    <row r="47" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="47" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A47" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -13333,7 +13299,7 @@
       <c r="P47" s="46"/>
       <c r="Q47" s="48"/>
     </row>
-    <row r="48" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="48" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A48" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -13367,7 +13333,7 @@
       <c r="P48" s="46"/>
       <c r="Q48" s="48"/>
     </row>
-    <row r="49" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="49" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -13401,7 +13367,7 @@
       <c r="P49" s="46"/>
       <c r="Q49" s="48"/>
     </row>
-    <row r="50" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="50" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A50" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -13437,7 +13403,7 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="48"/>
     </row>
-    <row r="51" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="51" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A51" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -13471,7 +13437,7 @@
       <c r="P51" s="46"/>
       <c r="Q51" s="48"/>
     </row>
-    <row r="52" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="52" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A52" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -13507,7 +13473,7 @@
       <c r="P52" s="46"/>
       <c r="Q52" s="48"/>
     </row>
-    <row r="53" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="53" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -13541,7 +13507,7 @@
       <c r="P53" s="46"/>
       <c r="Q53" s="48"/>
     </row>
-    <row r="54" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="54" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A54" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -13575,7 +13541,7 @@
       <c r="P54" s="46"/>
       <c r="Q54" s="48"/>
     </row>
-    <row r="55" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="55" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -13609,7 +13575,7 @@
       <c r="P55" s="46"/>
       <c r="Q55" s="48"/>
     </row>
-    <row r="56" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="56" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A56" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -13643,7 +13609,7 @@
       <c r="P56" s="46"/>
       <c r="Q56" s="48"/>
     </row>
-    <row r="57" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="57" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A57" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -13677,7 +13643,7 @@
       <c r="P57" s="46"/>
       <c r="Q57" s="48"/>
     </row>
-    <row r="58" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="58" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -13713,7 +13679,7 @@
       <c r="P58" s="46"/>
       <c r="Q58" s="48"/>
     </row>
-    <row r="59" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="59" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A59" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -13749,7 +13715,7 @@
       <c r="P59" s="46"/>
       <c r="Q59" s="48"/>
     </row>
-    <row r="60" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="60" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A60" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -13785,7 +13751,7 @@
       <c r="P60" s="46"/>
       <c r="Q60" s="48"/>
     </row>
-    <row r="61" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="61" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A61" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -13823,7 +13789,7 @@
       <c r="P61" s="46"/>
       <c r="Q61" s="48"/>
     </row>
-    <row r="62" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="62" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A62" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -13857,7 +13823,7 @@
       <c r="P62" s="46"/>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="63" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A63" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -13891,7 +13857,7 @@
       <c r="P63" s="46"/>
       <c r="Q63" s="48"/>
     </row>
-    <row r="64" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="64" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A64" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -13925,7 +13891,7 @@
       <c r="P64" s="46"/>
       <c r="Q64" s="48"/>
     </row>
-    <row r="65" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="65" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A65" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -13959,7 +13925,7 @@
       <c r="P65" s="46"/>
       <c r="Q65" s="48"/>
     </row>
-    <row r="66" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="66" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A66" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -13995,7 +13961,7 @@
       <c r="P66" s="46"/>
       <c r="Q66" s="48"/>
     </row>
-    <row r="67" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="67" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A67" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -14029,7 +13995,7 @@
       <c r="P67" s="46"/>
       <c r="Q67" s="48"/>
     </row>
-    <row r="68" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="68" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A68" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -14063,7 +14029,7 @@
       <c r="P68" s="46"/>
       <c r="Q68" s="48"/>
     </row>
-    <row r="69" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="69" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A69" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -14097,7 +14063,7 @@
       <c r="P69" s="46"/>
       <c r="Q69" s="48"/>
     </row>
-    <row r="70" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="70" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A70" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -14131,7 +14097,7 @@
       <c r="P70" s="46"/>
       <c r="Q70" s="48"/>
     </row>
-    <row r="71" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="71" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A71" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -14165,7 +14131,7 @@
       <c r="P71" s="46"/>
       <c r="Q71" s="48"/>
     </row>
-    <row r="72" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="72" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A72" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -14199,7 +14165,7 @@
       <c r="P72" s="46"/>
       <c r="Q72" s="48"/>
     </row>
-    <row r="73" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="73" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A73" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -14233,7 +14199,7 @@
       <c r="P73" s="46"/>
       <c r="Q73" s="48"/>
     </row>
-    <row r="74" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="74" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A74" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -14269,7 +14235,7 @@
       <c r="P74" s="46"/>
       <c r="Q74" s="48"/>
     </row>
-    <row r="75" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="75" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A75" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -14305,7 +14271,7 @@
       <c r="P75" s="46"/>
       <c r="Q75" s="48"/>
     </row>
-    <row r="76" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="76" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A76" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -14339,7 +14305,7 @@
       <c r="P76" s="46"/>
       <c r="Q76" s="48"/>
     </row>
-    <row r="77" spans="1:17" ht="22.5">
+    <row r="77" spans="1:17" ht="22">
       <c r="A77" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -14373,7 +14339,7 @@
       <c r="P77" s="48"/>
       <c r="Q77" s="48"/>
     </row>
-    <row r="78" spans="1:17" ht="22.5">
+    <row r="78" spans="1:17" ht="22">
       <c r="A78" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -14407,7 +14373,7 @@
       <c r="P78" s="48"/>
       <c r="Q78" s="48"/>
     </row>
-    <row r="79" spans="1:17" ht="22.5">
+    <row r="79" spans="1:17" ht="22">
       <c r="A79" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -14441,7 +14407,7 @@
       <c r="P79" s="48"/>
       <c r="Q79" s="48"/>
     </row>
-    <row r="80" spans="1:17" ht="22.5">
+    <row r="80" spans="1:17" ht="22">
       <c r="A80" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -14481,7 +14447,7 @@
       <c r="P80" s="48"/>
       <c r="Q80" s="48"/>
     </row>
-    <row r="81" spans="1:17" ht="33.75">
+    <row r="81" spans="1:17" ht="33">
       <c r="A81" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -14515,7 +14481,7 @@
       <c r="P81" s="48"/>
       <c r="Q81" s="48"/>
     </row>
-    <row r="82" spans="1:17" ht="22.5">
+    <row r="82" spans="1:17" ht="22">
       <c r="A82" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -14551,7 +14517,7 @@
       <c r="P82" s="48"/>
       <c r="Q82" s="48"/>
     </row>
-    <row r="83" spans="1:17" ht="33.75">
+    <row r="83" spans="1:17" ht="33">
       <c r="A83" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -14587,7 +14553,7 @@
       <c r="P83" s="48"/>
       <c r="Q83" s="48"/>
     </row>
-    <row r="84" spans="1:17" ht="33.75">
+    <row r="84" spans="1:17" ht="33">
       <c r="A84" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -14621,7 +14587,7 @@
       <c r="P84" s="48"/>
       <c r="Q84" s="48"/>
     </row>
-    <row r="85" spans="1:17" ht="22.5">
+    <row r="85" spans="1:17" ht="22">
       <c r="A85" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -14657,7 +14623,7 @@
       <c r="P85" s="48"/>
       <c r="Q85" s="48"/>
     </row>
-    <row r="86" spans="1:17" ht="22.5">
+    <row r="86" spans="1:17" ht="22">
       <c r="A86" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -14693,7 +14659,7 @@
       <c r="P86" s="48"/>
       <c r="Q86" s="48"/>
     </row>
-    <row r="87" spans="1:17" ht="22.5">
+    <row r="87" spans="1:17" ht="22">
       <c r="A87" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -14733,7 +14699,7 @@
       <c r="P87" s="48"/>
       <c r="Q87" s="48"/>
     </row>
-    <row r="88" spans="1:17" ht="22.5">
+    <row r="88" spans="1:17" ht="22">
       <c r="A88" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -14769,7 +14735,7 @@
       <c r="P88" s="48"/>
       <c r="Q88" s="48"/>
     </row>
-    <row r="89" spans="1:17" ht="33.75">
+    <row r="89" spans="1:17" ht="33">
       <c r="A89" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -14805,7 +14771,7 @@
       <c r="P89" s="48"/>
       <c r="Q89" s="48"/>
     </row>
-    <row r="90" spans="1:17" ht="22.5">
+    <row r="90" spans="1:17" ht="22">
       <c r="A90" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -14845,7 +14811,7 @@
       <c r="P90" s="48"/>
       <c r="Q90" s="48"/>
     </row>
-    <row r="91" spans="1:17" ht="33.75">
+    <row r="91" spans="1:17" ht="33">
       <c r="A91" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -14879,7 +14845,7 @@
       <c r="P91" s="48"/>
       <c r="Q91" s="48"/>
     </row>
-    <row r="92" spans="1:17" ht="22.5">
+    <row r="92" spans="1:17" ht="22">
       <c r="A92" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -14915,7 +14881,7 @@
       <c r="P92" s="48"/>
       <c r="Q92" s="48"/>
     </row>
-    <row r="93" spans="1:17" ht="33.75">
+    <row r="93" spans="1:17" ht="33">
       <c r="A93" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -14951,7 +14917,7 @@
       <c r="P93" s="48"/>
       <c r="Q93" s="48"/>
     </row>
-    <row r="94" spans="1:17" ht="33.75">
+    <row r="94" spans="1:17" ht="33">
       <c r="A94" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -14985,7 +14951,7 @@
       <c r="P94" s="48"/>
       <c r="Q94" s="48"/>
     </row>
-    <row r="95" spans="1:17" ht="33.75">
+    <row r="95" spans="1:17" ht="33">
       <c r="A95" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -15021,7 +14987,7 @@
       <c r="P95" s="48"/>
       <c r="Q95" s="48"/>
     </row>
-    <row r="96" spans="1:17" ht="22.5">
+    <row r="96" spans="1:17" ht="22">
       <c r="A96" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -15061,7 +15027,7 @@
       <c r="P96" s="48"/>
       <c r="Q96" s="48"/>
     </row>
-    <row r="97" spans="1:17" ht="33.75">
+    <row r="97" spans="1:17" ht="33">
       <c r="A97" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -15095,7 +15061,7 @@
       <c r="P97" s="48"/>
       <c r="Q97" s="48"/>
     </row>
-    <row r="98" spans="1:17" ht="22.5">
+    <row r="98" spans="1:17" ht="22">
       <c r="A98" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -15129,7 +15095,7 @@
       <c r="P98" s="48"/>
       <c r="Q98" s="48"/>
     </row>
-    <row r="99" spans="1:17" ht="33.75">
+    <row r="99" spans="1:17" ht="33">
       <c r="A99" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -15163,7 +15129,7 @@
       <c r="P99" s="48"/>
       <c r="Q99" s="48"/>
     </row>
-    <row r="100" spans="1:17" ht="33.75">
+    <row r="100" spans="1:17" ht="33">
       <c r="A100" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -15197,7 +15163,7 @@
       <c r="P100" s="48"/>
       <c r="Q100" s="48"/>
     </row>
-    <row r="101" spans="1:17" ht="22.5">
+    <row r="101" spans="1:17" ht="22">
       <c r="A101" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -15233,7 +15199,7 @@
       <c r="P101" s="48"/>
       <c r="Q101" s="48"/>
     </row>
-    <row r="102" spans="1:17" ht="33.75">
+    <row r="102" spans="1:17" ht="33">
       <c r="A102" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -15267,7 +15233,7 @@
       <c r="P102" s="48"/>
       <c r="Q102" s="48"/>
     </row>
-    <row r="103" spans="1:17" ht="22.5">
+    <row r="103" spans="1:17" ht="22">
       <c r="A103" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -15301,7 +15267,7 @@
       <c r="P103" s="48"/>
       <c r="Q103" s="48"/>
     </row>
-    <row r="104" spans="1:17" ht="33.75">
+    <row r="104" spans="1:17" ht="33">
       <c r="A104" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -15335,7 +15301,7 @@
       <c r="P104" s="48"/>
       <c r="Q104" s="48"/>
     </row>
-    <row r="105" spans="1:17" ht="33.75">
+    <row r="105" spans="1:17" ht="33">
       <c r="A105" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -15369,7 +15335,7 @@
       <c r="P105" s="48"/>
       <c r="Q105" s="48"/>
     </row>
-    <row r="106" spans="1:17" ht="33.75">
+    <row r="106" spans="1:17" ht="33">
       <c r="A106" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -15405,7 +15371,7 @@
       <c r="P106" s="48"/>
       <c r="Q106" s="48"/>
     </row>
-    <row r="107" spans="1:17" ht="33.75">
+    <row r="107" spans="1:17" ht="33">
       <c r="A107" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -15447,7 +15413,7 @@
       <c r="P107" s="48"/>
       <c r="Q107" s="48"/>
     </row>
-    <row r="108" spans="1:17" ht="22.5">
+    <row r="108" spans="1:17" ht="22">
       <c r="A108" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -15487,7 +15453,7 @@
       <c r="P108" s="48"/>
       <c r="Q108" s="48"/>
     </row>
-    <row r="109" spans="1:17" ht="22.5">
+    <row r="109" spans="1:17" ht="22">
       <c r="A109" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -15521,7 +15487,7 @@
       <c r="P109" s="48"/>
       <c r="Q109" s="48"/>
     </row>
-    <row r="110" spans="1:17" ht="22.5">
+    <row r="110" spans="1:17" ht="22">
       <c r="A110" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -15561,7 +15527,7 @@
       <c r="P110" s="48"/>
       <c r="Q110" s="48"/>
     </row>
-    <row r="111" spans="1:17" ht="22.5">
+    <row r="111" spans="1:17" ht="22">
       <c r="A111" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -15601,7 +15567,7 @@
       <c r="P111" s="48"/>
       <c r="Q111" s="48"/>
     </row>
-    <row r="112" spans="1:17" ht="22.5">
+    <row r="112" spans="1:17" ht="22">
       <c r="A112" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -15635,7 +15601,7 @@
       <c r="P112" s="48"/>
       <c r="Q112" s="48"/>
     </row>
-    <row r="113" spans="1:17" ht="22.5">
+    <row r="113" spans="1:17" ht="22">
       <c r="A113" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -15677,7 +15643,7 @@
       <c r="P113" s="67"/>
       <c r="Q113" s="67"/>
     </row>
-    <row r="114" spans="1:17" ht="22.5">
+    <row r="114" spans="1:17" ht="22">
       <c r="A114" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -15713,7 +15679,7 @@
       <c r="P114" s="67"/>
       <c r="Q114" s="67"/>
     </row>
-    <row r="115" spans="1:17" ht="22.5">
+    <row r="115" spans="1:17" ht="22">
       <c r="A115" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -15747,7 +15713,7 @@
       <c r="P115" s="67"/>
       <c r="Q115" s="67"/>
     </row>
-    <row r="116" spans="1:17" ht="22.5">
+    <row r="116" spans="1:17" ht="22">
       <c r="A116" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -15781,7 +15747,7 @@
       <c r="P116" s="67"/>
       <c r="Q116" s="67"/>
     </row>
-    <row r="117" spans="1:17" ht="22.5">
+    <row r="117" spans="1:17" ht="22">
       <c r="A117" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -15817,7 +15783,7 @@
       <c r="P117" s="67"/>
       <c r="Q117" s="67"/>
     </row>
-    <row r="118" spans="1:17" ht="22.5">
+    <row r="118" spans="1:17" ht="22">
       <c r="A118" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -15851,7 +15817,7 @@
       <c r="P118" s="67"/>
       <c r="Q118" s="67"/>
     </row>
-    <row r="119" spans="1:17" ht="22.5">
+    <row r="119" spans="1:17" ht="22">
       <c r="A119" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -15885,7 +15851,7 @@
       <c r="P119" s="67"/>
       <c r="Q119" s="67"/>
     </row>
-    <row r="120" spans="1:17" ht="22.5">
+    <row r="120" spans="1:17" ht="22">
       <c r="A120" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -15919,7 +15885,7 @@
       <c r="P120" s="67"/>
       <c r="Q120" s="67"/>
     </row>
-    <row r="121" spans="1:17" ht="33.75">
+    <row r="121" spans="1:17" ht="33">
       <c r="A121" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -15953,7 +15919,7 @@
       <c r="P121" s="67"/>
       <c r="Q121" s="67"/>
     </row>
-    <row r="122" spans="1:17" ht="33.75">
+    <row r="122" spans="1:17" ht="33">
       <c r="A122" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -15989,7 +15955,7 @@
       <c r="P122" s="67"/>
       <c r="Q122" s="67"/>
     </row>
-    <row r="123" spans="1:17" ht="33.75">
+    <row r="123" spans="1:17" ht="33">
       <c r="A123" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -16023,7 +15989,7 @@
       <c r="P123" s="67"/>
       <c r="Q123" s="67"/>
     </row>
-    <row r="124" spans="1:17" ht="45">
+    <row r="124" spans="1:17" ht="44">
       <c r="A124" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -16057,7 +16023,7 @@
       <c r="P124" s="67"/>
       <c r="Q124" s="67"/>
     </row>
-    <row r="125" spans="1:17" ht="45">
+    <row r="125" spans="1:17" ht="44">
       <c r="A125" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -16091,7 +16057,7 @@
       <c r="P125" s="67"/>
       <c r="Q125" s="67"/>
     </row>
-    <row r="126" spans="1:17" ht="33.75">
+    <row r="126" spans="1:17" ht="33">
       <c r="A126" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -16125,7 +16091,7 @@
       <c r="P126" s="67"/>
       <c r="Q126" s="67"/>
     </row>
-    <row r="127" spans="1:17" ht="33.75">
+    <row r="127" spans="1:17" ht="33">
       <c r="A127" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -16161,7 +16127,7 @@
       <c r="P127" s="67"/>
       <c r="Q127" s="67"/>
     </row>
-    <row r="128" spans="1:17" ht="33.75">
+    <row r="128" spans="1:17" ht="33">
       <c r="A128" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -16199,7 +16165,7 @@
       <c r="P128" s="67"/>
       <c r="Q128" s="67"/>
     </row>
-    <row r="129" spans="1:17" ht="33.75">
+    <row r="129" spans="1:17" ht="33">
       <c r="A129" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -16239,7 +16205,7 @@
       <c r="P129" s="67"/>
       <c r="Q129" s="67"/>
     </row>
-    <row r="130" spans="1:17" ht="22.5">
+    <row r="130" spans="1:17" ht="22">
       <c r="A130" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -16275,7 +16241,7 @@
       <c r="P130" s="67"/>
       <c r="Q130" s="67"/>
     </row>
-    <row r="131" spans="1:17" ht="22.5">
+    <row r="131" spans="1:17" ht="22">
       <c r="A131" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -16309,7 +16275,7 @@
       <c r="P131" s="67"/>
       <c r="Q131" s="67"/>
     </row>
-    <row r="132" spans="1:17" ht="45">
+    <row r="132" spans="1:17" ht="44">
       <c r="A132" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -16343,7 +16309,7 @@
       <c r="P132" s="67"/>
       <c r="Q132" s="67"/>
     </row>
-    <row r="133" spans="1:17" ht="22.5">
+    <row r="133" spans="1:17" ht="22">
       <c r="A133" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -16385,7 +16351,7 @@
       <c r="P133" s="67"/>
       <c r="Q133" s="67"/>
     </row>
-    <row r="134" spans="1:17" ht="22.5">
+    <row r="134" spans="1:17" ht="22">
       <c r="A134" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -16421,7 +16387,7 @@
       <c r="P134" s="67"/>
       <c r="Q134" s="67"/>
     </row>
-    <row r="135" spans="1:17" ht="22.5">
+    <row r="135" spans="1:17" ht="22">
       <c r="A135" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -16455,7 +16421,7 @@
       <c r="P135" s="67"/>
       <c r="Q135" s="67"/>
     </row>
-    <row r="136" spans="1:17" ht="22.5">
+    <row r="136" spans="1:17" ht="22">
       <c r="A136" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -16489,7 +16455,7 @@
       <c r="P136" s="67"/>
       <c r="Q136" s="67"/>
     </row>
-    <row r="137" spans="1:17" ht="22.5">
+    <row r="137" spans="1:17" ht="22">
       <c r="A137" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -16525,7 +16491,7 @@
       <c r="P137" s="67"/>
       <c r="Q137" s="67"/>
     </row>
-    <row r="138" spans="1:17" ht="33.75">
+    <row r="138" spans="1:17" ht="33">
       <c r="A138" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -16559,7 +16525,7 @@
       <c r="P138" s="67"/>
       <c r="Q138" s="67"/>
     </row>
-    <row r="139" spans="1:17" ht="33.75">
+    <row r="139" spans="1:17" ht="33">
       <c r="A139" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -16597,7 +16563,7 @@
       <c r="P139" s="67"/>
       <c r="Q139" s="67"/>
     </row>
-    <row r="140" spans="1:17" ht="33.75">
+    <row r="140" spans="1:17" ht="33">
       <c r="A140" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -16637,7 +16603,7 @@
       <c r="P140" s="67"/>
       <c r="Q140" s="67"/>
     </row>
-    <row r="141" spans="1:17" ht="33.75">
+    <row r="141" spans="1:17" ht="33">
       <c r="A141" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -16673,7 +16639,7 @@
       <c r="P141" s="67"/>
       <c r="Q141" s="67"/>
     </row>
-    <row r="142" spans="1:17" ht="33.75">
+    <row r="142" spans="1:17" ht="33">
       <c r="A142" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -16709,7 +16675,7 @@
       <c r="P142" s="67"/>
       <c r="Q142" s="67"/>
     </row>
-    <row r="143" spans="1:17" ht="33.75">
+    <row r="143" spans="1:17" ht="33">
       <c r="A143" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -16745,7 +16711,7 @@
       <c r="P143" s="67"/>
       <c r="Q143" s="67"/>
     </row>
-    <row r="144" spans="1:17" ht="33.75">
+    <row r="144" spans="1:17" ht="33">
       <c r="A144" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -16781,7 +16747,7 @@
       <c r="P144" s="67"/>
       <c r="Q144" s="67"/>
     </row>
-    <row r="145" spans="1:17" ht="22.5">
+    <row r="145" spans="1:17" ht="22">
       <c r="A145" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -16817,7 +16783,7 @@
       <c r="P145" s="67"/>
       <c r="Q145" s="67"/>
     </row>
-    <row r="146" spans="1:17" ht="22.5">
+    <row r="146" spans="1:17" ht="22">
       <c r="A146" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -16851,7 +16817,7 @@
       <c r="P146" s="67"/>
       <c r="Q146" s="67"/>
     </row>
-    <row r="147" spans="1:17" ht="22.5">
+    <row r="147" spans="1:17" ht="22">
       <c r="A147" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -16885,7 +16851,7 @@
       <c r="P147" s="67"/>
       <c r="Q147" s="67"/>
     </row>
-    <row r="148" spans="1:17" ht="22.5">
+    <row r="148" spans="1:17" ht="22">
       <c r="A148" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -16919,7 +16885,7 @@
       <c r="P148" s="67"/>
       <c r="Q148" s="67"/>
     </row>
-    <row r="149" spans="1:17" ht="22.5">
+    <row r="149" spans="1:17" ht="22">
       <c r="A149" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -16953,7 +16919,7 @@
       <c r="P149" s="67"/>
       <c r="Q149" s="67"/>
     </row>
-    <row r="150" spans="1:17" ht="22.5">
+    <row r="150" spans="1:17" ht="22">
       <c r="A150" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -16987,7 +16953,7 @@
       <c r="P150" s="67"/>
       <c r="Q150" s="67"/>
     </row>
-    <row r="151" spans="1:17" ht="22.5">
+    <row r="151" spans="1:17" ht="22">
       <c r="A151" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -17025,7 +16991,7 @@
       <c r="P151" s="67"/>
       <c r="Q151" s="67"/>
     </row>
-    <row r="152" spans="1:17" ht="22.5">
+    <row r="152" spans="1:17" ht="22">
       <c r="A152" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -17059,7 +17025,7 @@
       <c r="P152" s="67"/>
       <c r="Q152" s="67"/>
     </row>
-    <row r="153" spans="1:17" ht="33.75">
+    <row r="153" spans="1:17" ht="33">
       <c r="A153" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -17095,7 +17061,7 @@
       <c r="P153" s="67"/>
       <c r="Q153" s="67"/>
     </row>
-    <row r="154" spans="1:17" ht="33.75">
+    <row r="154" spans="1:17" ht="33">
       <c r="A154" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -17129,7 +17095,7 @@
       <c r="P154" s="67"/>
       <c r="Q154" s="67"/>
     </row>
-    <row r="155" spans="1:17" ht="33.75">
+    <row r="155" spans="1:17" ht="33">
       <c r="A155" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -17163,7 +17129,7 @@
       <c r="P155" s="67"/>
       <c r="Q155" s="67"/>
     </row>
-    <row r="156" spans="1:17" ht="33.75">
+    <row r="156" spans="1:17" ht="33">
       <c r="A156" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -17197,7 +17163,7 @@
       <c r="P156" s="67"/>
       <c r="Q156" s="67"/>
     </row>
-    <row r="157" spans="1:17" ht="33.75">
+    <row r="157" spans="1:17" ht="33">
       <c r="A157" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -17231,7 +17197,7 @@
       <c r="P157" s="67"/>
       <c r="Q157" s="67"/>
     </row>
-    <row r="158" spans="1:17" ht="22.5">
+    <row r="158" spans="1:17" ht="22">
       <c r="A158" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -17265,7 +17231,7 @@
       <c r="P158" s="67"/>
       <c r="Q158" s="67"/>
     </row>
-    <row r="159" spans="1:17" ht="22.5">
+    <row r="159" spans="1:17" ht="22">
       <c r="A159" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -17299,7 +17265,7 @@
       <c r="P159" s="67"/>
       <c r="Q159" s="67"/>
     </row>
-    <row r="160" spans="1:17" ht="33.75">
+    <row r="160" spans="1:17" ht="33">
       <c r="A160" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -17333,7 +17299,7 @@
       <c r="P160" s="67"/>
       <c r="Q160" s="67"/>
     </row>
-    <row r="161" spans="1:17" ht="33.75">
+    <row r="161" spans="1:17" ht="33">
       <c r="A161" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -17367,7 +17333,7 @@
       <c r="P161" s="67"/>
       <c r="Q161" s="67"/>
     </row>
-    <row r="162" spans="1:17" ht="33.75">
+    <row r="162" spans="1:17" ht="33">
       <c r="A162" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -17401,7 +17367,7 @@
       <c r="P162" s="67"/>
       <c r="Q162" s="67"/>
     </row>
-    <row r="163" spans="1:17" ht="33.75">
+    <row r="163" spans="1:17" ht="33">
       <c r="A163" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -17435,7 +17401,7 @@
       <c r="P163" s="67"/>
       <c r="Q163" s="67"/>
     </row>
-    <row r="164" spans="1:17" ht="22.5">
+    <row r="164" spans="1:17" ht="22">
       <c r="A164" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -17471,7 +17437,7 @@
       <c r="P164" s="67"/>
       <c r="Q164" s="67"/>
     </row>
-    <row r="165" spans="1:17" ht="22.5">
+    <row r="165" spans="1:17" ht="22">
       <c r="A165" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -17505,7 +17471,7 @@
       <c r="P165" s="67"/>
       <c r="Q165" s="67"/>
     </row>
-    <row r="166" spans="1:17" ht="22.5">
+    <row r="166" spans="1:17" ht="22">
       <c r="A166" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -17539,7 +17505,7 @@
       <c r="P166" s="67"/>
       <c r="Q166" s="67"/>
     </row>
-    <row r="167" spans="1:17" ht="22.5">
+    <row r="167" spans="1:17" ht="22">
       <c r="A167" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -17573,7 +17539,7 @@
       <c r="P167" s="67"/>
       <c r="Q167" s="67"/>
     </row>
-    <row r="168" spans="1:17" ht="22.5">
+    <row r="168" spans="1:17" ht="22">
       <c r="A168" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -17607,7 +17573,7 @@
       <c r="P168" s="67"/>
       <c r="Q168" s="67"/>
     </row>
-    <row r="169" spans="1:17" ht="33.75">
+    <row r="169" spans="1:17" ht="33">
       <c r="A169" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -17641,7 +17607,7 @@
       <c r="P169" s="67"/>
       <c r="Q169" s="67"/>
     </row>
-    <row r="170" spans="1:17" ht="22.5">
+    <row r="170" spans="1:17" ht="22">
       <c r="A170" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -17675,7 +17641,7 @@
       <c r="P170" s="67"/>
       <c r="Q170" s="67"/>
     </row>
-    <row r="171" spans="1:17" ht="22.5">
+    <row r="171" spans="1:17" ht="22">
       <c r="A171" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -17711,7 +17677,7 @@
       <c r="P171" s="67"/>
       <c r="Q171" s="67"/>
     </row>
-    <row r="172" spans="1:17" ht="33.75">
+    <row r="172" spans="1:17" ht="33">
       <c r="A172" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -17745,7 +17711,7 @@
       <c r="P172" s="67"/>
       <c r="Q172" s="67"/>
     </row>
-    <row r="173" spans="1:17" ht="33.75">
+    <row r="173" spans="1:17" ht="33">
       <c r="A173" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -17779,7 +17745,7 @@
       <c r="P173" s="67"/>
       <c r="Q173" s="67"/>
     </row>
-    <row r="174" spans="1:17" ht="45">
+    <row r="174" spans="1:17" ht="44">
       <c r="A174" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -17813,7 +17779,7 @@
       <c r="P174" s="67"/>
       <c r="Q174" s="67"/>
     </row>
-    <row r="175" spans="1:17" ht="45">
+    <row r="175" spans="1:17" ht="44">
       <c r="A175" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -17847,7 +17813,7 @@
       <c r="P175" s="67"/>
       <c r="Q175" s="67"/>
     </row>
-    <row r="176" spans="1:17" ht="33.75">
+    <row r="176" spans="1:17" ht="33">
       <c r="A176" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -17881,7 +17847,7 @@
       <c r="P176" s="67"/>
       <c r="Q176" s="67"/>
     </row>
-    <row r="177" spans="1:17" ht="45">
+    <row r="177" spans="1:17" ht="44">
       <c r="A177" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -17915,7 +17881,7 @@
       <c r="P177" s="67"/>
       <c r="Q177" s="67"/>
     </row>
-    <row r="178" spans="1:17" ht="45">
+    <row r="178" spans="1:17" ht="44">
       <c r="A178" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -17949,7 +17915,7 @@
       <c r="P178" s="67"/>
       <c r="Q178" s="67"/>
     </row>
-    <row r="179" spans="1:17" ht="22.5">
+    <row r="179" spans="1:17" ht="22">
       <c r="A179" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -17983,7 +17949,7 @@
       <c r="P179" s="67"/>
       <c r="Q179" s="67"/>
     </row>
-    <row r="180" spans="1:17" ht="33.75">
+    <row r="180" spans="1:17" ht="33">
       <c r="A180" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -18019,7 +17985,7 @@
       <c r="P180" s="67"/>
       <c r="Q180" s="67"/>
     </row>
-    <row r="181" spans="1:17" ht="22.5">
+    <row r="181" spans="1:17" ht="22">
       <c r="A181" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -18055,7 +18021,7 @@
       <c r="P181" s="67"/>
       <c r="Q181" s="67"/>
     </row>
-    <row r="182" spans="1:17" ht="22.5">
+    <row r="182" spans="1:17" ht="22">
       <c r="A182" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -18097,7 +18063,7 @@
       <c r="P182" s="48"/>
       <c r="Q182" s="48"/>
     </row>
-    <row r="183" spans="1:17" ht="22.5">
+    <row r="183" spans="1:17" ht="22">
       <c r="A183" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -18135,7 +18101,7 @@
       <c r="P183" s="48"/>
       <c r="Q183" s="48"/>
     </row>
-    <row r="184" spans="1:17" ht="22.5">
+    <row r="184" spans="1:17" ht="22">
       <c r="A184" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -18173,7 +18139,7 @@
       <c r="P184" s="48"/>
       <c r="Q184" s="48"/>
     </row>
-    <row r="185" spans="1:17" ht="22.5">
+    <row r="185" spans="1:17" ht="22">
       <c r="A185" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -18215,7 +18181,7 @@
       <c r="P185" s="48"/>
       <c r="Q185" s="48"/>
     </row>
-    <row r="186" spans="1:17" ht="22.5">
+    <row r="186" spans="1:17" ht="22">
       <c r="A186" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -18251,7 +18217,7 @@
       <c r="P186" s="48"/>
       <c r="Q186" s="48"/>
     </row>
-    <row r="187" spans="1:17" ht="22.5">
+    <row r="187" spans="1:17" ht="22">
       <c r="A187" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -18285,7 +18251,7 @@
       <c r="P187" s="48"/>
       <c r="Q187" s="48"/>
     </row>
-    <row r="188" spans="1:17" ht="22.5">
+    <row r="188" spans="1:17" ht="22">
       <c r="A188" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -18321,7 +18287,7 @@
       <c r="P188" s="48"/>
       <c r="Q188" s="48"/>
     </row>
-    <row r="189" spans="1:17" ht="22.5">
+    <row r="189" spans="1:17" ht="22">
       <c r="A189" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -18355,7 +18321,7 @@
       <c r="P189" s="48"/>
       <c r="Q189" s="48"/>
     </row>
-    <row r="190" spans="1:17" ht="33.75">
+    <row r="190" spans="1:17" ht="33">
       <c r="A190" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -18393,7 +18359,7 @@
       <c r="P190" s="48"/>
       <c r="Q190" s="48"/>
     </row>
-    <row r="191" spans="1:17" ht="22.5">
+    <row r="191" spans="1:17" ht="22">
       <c r="A191" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -18433,7 +18399,7 @@
       <c r="P191" s="48"/>
       <c r="Q191" s="48"/>
     </row>
-    <row r="192" spans="1:17" ht="22.5">
+    <row r="192" spans="1:17" ht="22">
       <c r="A192" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -18467,7 +18433,7 @@
       <c r="P192" s="48"/>
       <c r="Q192" s="48"/>
     </row>
-    <row r="193" spans="1:17" ht="22.5">
+    <row r="193" spans="1:17" ht="22">
       <c r="A193" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -18501,7 +18467,7 @@
       <c r="P193" s="48"/>
       <c r="Q193" s="48"/>
     </row>
-    <row r="194" spans="1:17" ht="22.5">
+    <row r="194" spans="1:17" ht="22">
       <c r="A194" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -18535,7 +18501,7 @@
       <c r="P194" s="48"/>
       <c r="Q194" s="48"/>
     </row>
-    <row r="195" spans="1:17" ht="22.5">
+    <row r="195" spans="1:17" ht="22">
       <c r="A195" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -18569,7 +18535,7 @@
       <c r="P195" s="48"/>
       <c r="Q195" s="48"/>
     </row>
-    <row r="196" spans="1:17" ht="22.5">
+    <row r="196" spans="1:17" ht="22">
       <c r="A196" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -18603,7 +18569,7 @@
       <c r="P196" s="48"/>
       <c r="Q196" s="48"/>
     </row>
-    <row r="197" spans="1:17" ht="22.5">
+    <row r="197" spans="1:17" ht="22">
       <c r="A197" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -18637,7 +18603,7 @@
       <c r="P197" s="48"/>
       <c r="Q197" s="48"/>
     </row>
-    <row r="198" spans="1:17" ht="22.5">
+    <row r="198" spans="1:17" ht="22">
       <c r="A198" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -18673,7 +18639,7 @@
       <c r="P198" s="48"/>
       <c r="Q198" s="48"/>
     </row>
-    <row r="199" spans="1:17" ht="22.5">
+    <row r="199" spans="1:17" ht="22">
       <c r="A199" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -18711,7 +18677,7 @@
       <c r="P199" s="48"/>
       <c r="Q199" s="48"/>
     </row>
-    <row r="200" spans="1:17" ht="22.5">
+    <row r="200" spans="1:17" ht="22">
       <c r="A200" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -18779,7 +18745,7 @@
       <c r="P201" s="48"/>
       <c r="Q201" s="48"/>
     </row>
-    <row r="202" spans="1:17" ht="22.5">
+    <row r="202" spans="1:17" ht="22">
       <c r="A202" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -18813,7 +18779,7 @@
       <c r="P202" s="48"/>
       <c r="Q202" s="48"/>
     </row>
-    <row r="203" spans="1:17" ht="33.75">
+    <row r="203" spans="1:17" ht="33">
       <c r="A203" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -18847,7 +18813,7 @@
       <c r="P203" s="48"/>
       <c r="Q203" s="48"/>
     </row>
-    <row r="204" spans="1:17" ht="33.75">
+    <row r="204" spans="1:17" ht="33">
       <c r="A204" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -18881,7 +18847,7 @@
       <c r="P204" s="48"/>
       <c r="Q204" s="48"/>
     </row>
-    <row r="205" spans="1:17" ht="45">
+    <row r="205" spans="1:17" ht="44">
       <c r="A205" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -18915,7 +18881,7 @@
       <c r="P205" s="48"/>
       <c r="Q205" s="48"/>
     </row>
-    <row r="206" spans="1:17" ht="33.75">
+    <row r="206" spans="1:17" ht="33">
       <c r="A206" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -18949,7 +18915,7 @@
       <c r="P206" s="48"/>
       <c r="Q206" s="48"/>
     </row>
-    <row r="207" spans="1:17" ht="33.75">
+    <row r="207" spans="1:17" ht="33">
       <c r="A207" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -18983,7 +18949,7 @@
       <c r="P207" s="48"/>
       <c r="Q207" s="48"/>
     </row>
-    <row r="208" spans="1:17" ht="22.5">
+    <row r="208" spans="1:17" ht="22">
       <c r="A208" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -19017,7 +18983,7 @@
       <c r="P208" s="48"/>
       <c r="Q208" s="48"/>
     </row>
-    <row r="209" spans="1:17" ht="22.5">
+    <row r="209" spans="1:17" ht="22">
       <c r="A209" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -19051,7 +19017,7 @@
       <c r="P209" s="48"/>
       <c r="Q209" s="48"/>
     </row>
-    <row r="210" spans="1:17" ht="33.75">
+    <row r="210" spans="1:17" ht="33">
       <c r="A210" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -19085,7 +19051,7 @@
       <c r="P210" s="48"/>
       <c r="Q210" s="48"/>
     </row>
-    <row r="211" spans="1:17" ht="22.5">
+    <row r="211" spans="1:17" ht="22">
       <c r="A211" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -19119,7 +19085,7 @@
       <c r="P211" s="48"/>
       <c r="Q211" s="48"/>
     </row>
-    <row r="212" spans="1:17" ht="22.5">
+    <row r="212" spans="1:17" ht="22">
       <c r="A212" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -19157,7 +19123,7 @@
       <c r="P212" s="48"/>
       <c r="Q212" s="48"/>
     </row>
-    <row r="213" spans="1:17" ht="22.5">
+    <row r="213" spans="1:17" ht="22">
       <c r="A213" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -19191,7 +19157,7 @@
       <c r="P213" s="48"/>
       <c r="Q213" s="48"/>
     </row>
-    <row r="214" spans="1:17" ht="22.5">
+    <row r="214" spans="1:17" ht="22">
       <c r="A214" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -19259,7 +19225,7 @@
       <c r="P215" s="48"/>
       <c r="Q215" s="48"/>
     </row>
-    <row r="216" spans="1:17" ht="22.5">
+    <row r="216" spans="1:17" ht="22">
       <c r="A216" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -19293,7 +19259,7 @@
       <c r="P216" s="48"/>
       <c r="Q216" s="48"/>
     </row>
-    <row r="217" spans="1:17" ht="45">
+    <row r="217" spans="1:17" ht="44">
       <c r="A217" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -19327,7 +19293,7 @@
       <c r="P217" s="48"/>
       <c r="Q217" s="48"/>
     </row>
-    <row r="218" spans="1:17" ht="33.75">
+    <row r="218" spans="1:17" ht="33">
       <c r="A218" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -19361,7 +19327,7 @@
       <c r="P218" s="48"/>
       <c r="Q218" s="48"/>
     </row>
-    <row r="219" spans="1:17" ht="33.75">
+    <row r="219" spans="1:17" ht="33">
       <c r="A219" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -19395,7 +19361,7 @@
       <c r="P219" s="48"/>
       <c r="Q219" s="48"/>
     </row>
-    <row r="220" spans="1:17" ht="45">
+    <row r="220" spans="1:17" ht="44">
       <c r="A220" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -19429,7 +19395,7 @@
       <c r="P220" s="48"/>
       <c r="Q220" s="48"/>
     </row>
-    <row r="221" spans="1:17" ht="33.75">
+    <row r="221" spans="1:17" ht="33">
       <c r="A221" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -19463,7 +19429,7 @@
       <c r="P221" s="48"/>
       <c r="Q221" s="48"/>
     </row>
-    <row r="222" spans="1:17" ht="33.75">
+    <row r="222" spans="1:17" ht="33">
       <c r="A222" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -19497,7 +19463,7 @@
       <c r="P222" s="48"/>
       <c r="Q222" s="48"/>
     </row>
-    <row r="223" spans="1:17" ht="22.5">
+    <row r="223" spans="1:17" ht="22">
       <c r="A223" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -19531,7 +19497,7 @@
       <c r="P223" s="48"/>
       <c r="Q223" s="48"/>
     </row>
-    <row r="224" spans="1:17" ht="22.5">
+    <row r="224" spans="1:17" ht="22">
       <c r="A224" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -19565,7 +19531,7 @@
       <c r="P224" s="48"/>
       <c r="Q224" s="48"/>
     </row>
-    <row r="225" spans="1:17" ht="33.75">
+    <row r="225" spans="1:17" ht="33">
       <c r="A225" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -19599,7 +19565,7 @@
       <c r="P225" s="48"/>
       <c r="Q225" s="48"/>
     </row>
-    <row r="226" spans="1:17" ht="22.5">
+    <row r="226" spans="1:17" ht="22">
       <c r="A226" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -19633,7 +19599,7 @@
       <c r="P226" s="48"/>
       <c r="Q226" s="48"/>
     </row>
-    <row r="227" spans="1:17" ht="45">
+    <row r="227" spans="1:17" ht="44">
       <c r="A227" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -19669,7 +19635,7 @@
       <c r="P227" s="48"/>
       <c r="Q227" s="48"/>
     </row>
-    <row r="228" spans="1:17" ht="45">
+    <row r="228" spans="1:17" ht="44">
       <c r="A228" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -19703,7 +19669,7 @@
       <c r="P228" s="48"/>
       <c r="Q228" s="48"/>
     </row>
-    <row r="229" spans="1:17" ht="33.75">
+    <row r="229" spans="1:17" ht="33">
       <c r="A229" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -19737,7 +19703,7 @@
       <c r="P229" s="48"/>
       <c r="Q229" s="48"/>
     </row>
-    <row r="230" spans="1:17" ht="33.75">
+    <row r="230" spans="1:17" ht="33">
       <c r="A230" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -19773,7 +19739,7 @@
       <c r="P230" s="48"/>
       <c r="Q230" s="48"/>
     </row>
-    <row r="231" spans="1:17" ht="22.5">
+    <row r="231" spans="1:17" ht="22">
       <c r="A231" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -19809,7 +19775,7 @@
       <c r="P231" s="48"/>
       <c r="Q231" s="48"/>
     </row>
-    <row r="232" spans="1:17" ht="22.5">
+    <row r="232" spans="1:17" ht="22">
       <c r="A232" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -19851,7 +19817,7 @@
       <c r="P232" s="48"/>
       <c r="Q232" s="48"/>
     </row>
-    <row r="233" spans="1:17" ht="22.5">
+    <row r="233" spans="1:17" ht="22">
       <c r="A233" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -19887,7 +19853,7 @@
       <c r="P233" s="48"/>
       <c r="Q233" s="48"/>
     </row>
-    <row r="234" spans="1:17" ht="22.5">
+    <row r="234" spans="1:17" ht="22">
       <c r="A234" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -19921,7 +19887,7 @@
       <c r="P234" s="48"/>
       <c r="Q234" s="48"/>
     </row>
-    <row r="235" spans="1:17" ht="22.5">
+    <row r="235" spans="1:17" ht="22">
       <c r="A235" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -19955,7 +19921,7 @@
       <c r="P235" s="48"/>
       <c r="Q235" s="48"/>
     </row>
-    <row r="236" spans="1:17" ht="22.5">
+    <row r="236" spans="1:17" ht="22">
       <c r="A236" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -19989,7 +19955,7 @@
       <c r="P236" s="48"/>
       <c r="Q236" s="48"/>
     </row>
-    <row r="237" spans="1:17" ht="33.75">
+    <row r="237" spans="1:17" ht="33">
       <c r="A237" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -20023,7 +19989,7 @@
       <c r="P237" s="48"/>
       <c r="Q237" s="48"/>
     </row>
-    <row r="238" spans="1:17" ht="33.75">
+    <row r="238" spans="1:17" ht="33">
       <c r="A238" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -20059,7 +20025,7 @@
       <c r="P238" s="48"/>
       <c r="Q238" s="48"/>
     </row>
-    <row r="239" spans="1:17" ht="33.75">
+    <row r="239" spans="1:17" ht="33">
       <c r="A239" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -20093,7 +20059,7 @@
       <c r="P239" s="48"/>
       <c r="Q239" s="48"/>
     </row>
-    <row r="240" spans="1:17" ht="45">
+    <row r="240" spans="1:17" ht="44">
       <c r="A240" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -20127,7 +20093,7 @@
       <c r="P240" s="48"/>
       <c r="Q240" s="48"/>
     </row>
-    <row r="241" spans="1:17" ht="45">
+    <row r="241" spans="1:17" ht="44">
       <c r="A241" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -20161,7 +20127,7 @@
       <c r="P241" s="48"/>
       <c r="Q241" s="48"/>
     </row>
-    <row r="242" spans="1:17" ht="33.75">
+    <row r="242" spans="1:17" ht="33">
       <c r="A242" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -20195,7 +20161,7 @@
       <c r="P242" s="48"/>
       <c r="Q242" s="48"/>
     </row>
-    <row r="243" spans="1:17" ht="33.75">
+    <row r="243" spans="1:17" ht="33">
       <c r="A243" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -20231,7 +20197,7 @@
       <c r="P243" s="48"/>
       <c r="Q243" s="48"/>
     </row>
-    <row r="244" spans="1:17" ht="33.75">
+    <row r="244" spans="1:17" ht="33">
       <c r="A244" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -20271,7 +20237,7 @@
       <c r="P244" s="48"/>
       <c r="Q244" s="48"/>
     </row>
-    <row r="245" spans="1:17" ht="22.5">
+    <row r="245" spans="1:17" ht="22">
       <c r="A245" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -20313,7 +20279,7 @@
       <c r="P245" s="48"/>
       <c r="Q245" s="48"/>
     </row>
-    <row r="246" spans="1:17" ht="22.5">
+    <row r="246" spans="1:17" ht="22">
       <c r="A246" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -20347,7 +20313,7 @@
       <c r="P246" s="48"/>
       <c r="Q246" s="48"/>
     </row>
-    <row r="247" spans="1:17" ht="33.75">
+    <row r="247" spans="1:17" ht="33">
       <c r="A247" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -20385,7 +20351,7 @@
       <c r="P247" s="48"/>
       <c r="Q247" s="48"/>
     </row>
-    <row r="248" spans="1:17" ht="33.75">
+    <row r="248" spans="1:17" ht="33">
       <c r="A248" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -20419,7 +20385,7 @@
       <c r="P248" s="48"/>
       <c r="Q248" s="48"/>
     </row>
-    <row r="249" spans="1:17" ht="33.75">
+    <row r="249" spans="1:17" ht="33">
       <c r="A249" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -20459,7 +20425,7 @@
       <c r="P249" s="48"/>
       <c r="Q249" s="48"/>
     </row>
-    <row r="250" spans="1:17" ht="33.75">
+    <row r="250" spans="1:17" ht="33">
       <c r="A250" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -20495,7 +20461,7 @@
       <c r="P250" s="48"/>
       <c r="Q250" s="48"/>
     </row>
-    <row r="251" spans="1:17" ht="33.75">
+    <row r="251" spans="1:17" ht="33">
       <c r="A251" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -20531,7 +20497,7 @@
       <c r="P251" s="48"/>
       <c r="Q251" s="48"/>
     </row>
-    <row r="252" spans="1:17" ht="33.75">
+    <row r="252" spans="1:17" ht="33">
       <c r="A252" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -20567,7 +20533,7 @@
       <c r="P252" s="48"/>
       <c r="Q252" s="48"/>
     </row>
-    <row r="253" spans="1:17" ht="22.5">
+    <row r="253" spans="1:17" ht="22">
       <c r="A253" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -20605,7 +20571,7 @@
       <c r="P253" s="48"/>
       <c r="Q253" s="48"/>
     </row>
-    <row r="254" spans="1:17" ht="22.5">
+    <row r="254" spans="1:17" ht="22">
       <c r="A254" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -20639,7 +20605,7 @@
       <c r="P254" s="48"/>
       <c r="Q254" s="48"/>
     </row>
-    <row r="255" spans="1:17" ht="33.75">
+    <row r="255" spans="1:17" ht="33">
       <c r="A255" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -20675,7 +20641,7 @@
       <c r="P255" s="48"/>
       <c r="Q255" s="48"/>
     </row>
-    <row r="256" spans="1:17" ht="33.75">
+    <row r="256" spans="1:17" ht="33">
       <c r="A256" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -20709,7 +20675,7 @@
       <c r="P256" s="48"/>
       <c r="Q256" s="48"/>
     </row>
-    <row r="257" spans="1:17" ht="33.75">
+    <row r="257" spans="1:17" ht="33">
       <c r="A257" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -20743,7 +20709,7 @@
       <c r="P257" s="48"/>
       <c r="Q257" s="48"/>
     </row>
-    <row r="258" spans="1:17" ht="33.75">
+    <row r="258" spans="1:17" ht="33">
       <c r="A258" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -20777,7 +20743,7 @@
       <c r="P258" s="48"/>
       <c r="Q258" s="48"/>
     </row>
-    <row r="259" spans="1:17" ht="33.75">
+    <row r="259" spans="1:17" ht="33">
       <c r="A259" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -20811,7 +20777,7 @@
       <c r="P259" s="48"/>
       <c r="Q259" s="48"/>
     </row>
-    <row r="260" spans="1:17" ht="22.5">
+    <row r="260" spans="1:17" ht="22">
       <c r="A260" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -20845,7 +20811,7 @@
       <c r="P260" s="48"/>
       <c r="Q260" s="48"/>
     </row>
-    <row r="261" spans="1:17" ht="22.5">
+    <row r="261" spans="1:17" ht="22">
       <c r="A261" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -20879,7 +20845,7 @@
       <c r="P261" s="48"/>
       <c r="Q261" s="48"/>
     </row>
-    <row r="262" spans="1:17" ht="33.75">
+    <row r="262" spans="1:17" ht="33">
       <c r="A262" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -20913,7 +20879,7 @@
       <c r="P262" s="48"/>
       <c r="Q262" s="48"/>
     </row>
-    <row r="263" spans="1:17" ht="33.75">
+    <row r="263" spans="1:17" ht="33">
       <c r="A263" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -20947,7 +20913,7 @@
       <c r="P263" s="48"/>
       <c r="Q263" s="48"/>
     </row>
-    <row r="264" spans="1:17" ht="33.75">
+    <row r="264" spans="1:17" ht="33">
       <c r="A264" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -20981,7 +20947,7 @@
       <c r="P264" s="48"/>
       <c r="Q264" s="48"/>
     </row>
-    <row r="265" spans="1:17" ht="33.75">
+    <row r="265" spans="1:17" ht="33">
       <c r="A265" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -21085,7 +21051,7 @@
       <c r="P267" s="48"/>
       <c r="Q267" s="48"/>
     </row>
-    <row r="268" spans="1:17" ht="22.5">
+    <row r="268" spans="1:17" ht="22">
       <c r="A268" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -21119,7 +21085,7 @@
       <c r="P268" s="48"/>
       <c r="Q268" s="48"/>
     </row>
-    <row r="269" spans="1:17" ht="22.5">
+    <row r="269" spans="1:17" ht="22">
       <c r="A269" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -21153,7 +21119,7 @@
       <c r="P269" s="48"/>
       <c r="Q269" s="48"/>
     </row>
-    <row r="270" spans="1:17" ht="22.5">
+    <row r="270" spans="1:17" ht="22">
       <c r="A270" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -21187,7 +21153,7 @@
       <c r="P270" s="48"/>
       <c r="Q270" s="48"/>
     </row>
-    <row r="271" spans="1:17" ht="33.75">
+    <row r="271" spans="1:17" ht="33">
       <c r="A271" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -21221,7 +21187,7 @@
       <c r="P271" s="48"/>
       <c r="Q271" s="48"/>
     </row>
-    <row r="272" spans="1:17" ht="22.5">
+    <row r="272" spans="1:17" ht="22">
       <c r="A272" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -21257,7 +21223,7 @@
       <c r="P272" s="48"/>
       <c r="Q272" s="48"/>
     </row>
-    <row r="273" spans="1:17" ht="33.75">
+    <row r="273" spans="1:17" ht="33">
       <c r="A273" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -21291,7 +21257,7 @@
       <c r="P273" s="48"/>
       <c r="Q273" s="48"/>
     </row>
-    <row r="274" spans="1:17" ht="45">
+    <row r="274" spans="1:17" ht="44">
       <c r="A274" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -21325,7 +21291,7 @@
       <c r="P274" s="48"/>
       <c r="Q274" s="48"/>
     </row>
-    <row r="275" spans="1:17" ht="45">
+    <row r="275" spans="1:17" ht="44">
       <c r="A275" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -21359,7 +21325,7 @@
       <c r="P275" s="48"/>
       <c r="Q275" s="48"/>
     </row>
-    <row r="276" spans="1:17" ht="22.5">
+    <row r="276" spans="1:17" ht="22">
       <c r="A276" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -21393,7 +21359,7 @@
       <c r="P276" s="48"/>
       <c r="Q276" s="48"/>
     </row>
-    <row r="277" spans="1:17" ht="45">
+    <row r="277" spans="1:17" ht="44">
       <c r="A277" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -21427,7 +21393,7 @@
       <c r="P277" s="48"/>
       <c r="Q277" s="48"/>
     </row>
-    <row r="278" spans="1:17" ht="45">
+    <row r="278" spans="1:17" ht="44">
       <c r="A278" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -21461,7 +21427,7 @@
       <c r="P278" s="48"/>
       <c r="Q278" s="48"/>
     </row>
-    <row r="279" spans="1:17" ht="22.5">
+    <row r="279" spans="1:17" ht="22">
       <c r="A279" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -21495,7 +21461,7 @@
       <c r="P279" s="48"/>
       <c r="Q279" s="48"/>
     </row>
-    <row r="280" spans="1:17" ht="22.5">
+    <row r="280" spans="1:17" ht="22">
       <c r="A280" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -21531,7 +21497,7 @@
       <c r="P280" s="48"/>
       <c r="Q280" s="48"/>
     </row>
-    <row r="281" spans="1:17" ht="22.5">
+    <row r="281" spans="1:17" ht="22">
       <c r="A281" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -21573,7 +21539,7 @@
       <c r="P281" s="67"/>
       <c r="Q281" s="67"/>
     </row>
-    <row r="282" spans="1:17" ht="22.5">
+    <row r="282" spans="1:17" ht="22">
       <c r="A282" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -21607,7 +21573,7 @@
       <c r="P282" s="67"/>
       <c r="Q282" s="67"/>
     </row>
-    <row r="283" spans="1:17" ht="22.5">
+    <row r="283" spans="1:17" ht="22">
       <c r="A283" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -21641,7 +21607,7 @@
       <c r="P283" s="67"/>
       <c r="Q283" s="67"/>
     </row>
-    <row r="284" spans="1:17" ht="22.5">
+    <row r="284" spans="1:17" ht="22">
       <c r="A284" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -21675,7 +21641,7 @@
       <c r="P284" s="67"/>
       <c r="Q284" s="67"/>
     </row>
-    <row r="285" spans="1:17" ht="22.5">
+    <row r="285" spans="1:17" ht="22">
       <c r="A285" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -21715,7 +21681,7 @@
       <c r="P285" s="67"/>
       <c r="Q285" s="67"/>
     </row>
-    <row r="286" spans="1:17" ht="22.5">
+    <row r="286" spans="1:17" ht="22">
       <c r="A286" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -21751,7 +21717,7 @@
       <c r="P286" s="67"/>
       <c r="Q286" s="67"/>
     </row>
-    <row r="287" spans="1:17" ht="22.5">
+    <row r="287" spans="1:17" ht="22">
       <c r="A287" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -21787,7 +21753,7 @@
       <c r="P287" s="67"/>
       <c r="Q287" s="67"/>
     </row>
-    <row r="288" spans="1:17" ht="22.5">
+    <row r="288" spans="1:17" ht="22">
       <c r="A288" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -21823,7 +21789,7 @@
       <c r="P288" s="67"/>
       <c r="Q288" s="67"/>
     </row>
-    <row r="289" spans="1:17" ht="22.5">
+    <row r="289" spans="1:17" ht="22">
       <c r="A289" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -21861,7 +21827,7 @@
       <c r="P289" s="67"/>
       <c r="Q289" s="67"/>
     </row>
-    <row r="290" spans="1:17" ht="22.5">
+    <row r="290" spans="1:17" ht="22">
       <c r="A290" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -21895,7 +21861,7 @@
       <c r="P290" s="67"/>
       <c r="Q290" s="67"/>
     </row>
-    <row r="291" spans="1:17" ht="33.75">
+    <row r="291" spans="1:17" ht="33">
       <c r="A291" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -21929,7 +21895,7 @@
       <c r="P291" s="67"/>
       <c r="Q291" s="67"/>
     </row>
-    <row r="292" spans="1:17" ht="33.75">
+    <row r="292" spans="1:17" ht="33">
       <c r="A292" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -21963,7 +21929,7 @@
       <c r="P292" s="67"/>
       <c r="Q292" s="67"/>
     </row>
-    <row r="293" spans="1:17" ht="33.75">
+    <row r="293" spans="1:17" ht="33">
       <c r="A293" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -21997,7 +21963,7 @@
       <c r="P293" s="67"/>
       <c r="Q293" s="67"/>
     </row>
-    <row r="294" spans="1:17" ht="33.75">
+    <row r="294" spans="1:17" ht="33">
       <c r="A294" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -22031,7 +21997,7 @@
       <c r="P294" s="67"/>
       <c r="Q294" s="67"/>
     </row>
-    <row r="295" spans="1:17" ht="33.75">
+    <row r="295" spans="1:17" ht="33">
       <c r="A295" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -22065,7 +22031,7 @@
       <c r="P295" s="67"/>
       <c r="Q295" s="67"/>
     </row>
-    <row r="296" spans="1:17" ht="22.5">
+    <row r="296" spans="1:17" ht="22">
       <c r="A296" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -22099,7 +22065,7 @@
       <c r="P296" s="67"/>
       <c r="Q296" s="67"/>
     </row>
-    <row r="297" spans="1:17" ht="22.5">
+    <row r="297" spans="1:17" ht="22">
       <c r="A297" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -22147,7 +22113,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -22168,17 +22134,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="3" width="8.625" style="28" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.625" style="28" customWidth="1"/>
-    <col min="10" max="11" width="23.625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="28" customWidth="1"/>
-    <col min="13" max="18" width="8.625" style="28" customWidth="1"/>
+    <col min="1" max="3" width="8.58203125" style="28" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="37.58203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.58203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="23.58203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="15.58203125" style="28" customWidth="1"/>
+    <col min="13" max="18" width="8.58203125" style="28" customWidth="1"/>
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -22224,7 +22190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="11.5" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -22244,7 +22210,7 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1"/>
+    <row r="9" spans="1:18" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
@@ -22301,7 +22267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="22.5">
+    <row r="11" spans="1:18" ht="22">
       <c r="A11" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -22344,7 +22310,7 @@
       <c r="Q11" s="99"/>
       <c r="R11" s="66"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5">
+    <row r="12" spans="1:18" ht="22">
       <c r="A12" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -22381,7 +22347,7 @@
       <c r="Q12" s="99"/>
       <c r="R12" s="66"/>
     </row>
-    <row r="13" spans="1:18" ht="33.75">
+    <row r="13" spans="1:18" ht="33">
       <c r="A13" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -22420,7 +22386,7 @@
       <c r="Q13" s="99"/>
       <c r="R13" s="66"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5">
+    <row r="14" spans="1:18" ht="22">
       <c r="A14" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -22455,7 +22421,7 @@
       <c r="Q14" s="99"/>
       <c r="R14" s="66"/>
     </row>
-    <row r="15" spans="1:18" ht="22.5">
+    <row r="15" spans="1:18" ht="22">
       <c r="A15" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -22490,7 +22456,7 @@
       <c r="Q15" s="99"/>
       <c r="R15" s="66"/>
     </row>
-    <row r="16" spans="1:18" ht="22.5">
+    <row r="16" spans="1:18" ht="22">
       <c r="A16" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -22525,7 +22491,7 @@
       <c r="Q16" s="99"/>
       <c r="R16" s="66"/>
     </row>
-    <row r="17" spans="1:18" ht="33.75">
+    <row r="17" spans="1:18" ht="33">
       <c r="A17" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -22560,7 +22526,7 @@
       <c r="Q17" s="99"/>
       <c r="R17" s="66"/>
     </row>
-    <row r="18" spans="1:18" ht="22.5">
+    <row r="18" spans="1:18" ht="22">
       <c r="A18" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -22599,7 +22565,7 @@
       <c r="Q18" s="99"/>
       <c r="R18" s="66"/>
     </row>
-    <row r="19" spans="1:18" ht="22.5">
+    <row r="19" spans="1:18" ht="22">
       <c r="A19" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -22634,7 +22600,7 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="66"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5">
+    <row r="20" spans="1:18" ht="22">
       <c r="A20" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -22669,7 +22635,7 @@
       <c r="Q20" s="99"/>
       <c r="R20" s="66"/>
     </row>
-    <row r="21" spans="1:18" ht="22.5">
+    <row r="21" spans="1:18" ht="22">
       <c r="A21" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -22706,7 +22672,7 @@
       <c r="Q21" s="99"/>
       <c r="R21" s="66"/>
     </row>
-    <row r="22" spans="1:18" ht="22.5">
+    <row r="22" spans="1:18" ht="22">
       <c r="A22" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -22741,7 +22707,7 @@
       <c r="Q22" s="99"/>
       <c r="R22" s="66"/>
     </row>
-    <row r="23" spans="1:18" ht="22.5">
+    <row r="23" spans="1:18" ht="22">
       <c r="A23" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -22776,7 +22742,7 @@
       <c r="Q23" s="99"/>
       <c r="R23" s="66"/>
     </row>
-    <row r="24" spans="1:18" ht="22.5">
+    <row r="24" spans="1:18" ht="22">
       <c r="A24" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -22811,7 +22777,7 @@
       <c r="Q24" s="99"/>
       <c r="R24" s="66"/>
     </row>
-    <row r="25" spans="1:18" ht="22.5">
+    <row r="25" spans="1:18" ht="22">
       <c r="A25" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -22850,7 +22816,7 @@
       <c r="Q25" s="99"/>
       <c r="R25" s="66"/>
     </row>
-    <row r="26" spans="1:18" ht="22.5">
+    <row r="26" spans="1:18" ht="22">
       <c r="A26" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -22885,7 +22851,7 @@
       <c r="Q26" s="99"/>
       <c r="R26" s="66"/>
     </row>
-    <row r="27" spans="1:18" ht="33.75">
+    <row r="27" spans="1:18" ht="33">
       <c r="A27" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -22924,7 +22890,7 @@
       <c r="Q27" s="99"/>
       <c r="R27" s="66"/>
     </row>
-    <row r="28" spans="1:18" ht="22.5">
+    <row r="28" spans="1:18" ht="22">
       <c r="A28" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -22959,7 +22925,7 @@
       <c r="Q28" s="99"/>
       <c r="R28" s="66"/>
     </row>
-    <row r="29" spans="1:18" ht="22.5">
+    <row r="29" spans="1:18" ht="22">
       <c r="A29" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -22996,7 +22962,7 @@
       <c r="Q29" s="99"/>
       <c r="R29" s="66"/>
     </row>
-    <row r="30" spans="1:18" ht="22.5">
+    <row r="30" spans="1:18" ht="22">
       <c r="A30" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -23031,7 +22997,7 @@
       <c r="Q30" s="99"/>
       <c r="R30" s="66"/>
     </row>
-    <row r="31" spans="1:18" ht="22.5">
+    <row r="31" spans="1:18" ht="22">
       <c r="A31" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -23066,7 +23032,7 @@
       <c r="Q31" s="99"/>
       <c r="R31" s="66"/>
     </row>
-    <row r="32" spans="1:18" ht="22.5">
+    <row r="32" spans="1:18" ht="22">
       <c r="A32" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -23101,7 +23067,7 @@
       <c r="Q32" s="99"/>
       <c r="R32" s="66"/>
     </row>
-    <row r="33" spans="1:18" ht="22.5">
+    <row r="33" spans="1:18" ht="22">
       <c r="A33" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -23138,7 +23104,7 @@
       <c r="Q33" s="99"/>
       <c r="R33" s="66"/>
     </row>
-    <row r="34" spans="1:18" ht="22.5">
+    <row r="34" spans="1:18" ht="22">
       <c r="A34" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -23173,7 +23139,7 @@
       <c r="Q34" s="99"/>
       <c r="R34" s="66"/>
     </row>
-    <row r="35" spans="1:18" ht="45">
+    <row r="35" spans="1:18" ht="44">
       <c r="A35" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -23210,7 +23176,7 @@
       <c r="Q35" s="99"/>
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:18" ht="33.75">
+    <row r="36" spans="1:18" ht="33">
       <c r="A36" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -23251,7 +23217,7 @@
       <c r="Q36" s="99"/>
       <c r="R36" s="66"/>
     </row>
-    <row r="37" spans="1:18" ht="33.75">
+    <row r="37" spans="1:18" ht="33">
       <c r="A37" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -23286,7 +23252,7 @@
       <c r="Q37" s="99"/>
       <c r="R37" s="66"/>
     </row>
-    <row r="38" spans="1:18" ht="33.75">
+    <row r="38" spans="1:18" ht="33">
       <c r="A38" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -23321,7 +23287,7 @@
       <c r="Q38" s="99"/>
       <c r="R38" s="66"/>
     </row>
-    <row r="39" spans="1:18" ht="33.75">
+    <row r="39" spans="1:18" ht="33">
       <c r="A39" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -23356,7 +23322,7 @@
       <c r="Q39" s="99"/>
       <c r="R39" s="66"/>
     </row>
-    <row r="40" spans="1:18" ht="33.75">
+    <row r="40" spans="1:18" ht="33">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -23395,7 +23361,7 @@
       <c r="Q40" s="99"/>
       <c r="R40" s="66"/>
     </row>
-    <row r="41" spans="1:18" ht="22.5">
+    <row r="41" spans="1:18" ht="22">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -23430,7 +23396,7 @@
       <c r="Q41" s="99"/>
       <c r="R41" s="66"/>
     </row>
-    <row r="42" spans="1:18" ht="67.5">
+    <row r="42" spans="1:18" ht="66">
       <c r="A42" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -23485,7 +23451,7 @@
       <c r="Q42" s="153"/>
       <c r="R42" s="141"/>
     </row>
-    <row r="43" spans="1:18" ht="45">
+    <row r="43" spans="1:18" ht="44">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -23534,7 +23500,7 @@
       <c r="Q43" s="153"/>
       <c r="R43" s="141"/>
     </row>
-    <row r="44" spans="1:18" ht="67.5">
+    <row r="44" spans="1:18" ht="66">
       <c r="A44" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -23587,7 +23553,7 @@
       <c r="Q44" s="153"/>
       <c r="R44" s="141"/>
     </row>
-    <row r="45" spans="1:18" ht="45">
+    <row r="45" spans="1:18" ht="44">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -23636,7 +23602,7 @@
       <c r="Q45" s="153"/>
       <c r="R45" s="141"/>
     </row>
-    <row r="46" spans="1:18" ht="22.5">
+    <row r="46" spans="1:18" ht="22">
       <c r="A46" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -23679,7 +23645,7 @@
       <c r="Q46" s="99"/>
       <c r="R46" s="66"/>
     </row>
-    <row r="47" spans="1:18" ht="22.5">
+    <row r="47" spans="1:18" ht="22">
       <c r="A47" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -23714,7 +23680,7 @@
       <c r="Q47" s="99"/>
       <c r="R47" s="66"/>
     </row>
-    <row r="48" spans="1:18" ht="33.75">
+    <row r="48" spans="1:18" ht="33">
       <c r="A48" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -23749,7 +23715,7 @@
       <c r="Q48" s="99"/>
       <c r="R48" s="66"/>
     </row>
-    <row r="49" spans="1:18" ht="22.5">
+    <row r="49" spans="1:18" ht="22">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -23786,7 +23752,7 @@
       <c r="Q49" s="99"/>
       <c r="R49" s="66"/>
     </row>
-    <row r="50" spans="1:18" ht="22.5">
+    <row r="50" spans="1:18" ht="22">
       <c r="A50" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -23821,7 +23787,7 @@
       <c r="Q50" s="99"/>
       <c r="R50" s="66"/>
     </row>
-    <row r="51" spans="1:18" ht="33.75">
+    <row r="51" spans="1:18" ht="33">
       <c r="A51" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -23856,7 +23822,7 @@
       <c r="Q51" s="99"/>
       <c r="R51" s="66"/>
     </row>
-    <row r="52" spans="1:18" ht="22.5">
+    <row r="52" spans="1:18" ht="22">
       <c r="A52" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -23893,7 +23859,7 @@
       <c r="Q52" s="99"/>
       <c r="R52" s="66"/>
     </row>
-    <row r="53" spans="1:18" ht="22.5">
+    <row r="53" spans="1:18" ht="22">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -23928,7 +23894,7 @@
       <c r="Q53" s="99"/>
       <c r="R53" s="66"/>
     </row>
-    <row r="54" spans="1:18" ht="22.5">
+    <row r="54" spans="1:18" ht="22">
       <c r="A54" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -23965,7 +23931,7 @@
       <c r="Q54" s="99"/>
       <c r="R54" s="66"/>
     </row>
-    <row r="55" spans="1:18" ht="22.5">
+    <row r="55" spans="1:18" ht="22">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -24000,7 +23966,7 @@
       <c r="Q55" s="99"/>
       <c r="R55" s="66"/>
     </row>
-    <row r="56" spans="1:18" ht="22.5">
+    <row r="56" spans="1:18" ht="22">
       <c r="A56" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -24035,7 +24001,7 @@
       <c r="Q56" s="99"/>
       <c r="R56" s="66"/>
     </row>
-    <row r="57" spans="1:18" ht="22.5">
+    <row r="57" spans="1:18" ht="22">
       <c r="A57" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -24070,7 +24036,7 @@
       <c r="Q57" s="99"/>
       <c r="R57" s="66"/>
     </row>
-    <row r="58" spans="1:18" ht="22.5">
+    <row r="58" spans="1:18" ht="22">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -24105,7 +24071,7 @@
       <c r="Q58" s="99"/>
       <c r="R58" s="66"/>
     </row>
-    <row r="59" spans="1:18" ht="22.5">
+    <row r="59" spans="1:18" ht="22">
       <c r="A59" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -24140,7 +24106,7 @@
       <c r="Q59" s="99"/>
       <c r="R59" s="66"/>
     </row>
-    <row r="60" spans="1:18" ht="45">
+    <row r="60" spans="1:18" ht="44">
       <c r="A60" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -24177,7 +24143,7 @@
       <c r="Q60" s="99"/>
       <c r="R60" s="66"/>
     </row>
-    <row r="61" spans="1:18" ht="33.75">
+    <row r="61" spans="1:18" ht="33">
       <c r="A61" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -24214,7 +24180,7 @@
       <c r="Q61" s="99"/>
       <c r="R61" s="66"/>
     </row>
-    <row r="62" spans="1:18" ht="22.5">
+    <row r="62" spans="1:18" ht="22">
       <c r="A62" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -24251,7 +24217,7 @@
       <c r="Q62" s="99"/>
       <c r="R62" s="66"/>
     </row>
-    <row r="63" spans="1:18" ht="45">
+    <row r="63" spans="1:18" ht="44">
       <c r="A63" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -24304,7 +24270,7 @@
       <c r="Q63" s="106"/>
       <c r="R63" s="61"/>
     </row>
-    <row r="64" spans="1:18" ht="22.5">
+    <row r="64" spans="1:18" ht="22">
       <c r="A64" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -24339,7 +24305,7 @@
       <c r="Q64" s="99"/>
       <c r="R64" s="66"/>
     </row>
-    <row r="65" spans="1:18" ht="45">
+    <row r="65" spans="1:18" ht="44">
       <c r="A65" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -24374,7 +24340,7 @@
       <c r="Q65" s="99"/>
       <c r="R65" s="66"/>
     </row>
-    <row r="66" spans="1:18" ht="22.5">
+    <row r="66" spans="1:18" ht="22">
       <c r="A66" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -24409,7 +24375,7 @@
       <c r="Q66" s="99"/>
       <c r="R66" s="66"/>
     </row>
-    <row r="67" spans="1:18" ht="22.5">
+    <row r="67" spans="1:18" ht="22">
       <c r="A67" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -24444,7 +24410,7 @@
       <c r="Q67" s="99"/>
       <c r="R67" s="66"/>
     </row>
-    <row r="68" spans="1:18" ht="33.75">
+    <row r="68" spans="1:18" ht="33">
       <c r="A68" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -24481,7 +24447,7 @@
       <c r="Q68" s="99"/>
       <c r="R68" s="66"/>
     </row>
-    <row r="69" spans="1:18" ht="33.75">
+    <row r="69" spans="1:18" ht="33">
       <c r="A69" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -24516,7 +24482,7 @@
       <c r="Q69" s="99"/>
       <c r="R69" s="66"/>
     </row>
-    <row r="70" spans="1:18" ht="45">
+    <row r="70" spans="1:18" ht="44">
       <c r="A70" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -24551,7 +24517,7 @@
       <c r="Q70" s="99"/>
       <c r="R70" s="66"/>
     </row>
-    <row r="71" spans="1:18" ht="33.75">
+    <row r="71" spans="1:18" ht="33">
       <c r="A71" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -24586,7 +24552,7 @@
       <c r="Q71" s="99"/>
       <c r="R71" s="66"/>
     </row>
-    <row r="72" spans="1:18" ht="33.75">
+    <row r="72" spans="1:18" ht="33">
       <c r="A72" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -24621,7 +24587,7 @@
       <c r="Q72" s="99"/>
       <c r="R72" s="66"/>
     </row>
-    <row r="73" spans="1:18" ht="22.5">
+    <row r="73" spans="1:18" ht="22">
       <c r="A73" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -24656,7 +24622,7 @@
       <c r="Q73" s="99"/>
       <c r="R73" s="66"/>
     </row>
-    <row r="74" spans="1:18" ht="22.5">
+    <row r="74" spans="1:18" ht="22">
       <c r="A74" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -24691,7 +24657,7 @@
       <c r="Q74" s="99"/>
       <c r="R74" s="66"/>
     </row>
-    <row r="75" spans="1:18" ht="33.75">
+    <row r="75" spans="1:18" ht="33">
       <c r="A75" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -24726,7 +24692,7 @@
       <c r="Q75" s="99"/>
       <c r="R75" s="66"/>
     </row>
-    <row r="76" spans="1:18" ht="45">
+    <row r="76" spans="1:18" ht="44">
       <c r="A76" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -24777,7 +24743,7 @@
       <c r="Q76" s="106"/>
       <c r="R76" s="61"/>
     </row>
-    <row r="77" spans="1:18" ht="45">
+    <row r="77" spans="1:18" ht="44">
       <c r="A77" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -24824,7 +24790,7 @@
       <c r="Q77" s="106"/>
       <c r="R77" s="61"/>
     </row>
-    <row r="78" spans="1:18" ht="45">
+    <row r="78" spans="1:18" ht="44">
       <c r="A78" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -24871,7 +24837,7 @@
       <c r="Q78" s="106"/>
       <c r="R78" s="61"/>
     </row>
-    <row r="79" spans="1:18" ht="33.75">
+    <row r="79" spans="1:18" ht="33">
       <c r="A79" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -24910,7 +24876,7 @@
       <c r="Q79" s="99"/>
       <c r="R79" s="66"/>
     </row>
-    <row r="80" spans="1:18" ht="45">
+    <row r="80" spans="1:18" ht="44">
       <c r="A80" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -24961,7 +24927,7 @@
       <c r="Q80" s="106"/>
       <c r="R80" s="61"/>
     </row>
-    <row r="81" spans="1:18" ht="45">
+    <row r="81" spans="1:18" ht="44">
       <c r="A81" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -25031,7 +24997,7 @@
       <c r="Q82" s="99"/>
       <c r="R82" s="66"/>
     </row>
-    <row r="83" spans="1:18" ht="22.5">
+    <row r="83" spans="1:18" ht="22">
       <c r="A83" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -25066,7 +25032,7 @@
       <c r="Q83" s="99"/>
       <c r="R83" s="66"/>
     </row>
-    <row r="84" spans="1:18" ht="33.75">
+    <row r="84" spans="1:18" ht="33">
       <c r="A84" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -25101,7 +25067,7 @@
       <c r="Q84" s="99"/>
       <c r="R84" s="66"/>
     </row>
-    <row r="85" spans="1:18" ht="22.5">
+    <row r="85" spans="1:18" ht="22">
       <c r="A85" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -25141,7 +25107,7 @@
       <c r="Q85" s="99"/>
       <c r="R85" s="66"/>
     </row>
-    <row r="86" spans="1:18" ht="33.75">
+    <row r="86" spans="1:18" ht="33">
       <c r="A86" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -25213,7 +25179,7 @@
       <c r="Q87" s="99"/>
       <c r="R87" s="66"/>
     </row>
-    <row r="88" spans="1:18" ht="33.75">
+    <row r="88" spans="1:18" ht="33">
       <c r="A88" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -25250,7 +25216,7 @@
       <c r="Q88" s="99"/>
       <c r="R88" s="66"/>
     </row>
-    <row r="89" spans="1:18" ht="33.75">
+    <row r="89" spans="1:18" ht="33">
       <c r="A89" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -25285,7 +25251,7 @@
       <c r="Q89" s="99"/>
       <c r="R89" s="66"/>
     </row>
-    <row r="90" spans="1:18" ht="22.5">
+    <row r="90" spans="1:18" ht="22">
       <c r="A90" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -25322,7 +25288,7 @@
       <c r="Q90" s="99"/>
       <c r="R90" s="66"/>
     </row>
-    <row r="91" spans="1:18" ht="22.5">
+    <row r="91" spans="1:18" ht="22">
       <c r="A91" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -25359,7 +25325,7 @@
       <c r="Q91" s="99"/>
       <c r="R91" s="66"/>
     </row>
-    <row r="92" spans="1:18" ht="45">
+    <row r="92" spans="1:18" ht="44">
       <c r="A92" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -25414,7 +25380,7 @@
       <c r="Q92" s="106"/>
       <c r="R92" s="61"/>
     </row>
-    <row r="93" spans="1:18" ht="45">
+    <row r="93" spans="1:18" ht="44">
       <c r="A93" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -25465,7 +25431,7 @@
       <c r="Q93" s="106"/>
       <c r="R93" s="61"/>
     </row>
-    <row r="94" spans="1:18" ht="56.25">
+    <row r="94" spans="1:18" ht="55">
       <c r="A94" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -25516,7 +25482,7 @@
       <c r="Q94" s="106"/>
       <c r="R94" s="61"/>
     </row>
-    <row r="95" spans="1:18" ht="22.5">
+    <row r="95" spans="1:18" ht="22">
       <c r="A95" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -25557,7 +25523,7 @@
       <c r="Q95" s="99"/>
       <c r="R95" s="66"/>
     </row>
-    <row r="96" spans="1:18" ht="33.75">
+    <row r="96" spans="1:18" ht="33">
       <c r="A96" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -25629,7 +25595,7 @@
       <c r="Q97" s="99"/>
       <c r="R97" s="66"/>
     </row>
-    <row r="98" spans="1:18" ht="33.75">
+    <row r="98" spans="1:18" ht="33">
       <c r="A98" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -25666,7 +25632,7 @@
       <c r="Q98" s="99"/>
       <c r="R98" s="66"/>
     </row>
-    <row r="99" spans="1:18" ht="33.75">
+    <row r="99" spans="1:18" ht="33">
       <c r="A99" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -25701,7 +25667,7 @@
       <c r="Q99" s="99"/>
       <c r="R99" s="66"/>
     </row>
-    <row r="100" spans="1:18" ht="33.75">
+    <row r="100" spans="1:18" ht="33">
       <c r="A100" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -25738,7 +25704,7 @@
       <c r="Q100" s="99"/>
       <c r="R100" s="66"/>
     </row>
-    <row r="101" spans="1:18" ht="22.5">
+    <row r="101" spans="1:18" ht="22">
       <c r="A101" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -25779,7 +25745,7 @@
       <c r="Q101" s="99"/>
       <c r="R101" s="66"/>
     </row>
-    <row r="102" spans="1:18" ht="33.75">
+    <row r="102" spans="1:18" ht="33">
       <c r="A102" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -25849,7 +25815,7 @@
       <c r="Q103" s="99"/>
       <c r="R103" s="66"/>
     </row>
-    <row r="104" spans="1:18" ht="33.75">
+    <row r="104" spans="1:18" ht="33">
       <c r="A104" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -25884,7 +25850,7 @@
       <c r="Q104" s="99"/>
       <c r="R104" s="66"/>
     </row>
-    <row r="105" spans="1:18" ht="33.75">
+    <row r="105" spans="1:18" ht="33">
       <c r="A105" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -25919,7 +25885,7 @@
       <c r="Q105" s="99"/>
       <c r="R105" s="66"/>
     </row>
-    <row r="106" spans="1:18" ht="22.5">
+    <row r="106" spans="1:18" ht="22">
       <c r="A106" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -25956,7 +25922,7 @@
       <c r="Q106" s="99"/>
       <c r="R106" s="66"/>
     </row>
-    <row r="107" spans="1:18" ht="33.75">
+    <row r="107" spans="1:18" ht="33">
       <c r="A107" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -26026,7 +25992,7 @@
       <c r="Q108" s="99"/>
       <c r="R108" s="66"/>
     </row>
-    <row r="109" spans="1:18" ht="33.75">
+    <row r="109" spans="1:18" ht="33">
       <c r="A109" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -26061,7 +26027,7 @@
       <c r="Q109" s="99"/>
       <c r="R109" s="66"/>
     </row>
-    <row r="110" spans="1:18" ht="33.75">
+    <row r="110" spans="1:18" ht="33">
       <c r="A110" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -26096,7 +26062,7 @@
       <c r="Q110" s="99"/>
       <c r="R110" s="66"/>
     </row>
-    <row r="111" spans="1:18" ht="33.75">
+    <row r="111" spans="1:18" ht="33">
       <c r="A111" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -26133,7 +26099,7 @@
       <c r="Q111" s="99"/>
       <c r="R111" s="66"/>
     </row>
-    <row r="112" spans="1:18" ht="33.75">
+    <row r="112" spans="1:18" ht="33">
       <c r="A112" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -26176,7 +26142,7 @@
       <c r="Q112" s="99"/>
       <c r="R112" s="66"/>
     </row>
-    <row r="113" spans="1:18" ht="22.5">
+    <row r="113" spans="1:18" ht="22">
       <c r="A113" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -26217,7 +26183,7 @@
       <c r="Q113" s="99"/>
       <c r="R113" s="66"/>
     </row>
-    <row r="114" spans="1:18" ht="22.5">
+    <row r="114" spans="1:18" ht="22">
       <c r="A114" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -26252,7 +26218,7 @@
       <c r="Q114" s="99"/>
       <c r="R114" s="66"/>
     </row>
-    <row r="115" spans="1:18" ht="33.75">
+    <row r="115" spans="1:18" ht="33">
       <c r="A115" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -26293,7 +26259,7 @@
       <c r="Q115" s="99"/>
       <c r="R115" s="66"/>
     </row>
-    <row r="116" spans="1:18" ht="56.25">
+    <row r="116" spans="1:18" ht="55">
       <c r="A116" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -26334,7 +26300,7 @@
       <c r="Q116" s="99"/>
       <c r="R116" s="66"/>
     </row>
-    <row r="117" spans="1:18" ht="33.75">
+    <row r="117" spans="1:18" ht="33">
       <c r="A117" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -26369,7 +26335,7 @@
       <c r="Q117" s="99"/>
       <c r="R117" s="66"/>
     </row>
-    <row r="118" spans="1:18" ht="33.75">
+    <row r="118" spans="1:18" ht="33">
       <c r="A118" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -26412,7 +26378,7 @@
       <c r="Q118" s="99"/>
       <c r="R118" s="66"/>
     </row>
-    <row r="119" spans="1:18" ht="22.5">
+    <row r="119" spans="1:18" ht="22">
       <c r="A119" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -26449,7 +26415,7 @@
       <c r="Q119" s="99"/>
       <c r="R119" s="66"/>
     </row>
-    <row r="120" spans="1:18" ht="33.75">
+    <row r="120" spans="1:18" ht="33">
       <c r="A120" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -26484,7 +26450,7 @@
       <c r="Q120" s="99"/>
       <c r="R120" s="66"/>
     </row>
-    <row r="121" spans="1:18" ht="33.75">
+    <row r="121" spans="1:18" ht="33">
       <c r="A121" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -26519,7 +26485,7 @@
       <c r="Q121" s="99"/>
       <c r="R121" s="66"/>
     </row>
-    <row r="122" spans="1:18" ht="22.5">
+    <row r="122" spans="1:18" ht="22">
       <c r="A122" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -26556,7 +26522,7 @@
       <c r="Q122" s="99"/>
       <c r="R122" s="66"/>
     </row>
-    <row r="123" spans="1:18" ht="22.5">
+    <row r="123" spans="1:18" ht="22">
       <c r="A123" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -26591,7 +26557,7 @@
       <c r="Q123" s="99"/>
       <c r="R123" s="66"/>
     </row>
-    <row r="124" spans="1:18" ht="22.5">
+    <row r="124" spans="1:18" ht="22">
       <c r="A124" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -26626,7 +26592,7 @@
       <c r="Q124" s="99"/>
       <c r="R124" s="66"/>
     </row>
-    <row r="125" spans="1:18" ht="22.5">
+    <row r="125" spans="1:18" ht="22">
       <c r="A125" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -26661,7 +26627,7 @@
       <c r="Q125" s="99"/>
       <c r="R125" s="66"/>
     </row>
-    <row r="126" spans="1:18" ht="33.75">
+    <row r="126" spans="1:18" ht="33">
       <c r="A126" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -26696,7 +26662,7 @@
       <c r="Q126" s="99"/>
       <c r="R126" s="66"/>
     </row>
-    <row r="127" spans="1:18" ht="33.75">
+    <row r="127" spans="1:18" ht="33">
       <c r="A127" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -26733,7 +26699,7 @@
       <c r="Q127" s="99"/>
       <c r="R127" s="66"/>
     </row>
-    <row r="128" spans="1:18" ht="33.75">
+    <row r="128" spans="1:18" ht="33">
       <c r="A128" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -26768,7 +26734,7 @@
       <c r="Q128" s="99"/>
       <c r="R128" s="66"/>
     </row>
-    <row r="129" spans="1:18" ht="45">
+    <row r="129" spans="1:18" ht="44">
       <c r="A129" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -26803,7 +26769,7 @@
       <c r="Q129" s="99"/>
       <c r="R129" s="66"/>
     </row>
-    <row r="130" spans="1:18" ht="45">
+    <row r="130" spans="1:18" ht="44">
       <c r="A130" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -26838,7 +26804,7 @@
       <c r="Q130" s="99"/>
       <c r="R130" s="66"/>
     </row>
-    <row r="131" spans="1:18" ht="45">
+    <row r="131" spans="1:18" ht="44">
       <c r="A131" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -26873,7 +26839,7 @@
       <c r="Q131" s="99"/>
       <c r="R131" s="66"/>
     </row>
-    <row r="132" spans="1:18" ht="33.75">
+    <row r="132" spans="1:18" ht="33">
       <c r="A132" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -26910,7 +26876,7 @@
       <c r="Q132" s="99"/>
       <c r="R132" s="66"/>
     </row>
-    <row r="133" spans="1:18" ht="33.75">
+    <row r="133" spans="1:18" ht="33">
       <c r="A133" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -26949,7 +26915,7 @@
       <c r="Q133" s="99"/>
       <c r="R133" s="66"/>
     </row>
-    <row r="134" spans="1:18" ht="45">
+    <row r="134" spans="1:18" ht="44">
       <c r="A134" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -26990,7 +26956,7 @@
       <c r="Q134" s="99"/>
       <c r="R134" s="66"/>
     </row>
-    <row r="135" spans="1:18" ht="33.75">
+    <row r="135" spans="1:18" ht="33">
       <c r="A135" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -27027,7 +26993,7 @@
       <c r="Q135" s="99"/>
       <c r="R135" s="66"/>
     </row>
-    <row r="136" spans="1:18" ht="22.5">
+    <row r="136" spans="1:18" ht="22">
       <c r="A136" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -27062,7 +27028,7 @@
       <c r="Q136" s="99"/>
       <c r="R136" s="66"/>
     </row>
-    <row r="137" spans="1:18" ht="45">
+    <row r="137" spans="1:18" ht="44">
       <c r="A137" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -27097,7 +27063,7 @@
       <c r="Q137" s="99"/>
       <c r="R137" s="66"/>
     </row>
-    <row r="138" spans="1:18" ht="22.5">
+    <row r="138" spans="1:18" ht="22">
       <c r="A138" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -27140,7 +27106,7 @@
       <c r="Q138" s="99"/>
       <c r="R138" s="66"/>
     </row>
-    <row r="139" spans="1:18" ht="22.5">
+    <row r="139" spans="1:18" ht="22">
       <c r="A139" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -27177,7 +27143,7 @@
       <c r="Q139" s="99"/>
       <c r="R139" s="66"/>
     </row>
-    <row r="140" spans="1:18" ht="33.75">
+    <row r="140" spans="1:18" ht="33">
       <c r="A140" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -27212,7 +27178,7 @@
       <c r="Q140" s="99"/>
       <c r="R140" s="66"/>
     </row>
-    <row r="141" spans="1:18" ht="22.5">
+    <row r="141" spans="1:18" ht="22">
       <c r="A141" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -27247,7 +27213,7 @@
       <c r="Q141" s="99"/>
       <c r="R141" s="66"/>
     </row>
-    <row r="142" spans="1:18" ht="22.5">
+    <row r="142" spans="1:18" ht="22">
       <c r="A142" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -27284,7 +27250,7 @@
       <c r="Q142" s="99"/>
       <c r="R142" s="66"/>
     </row>
-    <row r="143" spans="1:18" ht="33.75">
+    <row r="143" spans="1:18" ht="33">
       <c r="A143" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -27319,7 +27285,7 @@
       <c r="Q143" s="99"/>
       <c r="R143" s="66"/>
     </row>
-    <row r="144" spans="1:18" ht="33.75">
+    <row r="144" spans="1:18" ht="33">
       <c r="A144" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -27358,7 +27324,7 @@
       <c r="Q144" s="99"/>
       <c r="R144" s="66"/>
     </row>
-    <row r="145" spans="1:18" ht="33.75">
+    <row r="145" spans="1:18" ht="33">
       <c r="A145" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -27399,7 +27365,7 @@
       <c r="Q145" s="99"/>
       <c r="R145" s="66"/>
     </row>
-    <row r="146" spans="1:18" ht="33.75">
+    <row r="146" spans="1:18" ht="33">
       <c r="A146" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -27436,7 +27402,7 @@
       <c r="Q146" s="99"/>
       <c r="R146" s="66"/>
     </row>
-    <row r="147" spans="1:18" ht="33.75">
+    <row r="147" spans="1:18" ht="33">
       <c r="A147" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -27473,7 +27439,7 @@
       <c r="Q147" s="99"/>
       <c r="R147" s="66"/>
     </row>
-    <row r="148" spans="1:18" ht="33.75">
+    <row r="148" spans="1:18" ht="33">
       <c r="A148" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -27510,7 +27476,7 @@
       <c r="Q148" s="99"/>
       <c r="R148" s="66"/>
     </row>
-    <row r="149" spans="1:18" ht="33.75">
+    <row r="149" spans="1:18" ht="33">
       <c r="A149" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -27547,7 +27513,7 @@
       <c r="Q149" s="99"/>
       <c r="R149" s="66"/>
     </row>
-    <row r="150" spans="1:18" ht="22.5">
+    <row r="150" spans="1:18" ht="22">
       <c r="A150" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -27584,7 +27550,7 @@
       <c r="Q150" s="99"/>
       <c r="R150" s="66"/>
     </row>
-    <row r="151" spans="1:18" ht="22.5">
+    <row r="151" spans="1:18" ht="22">
       <c r="A151" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -27619,7 +27585,7 @@
       <c r="Q151" s="99"/>
       <c r="R151" s="66"/>
     </row>
-    <row r="152" spans="1:18" ht="22.5">
+    <row r="152" spans="1:18" ht="22">
       <c r="A152" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -27654,7 +27620,7 @@
       <c r="Q152" s="99"/>
       <c r="R152" s="66"/>
     </row>
-    <row r="153" spans="1:18" ht="22.5">
+    <row r="153" spans="1:18" ht="22">
       <c r="A153" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -27689,7 +27655,7 @@
       <c r="Q153" s="99"/>
       <c r="R153" s="66"/>
     </row>
-    <row r="154" spans="1:18" ht="22.5">
+    <row r="154" spans="1:18" ht="22">
       <c r="A154" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -27724,7 +27690,7 @@
       <c r="Q154" s="99"/>
       <c r="R154" s="66"/>
     </row>
-    <row r="155" spans="1:18" ht="22.5">
+    <row r="155" spans="1:18" ht="22">
       <c r="A155" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -27759,7 +27725,7 @@
       <c r="Q155" s="99"/>
       <c r="R155" s="66"/>
     </row>
-    <row r="156" spans="1:18" ht="22.5">
+    <row r="156" spans="1:18" ht="22">
       <c r="A156" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -27798,7 +27764,7 @@
       <c r="Q156" s="99"/>
       <c r="R156" s="66"/>
     </row>
-    <row r="157" spans="1:18" ht="22.5">
+    <row r="157" spans="1:18" ht="22">
       <c r="A157" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -27833,7 +27799,7 @@
       <c r="Q157" s="99"/>
       <c r="R157" s="66"/>
     </row>
-    <row r="158" spans="1:18" ht="33.75">
+    <row r="158" spans="1:18" ht="33">
       <c r="A158" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -27870,7 +27836,7 @@
       <c r="Q158" s="99"/>
       <c r="R158" s="66"/>
     </row>
-    <row r="159" spans="1:18" ht="33.75">
+    <row r="159" spans="1:18" ht="33">
       <c r="A159" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -27905,7 +27871,7 @@
       <c r="Q159" s="99"/>
       <c r="R159" s="66"/>
     </row>
-    <row r="160" spans="1:18" ht="45">
+    <row r="160" spans="1:18" ht="44">
       <c r="A160" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -27940,7 +27906,7 @@
       <c r="Q160" s="99"/>
       <c r="R160" s="66"/>
     </row>
-    <row r="161" spans="1:18" ht="33.75">
+    <row r="161" spans="1:18" ht="33">
       <c r="A161" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -27975,7 +27941,7 @@
       <c r="Q161" s="99"/>
       <c r="R161" s="66"/>
     </row>
-    <row r="162" spans="1:18" ht="33.75">
+    <row r="162" spans="1:18" ht="33">
       <c r="A162" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -28010,7 +27976,7 @@
       <c r="Q162" s="99"/>
       <c r="R162" s="66"/>
     </row>
-    <row r="163" spans="1:18" ht="22.5">
+    <row r="163" spans="1:18" ht="22">
       <c r="A163" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -28045,7 +28011,7 @@
       <c r="Q163" s="99"/>
       <c r="R163" s="66"/>
     </row>
-    <row r="164" spans="1:18" ht="22.5">
+    <row r="164" spans="1:18" ht="22">
       <c r="A164" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -28080,7 +28046,7 @@
       <c r="Q164" s="99"/>
       <c r="R164" s="66"/>
     </row>
-    <row r="165" spans="1:18" ht="33.75">
+    <row r="165" spans="1:18" ht="33">
       <c r="A165" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -28115,7 +28081,7 @@
       <c r="Q165" s="99"/>
       <c r="R165" s="66"/>
     </row>
-    <row r="166" spans="1:18" ht="33.75">
+    <row r="166" spans="1:18" ht="33">
       <c r="A166" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -28150,7 +28116,7 @@
       <c r="Q166" s="99"/>
       <c r="R166" s="66"/>
     </row>
-    <row r="167" spans="1:18" ht="45">
+    <row r="167" spans="1:18" ht="44">
       <c r="A167" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -28185,7 +28151,7 @@
       <c r="Q167" s="99"/>
       <c r="R167" s="66"/>
     </row>
-    <row r="168" spans="1:18" ht="33.75">
+    <row r="168" spans="1:18" ht="33">
       <c r="A168" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -28220,7 +28186,7 @@
       <c r="Q168" s="99"/>
       <c r="R168" s="66"/>
     </row>
-    <row r="169" spans="1:18" ht="22.5">
+    <row r="169" spans="1:18" ht="22">
       <c r="A169" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -28257,7 +28223,7 @@
       <c r="Q169" s="99"/>
       <c r="R169" s="66"/>
     </row>
-    <row r="170" spans="1:18" ht="22.5">
+    <row r="170" spans="1:18" ht="22">
       <c r="A170" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -28292,7 +28258,7 @@
       <c r="Q170" s="99"/>
       <c r="R170" s="66"/>
     </row>
-    <row r="171" spans="1:18" ht="33.75">
+    <row r="171" spans="1:18" ht="33">
       <c r="A171" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -28327,7 +28293,7 @@
       <c r="Q171" s="99"/>
       <c r="R171" s="66"/>
     </row>
-    <row r="172" spans="1:18" ht="22.5">
+    <row r="172" spans="1:18" ht="22">
       <c r="A172" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -28362,7 +28328,7 @@
       <c r="Q172" s="99"/>
       <c r="R172" s="66"/>
     </row>
-    <row r="173" spans="1:18" ht="22.5">
+    <row r="173" spans="1:18" ht="22">
       <c r="A173" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -28397,7 +28363,7 @@
       <c r="Q173" s="99"/>
       <c r="R173" s="66"/>
     </row>
-    <row r="174" spans="1:18" ht="33.75">
+    <row r="174" spans="1:18" ht="33">
       <c r="A174" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -28432,7 +28398,7 @@
       <c r="Q174" s="99"/>
       <c r="R174" s="66"/>
     </row>
-    <row r="175" spans="1:18" ht="22.5">
+    <row r="175" spans="1:18" ht="22">
       <c r="A175" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -28467,7 +28433,7 @@
       <c r="Q175" s="99"/>
       <c r="R175" s="66"/>
     </row>
-    <row r="176" spans="1:18" ht="22.5">
+    <row r="176" spans="1:18" ht="22">
       <c r="A176" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -28504,7 +28470,7 @@
       <c r="Q176" s="99"/>
       <c r="R176" s="66"/>
     </row>
-    <row r="177" spans="1:18" ht="33.75">
+    <row r="177" spans="1:18" ht="33">
       <c r="A177" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -28539,7 +28505,7 @@
       <c r="Q177" s="99"/>
       <c r="R177" s="66"/>
     </row>
-    <row r="178" spans="1:18" ht="33.75">
+    <row r="178" spans="1:18" ht="33">
       <c r="A178" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -28574,7 +28540,7 @@
       <c r="Q178" s="99"/>
       <c r="R178" s="66"/>
     </row>
-    <row r="179" spans="1:18" ht="45">
+    <row r="179" spans="1:18" ht="44">
       <c r="A179" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -28609,7 +28575,7 @@
       <c r="Q179" s="99"/>
       <c r="R179" s="66"/>
     </row>
-    <row r="180" spans="1:18" ht="45">
+    <row r="180" spans="1:18" ht="44">
       <c r="A180" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -28644,7 +28610,7 @@
       <c r="Q180" s="99"/>
       <c r="R180" s="66"/>
     </row>
-    <row r="181" spans="1:18" ht="33.75">
+    <row r="181" spans="1:18" ht="33">
       <c r="A181" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -28679,7 +28645,7 @@
       <c r="Q181" s="99"/>
       <c r="R181" s="66"/>
     </row>
-    <row r="182" spans="1:18" ht="45">
+    <row r="182" spans="1:18" ht="44">
       <c r="A182" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -28714,7 +28680,7 @@
       <c r="Q182" s="99"/>
       <c r="R182" s="66"/>
     </row>
-    <row r="183" spans="1:18" ht="45">
+    <row r="183" spans="1:18" ht="44">
       <c r="A183" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -28749,7 +28715,7 @@
       <c r="Q183" s="99"/>
       <c r="R183" s="66"/>
     </row>
-    <row r="184" spans="1:18" ht="22.5">
+    <row r="184" spans="1:18" ht="22">
       <c r="A184" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -28784,7 +28750,7 @@
       <c r="Q184" s="99"/>
       <c r="R184" s="66"/>
     </row>
-    <row r="185" spans="1:18" ht="33.75">
+    <row r="185" spans="1:18" ht="33">
       <c r="A185" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -28821,7 +28787,7 @@
       <c r="Q185" s="99"/>
       <c r="R185" s="66"/>
     </row>
-    <row r="186" spans="1:18" ht="22.5">
+    <row r="186" spans="1:18" ht="22">
       <c r="A186" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -28858,7 +28824,7 @@
       <c r="Q186" s="99"/>
       <c r="R186" s="66"/>
     </row>
-    <row r="187" spans="1:18" ht="22.5">
+    <row r="187" spans="1:18" ht="22">
       <c r="A187" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -28901,7 +28867,7 @@
       <c r="Q187" s="99"/>
       <c r="R187" s="66"/>
     </row>
-    <row r="188" spans="1:18" ht="22.5">
+    <row r="188" spans="1:18" ht="22">
       <c r="A188" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -28940,7 +28906,7 @@
       <c r="Q188" s="99"/>
       <c r="R188" s="66"/>
     </row>
-    <row r="189" spans="1:18" ht="22.5">
+    <row r="189" spans="1:18" ht="22">
       <c r="A189" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -28979,7 +28945,7 @@
       <c r="Q189" s="99"/>
       <c r="R189" s="66"/>
     </row>
-    <row r="190" spans="1:18" ht="22.5">
+    <row r="190" spans="1:18" ht="22">
       <c r="A190" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -29022,7 +28988,7 @@
       <c r="Q190" s="117"/>
       <c r="R190" s="45"/>
     </row>
-    <row r="191" spans="1:18" ht="22.5">
+    <row r="191" spans="1:18" ht="22">
       <c r="A191" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -29059,7 +29025,7 @@
       <c r="Q191" s="117"/>
       <c r="R191" s="45"/>
     </row>
-    <row r="192" spans="1:18" ht="22.5">
+    <row r="192" spans="1:18" ht="22">
       <c r="A192" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -29094,7 +29060,7 @@
       <c r="Q192" s="117"/>
       <c r="R192" s="45"/>
     </row>
-    <row r="193" spans="1:18" ht="33.75">
+    <row r="193" spans="1:18" ht="33">
       <c r="A193" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -29131,7 +29097,7 @@
       <c r="Q193" s="117"/>
       <c r="R193" s="45"/>
     </row>
-    <row r="194" spans="1:18" ht="33.75">
+    <row r="194" spans="1:18" ht="33">
       <c r="A194" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -29166,7 +29132,7 @@
       <c r="Q194" s="117"/>
       <c r="R194" s="45"/>
     </row>
-    <row r="195" spans="1:18" ht="33.75">
+    <row r="195" spans="1:18" ht="33">
       <c r="A195" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -29205,7 +29171,7 @@
       <c r="Q195" s="117"/>
       <c r="R195" s="45"/>
     </row>
-    <row r="196" spans="1:18" ht="22.5">
+    <row r="196" spans="1:18" ht="22">
       <c r="A196" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -29246,7 +29212,7 @@
       <c r="Q196" s="117"/>
       <c r="R196" s="45"/>
     </row>
-    <row r="197" spans="1:18" ht="22.5">
+    <row r="197" spans="1:18" ht="22">
       <c r="A197" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -29281,7 +29247,7 @@
       <c r="Q197" s="117"/>
       <c r="R197" s="45"/>
     </row>
-    <row r="198" spans="1:18" ht="22.5">
+    <row r="198" spans="1:18" ht="22">
       <c r="A198" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -29316,7 +29282,7 @@
       <c r="Q198" s="117"/>
       <c r="R198" s="45"/>
     </row>
-    <row r="199" spans="1:18" ht="22.5">
+    <row r="199" spans="1:18" ht="22">
       <c r="A199" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -29351,7 +29317,7 @@
       <c r="Q199" s="117"/>
       <c r="R199" s="45"/>
     </row>
-    <row r="200" spans="1:18" ht="22.5">
+    <row r="200" spans="1:18" ht="22">
       <c r="A200" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -29386,7 +29352,7 @@
       <c r="Q200" s="117"/>
       <c r="R200" s="45"/>
     </row>
-    <row r="201" spans="1:18" ht="22.5">
+    <row r="201" spans="1:18" ht="22">
       <c r="A201" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -29421,7 +29387,7 @@
       <c r="Q201" s="117"/>
       <c r="R201" s="45"/>
     </row>
-    <row r="202" spans="1:18" ht="22.5">
+    <row r="202" spans="1:18" ht="22">
       <c r="A202" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -29456,7 +29422,7 @@
       <c r="Q202" s="117"/>
       <c r="R202" s="45"/>
     </row>
-    <row r="203" spans="1:18" ht="22.5">
+    <row r="203" spans="1:18" ht="22">
       <c r="A203" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -29493,7 +29459,7 @@
       <c r="Q203" s="117"/>
       <c r="R203" s="45"/>
     </row>
-    <row r="204" spans="1:18" ht="22.5">
+    <row r="204" spans="1:18" ht="22">
       <c r="A204" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -29532,7 +29498,7 @@
       <c r="Q204" s="117"/>
       <c r="R204" s="45"/>
     </row>
-    <row r="205" spans="1:18" ht="22.5">
+    <row r="205" spans="1:18" ht="22">
       <c r="A205" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -29567,7 +29533,7 @@
       <c r="Q205" s="117"/>
       <c r="R205" s="45"/>
     </row>
-    <row r="206" spans="1:18" ht="22.5">
+    <row r="206" spans="1:18" ht="22">
       <c r="A206" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -29602,7 +29568,7 @@
       <c r="Q206" s="117"/>
       <c r="R206" s="45"/>
     </row>
-    <row r="207" spans="1:18" ht="22.5">
+    <row r="207" spans="1:18" ht="22">
       <c r="A207" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -29637,7 +29603,7 @@
       <c r="Q207" s="117"/>
       <c r="R207" s="45"/>
     </row>
-    <row r="208" spans="1:18" ht="33.75">
+    <row r="208" spans="1:18" ht="33">
       <c r="A208" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -29672,7 +29638,7 @@
       <c r="Q208" s="117"/>
       <c r="R208" s="45"/>
     </row>
-    <row r="209" spans="1:18" ht="45">
+    <row r="209" spans="1:18" ht="44">
       <c r="A209" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -29707,7 +29673,7 @@
       <c r="Q209" s="117"/>
       <c r="R209" s="45"/>
     </row>
-    <row r="210" spans="1:18" ht="45">
+    <row r="210" spans="1:18" ht="44">
       <c r="A210" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -29742,7 +29708,7 @@
       <c r="Q210" s="117"/>
       <c r="R210" s="45"/>
     </row>
-    <row r="211" spans="1:18" ht="45">
+    <row r="211" spans="1:18" ht="44">
       <c r="A211" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -29777,7 +29743,7 @@
       <c r="Q211" s="117"/>
       <c r="R211" s="45"/>
     </row>
-    <row r="212" spans="1:18" ht="33.75">
+    <row r="212" spans="1:18" ht="33">
       <c r="A212" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -29812,7 +29778,7 @@
       <c r="Q212" s="117"/>
       <c r="R212" s="45"/>
     </row>
-    <row r="213" spans="1:18" ht="22.5">
+    <row r="213" spans="1:18" ht="22">
       <c r="A213" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -29847,7 +29813,7 @@
       <c r="Q213" s="117"/>
       <c r="R213" s="45"/>
     </row>
-    <row r="214" spans="1:18" ht="22.5">
+    <row r="214" spans="1:18" ht="22">
       <c r="A214" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -29882,7 +29848,7 @@
       <c r="Q214" s="117"/>
       <c r="R214" s="45"/>
     </row>
-    <row r="215" spans="1:18" ht="33.75">
+    <row r="215" spans="1:18" ht="33">
       <c r="A215" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -29917,7 +29883,7 @@
       <c r="Q215" s="117"/>
       <c r="R215" s="45"/>
     </row>
-    <row r="216" spans="1:18" ht="22.5">
+    <row r="216" spans="1:18" ht="22">
       <c r="A216" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -29952,7 +29918,7 @@
       <c r="Q216" s="117"/>
       <c r="R216" s="45"/>
     </row>
-    <row r="217" spans="1:18" ht="22.5">
+    <row r="217" spans="1:18" ht="22">
       <c r="A217" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -29991,7 +29957,7 @@
       <c r="Q217" s="117"/>
       <c r="R217" s="45"/>
     </row>
-    <row r="218" spans="1:18" ht="22.5">
+    <row r="218" spans="1:18" ht="22">
       <c r="A218" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -30026,7 +29992,7 @@
       <c r="Q218" s="117"/>
       <c r="R218" s="45"/>
     </row>
-    <row r="219" spans="1:18" ht="22.5">
+    <row r="219" spans="1:18" ht="22">
       <c r="A219" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -30061,7 +30027,7 @@
       <c r="Q219" s="117"/>
       <c r="R219" s="45"/>
     </row>
-    <row r="220" spans="1:18" ht="22.5">
+    <row r="220" spans="1:18" ht="22">
       <c r="A220" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -30096,7 +30062,7 @@
       <c r="Q220" s="117"/>
       <c r="R220" s="45"/>
     </row>
-    <row r="221" spans="1:18" ht="22.5">
+    <row r="221" spans="1:18" ht="22">
       <c r="A221" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -30131,7 +30097,7 @@
       <c r="Q221" s="117"/>
       <c r="R221" s="45"/>
     </row>
-    <row r="222" spans="1:18" ht="45">
+    <row r="222" spans="1:18" ht="44">
       <c r="A222" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -30166,7 +30132,7 @@
       <c r="Q222" s="117"/>
       <c r="R222" s="45"/>
     </row>
-    <row r="223" spans="1:18" ht="33.75">
+    <row r="223" spans="1:18" ht="33">
       <c r="A223" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -30201,7 +30167,7 @@
       <c r="Q223" s="117"/>
       <c r="R223" s="45"/>
     </row>
-    <row r="224" spans="1:18" ht="45">
+    <row r="224" spans="1:18" ht="44">
       <c r="A224" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -30236,7 +30202,7 @@
       <c r="Q224" s="117"/>
       <c r="R224" s="45"/>
     </row>
-    <row r="225" spans="1:18" ht="45">
+    <row r="225" spans="1:18" ht="44">
       <c r="A225" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -30271,7 +30237,7 @@
       <c r="Q225" s="117"/>
       <c r="R225" s="45"/>
     </row>
-    <row r="226" spans="1:18" ht="45">
+    <row r="226" spans="1:18" ht="44">
       <c r="A226" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -30306,7 +30272,7 @@
       <c r="Q226" s="117"/>
       <c r="R226" s="45"/>
     </row>
-    <row r="227" spans="1:18" ht="33.75">
+    <row r="227" spans="1:18" ht="33">
       <c r="A227" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -30341,7 +30307,7 @@
       <c r="Q227" s="117"/>
       <c r="R227" s="45"/>
     </row>
-    <row r="228" spans="1:18" ht="22.5">
+    <row r="228" spans="1:18" ht="22">
       <c r="A228" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -30376,7 +30342,7 @@
       <c r="Q228" s="117"/>
       <c r="R228" s="45"/>
     </row>
-    <row r="229" spans="1:18" ht="22.5">
+    <row r="229" spans="1:18" ht="22">
       <c r="A229" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -30411,7 +30377,7 @@
       <c r="Q229" s="117"/>
       <c r="R229" s="45"/>
     </row>
-    <row r="230" spans="1:18" ht="33.75">
+    <row r="230" spans="1:18" ht="33">
       <c r="A230" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -30446,7 +30412,7 @@
       <c r="Q230" s="117"/>
       <c r="R230" s="45"/>
     </row>
-    <row r="231" spans="1:18" ht="22.5">
+    <row r="231" spans="1:18" ht="22">
       <c r="A231" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -30481,7 +30447,7 @@
       <c r="Q231" s="117"/>
       <c r="R231" s="45"/>
     </row>
-    <row r="232" spans="1:18" ht="45">
+    <row r="232" spans="1:18" ht="44">
       <c r="A232" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -30518,7 +30484,7 @@
       <c r="Q232" s="117"/>
       <c r="R232" s="45"/>
     </row>
-    <row r="233" spans="1:18" ht="45">
+    <row r="233" spans="1:18" ht="44">
       <c r="A233" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -30553,7 +30519,7 @@
       <c r="Q233" s="117"/>
       <c r="R233" s="45"/>
     </row>
-    <row r="234" spans="1:18" ht="45">
+    <row r="234" spans="1:18" ht="44">
       <c r="A234" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -30588,7 +30554,7 @@
       <c r="Q234" s="117"/>
       <c r="R234" s="45"/>
     </row>
-    <row r="235" spans="1:18" ht="45">
+    <row r="235" spans="1:18" ht="44">
       <c r="A235" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -30625,7 +30591,7 @@
       <c r="Q235" s="117"/>
       <c r="R235" s="45"/>
     </row>
-    <row r="236" spans="1:18" ht="22.5">
+    <row r="236" spans="1:18" ht="22">
       <c r="A236" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -30662,7 +30628,7 @@
       <c r="Q236" s="117"/>
       <c r="R236" s="45"/>
     </row>
-    <row r="237" spans="1:18" ht="22.5">
+    <row r="237" spans="1:18" ht="22">
       <c r="A237" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -30705,7 +30671,7 @@
       <c r="Q237" s="99"/>
       <c r="R237" s="66"/>
     </row>
-    <row r="238" spans="1:18" ht="22.5">
+    <row r="238" spans="1:18" ht="22">
       <c r="A238" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -30742,7 +30708,7 @@
       <c r="Q238" s="99"/>
       <c r="R238" s="66"/>
     </row>
-    <row r="239" spans="1:18" ht="22.5">
+    <row r="239" spans="1:18" ht="22">
       <c r="A239" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -30777,7 +30743,7 @@
       <c r="Q239" s="99"/>
       <c r="R239" s="66"/>
     </row>
-    <row r="240" spans="1:18" ht="22.5">
+    <row r="240" spans="1:18" ht="22">
       <c r="A240" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -30812,7 +30778,7 @@
       <c r="Q240" s="99"/>
       <c r="R240" s="66"/>
     </row>
-    <row r="241" spans="1:18" ht="22.5">
+    <row r="241" spans="1:18" ht="22">
       <c r="A241" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -30847,7 +30813,7 @@
       <c r="Q241" s="99"/>
       <c r="R241" s="66"/>
     </row>
-    <row r="242" spans="1:18" ht="33.75">
+    <row r="242" spans="1:18" ht="33">
       <c r="A242" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -30882,7 +30848,7 @@
       <c r="Q242" s="99"/>
       <c r="R242" s="66"/>
     </row>
-    <row r="243" spans="1:18" ht="33.75">
+    <row r="243" spans="1:18" ht="33">
       <c r="A243" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -30919,7 +30885,7 @@
       <c r="Q243" s="99"/>
       <c r="R243" s="66"/>
     </row>
-    <row r="244" spans="1:18" ht="33.75">
+    <row r="244" spans="1:18" ht="33">
       <c r="A244" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -30954,7 +30920,7 @@
       <c r="Q244" s="99"/>
       <c r="R244" s="66"/>
     </row>
-    <row r="245" spans="1:18" ht="45">
+    <row r="245" spans="1:18" ht="44">
       <c r="A245" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -30989,7 +30955,7 @@
       <c r="Q245" s="99"/>
       <c r="R245" s="66"/>
     </row>
-    <row r="246" spans="1:18" ht="45">
+    <row r="246" spans="1:18" ht="44">
       <c r="A246" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -31024,7 +30990,7 @@
       <c r="Q246" s="99"/>
       <c r="R246" s="66"/>
     </row>
-    <row r="247" spans="1:18" ht="33.75">
+    <row r="247" spans="1:18" ht="33">
       <c r="A247" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -31059,7 +31025,7 @@
       <c r="Q247" s="99"/>
       <c r="R247" s="66"/>
     </row>
-    <row r="248" spans="1:18" ht="33.75">
+    <row r="248" spans="1:18" ht="33">
       <c r="A248" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -31096,7 +31062,7 @@
       <c r="Q248" s="99"/>
       <c r="R248" s="66"/>
     </row>
-    <row r="249" spans="1:18" ht="45">
+    <row r="249" spans="1:18" ht="44">
       <c r="A249" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -31137,7 +31103,7 @@
       <c r="Q249" s="99"/>
       <c r="R249" s="66"/>
     </row>
-    <row r="250" spans="1:18" ht="33.75">
+    <row r="250" spans="1:18" ht="33">
       <c r="A250" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -31180,7 +31146,7 @@
       <c r="Q250" s="99"/>
       <c r="R250" s="66"/>
     </row>
-    <row r="251" spans="1:18" ht="33.75">
+    <row r="251" spans="1:18" ht="33">
       <c r="A251" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -31215,7 +31181,7 @@
       <c r="Q251" s="99"/>
       <c r="R251" s="66"/>
     </row>
-    <row r="252" spans="1:18" ht="33.75">
+    <row r="252" spans="1:18" ht="33">
       <c r="A252" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -31254,7 +31220,7 @@
       <c r="Q252" s="99"/>
       <c r="R252" s="66"/>
     </row>
-    <row r="253" spans="1:18" ht="33.75">
+    <row r="253" spans="1:18" ht="33">
       <c r="A253" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -31289,7 +31255,7 @@
       <c r="Q253" s="99"/>
       <c r="R253" s="66"/>
     </row>
-    <row r="254" spans="1:18" ht="33.75">
+    <row r="254" spans="1:18" ht="33">
       <c r="A254" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -31330,7 +31296,7 @@
       <c r="Q254" s="99"/>
       <c r="R254" s="66"/>
     </row>
-    <row r="255" spans="1:18" ht="33.75">
+    <row r="255" spans="1:18" ht="33">
       <c r="A255" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -31367,7 +31333,7 @@
       <c r="Q255" s="99"/>
       <c r="R255" s="66"/>
     </row>
-    <row r="256" spans="1:18" ht="33.75">
+    <row r="256" spans="1:18" ht="33">
       <c r="A256" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -31404,7 +31370,7 @@
       <c r="Q256" s="99"/>
       <c r="R256" s="66"/>
     </row>
-    <row r="257" spans="1:18" ht="33.75">
+    <row r="257" spans="1:18" ht="33">
       <c r="A257" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -31441,7 +31407,7 @@
       <c r="Q257" s="99"/>
       <c r="R257" s="66"/>
     </row>
-    <row r="258" spans="1:18" ht="22.5">
+    <row r="258" spans="1:18" ht="22">
       <c r="A258" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -31480,7 +31446,7 @@
       <c r="Q258" s="99"/>
       <c r="R258" s="66"/>
     </row>
-    <row r="259" spans="1:18" ht="22.5">
+    <row r="259" spans="1:18" ht="22">
       <c r="A259" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -31515,7 +31481,7 @@
       <c r="Q259" s="99"/>
       <c r="R259" s="66"/>
     </row>
-    <row r="260" spans="1:18" ht="33.75">
+    <row r="260" spans="1:18" ht="33">
       <c r="A260" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -31552,7 +31518,7 @@
       <c r="Q260" s="99"/>
       <c r="R260" s="66"/>
     </row>
-    <row r="261" spans="1:18" ht="33.75">
+    <row r="261" spans="1:18" ht="33">
       <c r="A261" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -31587,7 +31553,7 @@
       <c r="Q261" s="99"/>
       <c r="R261" s="66"/>
     </row>
-    <row r="262" spans="1:18" ht="45">
+    <row r="262" spans="1:18" ht="44">
       <c r="A262" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -31622,7 +31588,7 @@
       <c r="Q262" s="99"/>
       <c r="R262" s="66"/>
     </row>
-    <row r="263" spans="1:18" ht="33.75">
+    <row r="263" spans="1:18" ht="33">
       <c r="A263" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -31657,7 +31623,7 @@
       <c r="Q263" s="99"/>
       <c r="R263" s="66"/>
     </row>
-    <row r="264" spans="1:18" ht="33.75">
+    <row r="264" spans="1:18" ht="33">
       <c r="A264" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -31692,7 +31658,7 @@
       <c r="Q264" s="99"/>
       <c r="R264" s="66"/>
     </row>
-    <row r="265" spans="1:18" ht="22.5">
+    <row r="265" spans="1:18" ht="22">
       <c r="A265" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -31727,7 +31693,7 @@
       <c r="Q265" s="99"/>
       <c r="R265" s="66"/>
     </row>
-    <row r="266" spans="1:18" ht="22.5">
+    <row r="266" spans="1:18" ht="22">
       <c r="A266" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -31762,7 +31728,7 @@
       <c r="Q266" s="99"/>
       <c r="R266" s="66"/>
     </row>
-    <row r="267" spans="1:18" ht="33.75">
+    <row r="267" spans="1:18" ht="33">
       <c r="A267" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -31797,7 +31763,7 @@
       <c r="Q267" s="99"/>
       <c r="R267" s="66"/>
     </row>
-    <row r="268" spans="1:18" ht="33.75">
+    <row r="268" spans="1:18" ht="33">
       <c r="A268" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -31832,7 +31798,7 @@
       <c r="Q268" s="99"/>
       <c r="R268" s="66"/>
     </row>
-    <row r="269" spans="1:18" ht="45">
+    <row r="269" spans="1:18" ht="44">
       <c r="A269" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -31867,7 +31833,7 @@
       <c r="Q269" s="99"/>
       <c r="R269" s="66"/>
     </row>
-    <row r="270" spans="1:18" ht="33.75">
+    <row r="270" spans="1:18" ht="33">
       <c r="A270" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -31902,7 +31868,7 @@
       <c r="Q270" s="99"/>
       <c r="R270" s="66"/>
     </row>
-    <row r="271" spans="1:18" ht="22.5">
+    <row r="271" spans="1:18" ht="22">
       <c r="A271" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -31939,7 +31905,7 @@
       <c r="Q271" s="99"/>
       <c r="R271" s="66"/>
     </row>
-    <row r="272" spans="1:18" ht="22.5">
+    <row r="272" spans="1:18" ht="22">
       <c r="A272" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -31974,7 +31940,7 @@
       <c r="Q272" s="99"/>
       <c r="R272" s="66"/>
     </row>
-    <row r="273" spans="1:18" ht="33.75">
+    <row r="273" spans="1:18" ht="33">
       <c r="A273" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -32009,7 +31975,7 @@
       <c r="Q273" s="99"/>
       <c r="R273" s="66"/>
     </row>
-    <row r="274" spans="1:18" ht="22.5">
+    <row r="274" spans="1:18" ht="22">
       <c r="A274" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -32044,7 +32010,7 @@
       <c r="Q274" s="99"/>
       <c r="R274" s="66"/>
     </row>
-    <row r="275" spans="1:18" ht="22.5">
+    <row r="275" spans="1:18" ht="22">
       <c r="A275" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -32079,7 +32045,7 @@
       <c r="Q275" s="99"/>
       <c r="R275" s="66"/>
     </row>
-    <row r="276" spans="1:18" ht="33.75">
+    <row r="276" spans="1:18" ht="33">
       <c r="A276" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -32114,7 +32080,7 @@
       <c r="Q276" s="99"/>
       <c r="R276" s="66"/>
     </row>
-    <row r="277" spans="1:18" ht="22.5">
+    <row r="277" spans="1:18" ht="22">
       <c r="A277" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -32151,7 +32117,7 @@
       <c r="Q277" s="99"/>
       <c r="R277" s="66"/>
     </row>
-    <row r="278" spans="1:18" ht="33.75">
+    <row r="278" spans="1:18" ht="33">
       <c r="A278" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -32186,7 +32152,7 @@
       <c r="Q278" s="99"/>
       <c r="R278" s="66"/>
     </row>
-    <row r="279" spans="1:18" ht="45">
+    <row r="279" spans="1:18" ht="44">
       <c r="A279" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -32221,7 +32187,7 @@
       <c r="Q279" s="99"/>
       <c r="R279" s="66"/>
     </row>
-    <row r="280" spans="1:18" ht="45">
+    <row r="280" spans="1:18" ht="44">
       <c r="A280" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -32256,7 +32222,7 @@
       <c r="Q280" s="99"/>
       <c r="R280" s="66"/>
     </row>
-    <row r="281" spans="1:18" ht="33.75">
+    <row r="281" spans="1:18" ht="33">
       <c r="A281" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -32291,7 +32257,7 @@
       <c r="Q281" s="99"/>
       <c r="R281" s="66"/>
     </row>
-    <row r="282" spans="1:18" ht="45">
+    <row r="282" spans="1:18" ht="44">
       <c r="A282" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -32326,7 +32292,7 @@
       <c r="Q282" s="99"/>
       <c r="R282" s="66"/>
     </row>
-    <row r="283" spans="1:18" ht="45">
+    <row r="283" spans="1:18" ht="44">
       <c r="A283" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -32361,7 +32327,7 @@
       <c r="Q283" s="99"/>
       <c r="R283" s="66"/>
     </row>
-    <row r="284" spans="1:18" ht="22.5">
+    <row r="284" spans="1:18" ht="22">
       <c r="A284" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -32396,7 +32362,7 @@
       <c r="Q284" s="99"/>
       <c r="R284" s="66"/>
     </row>
-    <row r="285" spans="1:18" ht="22.5">
+    <row r="285" spans="1:18" ht="22">
       <c r="A285" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -32433,7 +32399,7 @@
       <c r="Q285" s="99"/>
       <c r="R285" s="66"/>
     </row>
-    <row r="286" spans="1:18" ht="22.5">
+    <row r="286" spans="1:18" ht="22">
       <c r="A286" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -32476,7 +32442,7 @@
       <c r="Q286" s="99"/>
       <c r="R286" s="66"/>
     </row>
-    <row r="287" spans="1:18" ht="22.5">
+    <row r="287" spans="1:18" ht="22">
       <c r="A287" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -32511,7 +32477,7 @@
       <c r="Q287" s="99"/>
       <c r="R287" s="66"/>
     </row>
-    <row r="288" spans="1:18" ht="22.5">
+    <row r="288" spans="1:18" ht="22">
       <c r="A288" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -32546,7 +32512,7 @@
       <c r="Q288" s="99"/>
       <c r="R288" s="66"/>
     </row>
-    <row r="289" spans="1:18" ht="22.5">
+    <row r="289" spans="1:18" ht="22">
       <c r="A289" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -32581,7 +32547,7 @@
       <c r="Q289" s="99"/>
       <c r="R289" s="66"/>
     </row>
-    <row r="290" spans="1:18" ht="22.5">
+    <row r="290" spans="1:18" ht="22">
       <c r="A290" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -32622,7 +32588,7 @@
       <c r="Q290" s="99"/>
       <c r="R290" s="66"/>
     </row>
-    <row r="291" spans="1:18" ht="22.5">
+    <row r="291" spans="1:18" ht="22">
       <c r="A291" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -32659,7 +32625,7 @@
       <c r="Q291" s="99"/>
       <c r="R291" s="66"/>
     </row>
-    <row r="292" spans="1:18" ht="22.5">
+    <row r="292" spans="1:18" ht="22">
       <c r="A292" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -32696,7 +32662,7 @@
       <c r="Q292" s="99"/>
       <c r="R292" s="66"/>
     </row>
-    <row r="293" spans="1:18" ht="22.5">
+    <row r="293" spans="1:18" ht="22">
       <c r="A293" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -32733,7 +32699,7 @@
       <c r="Q293" s="99"/>
       <c r="R293" s="66"/>
     </row>
-    <row r="294" spans="1:18" ht="22.5">
+    <row r="294" spans="1:18" ht="22">
       <c r="A294" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -32772,7 +32738,7 @@
       <c r="Q294" s="99"/>
       <c r="R294" s="66"/>
     </row>
-    <row r="295" spans="1:18" ht="22.5">
+    <row r="295" spans="1:18" ht="22">
       <c r="A295" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -32807,7 +32773,7 @@
       <c r="Q295" s="99"/>
       <c r="R295" s="66"/>
     </row>
-    <row r="296" spans="1:18" ht="33.75">
+    <row r="296" spans="1:18" ht="33">
       <c r="A296" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -32842,7 +32808,7 @@
       <c r="Q296" s="99"/>
       <c r="R296" s="66"/>
     </row>
-    <row r="297" spans="1:18" ht="33.75">
+    <row r="297" spans="1:18" ht="33">
       <c r="A297" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -32877,7 +32843,7 @@
       <c r="Q297" s="99"/>
       <c r="R297" s="66"/>
     </row>
-    <row r="298" spans="1:18" ht="45">
+    <row r="298" spans="1:18" ht="44">
       <c r="A298" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
@@ -32912,7 +32878,7 @@
       <c r="Q298" s="99"/>
       <c r="R298" s="66"/>
     </row>
-    <row r="299" spans="1:18" ht="33.75">
+    <row r="299" spans="1:18" ht="33">
       <c r="A299" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
@@ -32947,7 +32913,7 @@
       <c r="Q299" s="99"/>
       <c r="R299" s="66"/>
     </row>
-    <row r="300" spans="1:18" ht="33.75">
+    <row r="300" spans="1:18" ht="33">
       <c r="A300" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
@@ -32982,7 +32948,7 @@
       <c r="Q300" s="99"/>
       <c r="R300" s="66"/>
     </row>
-    <row r="301" spans="1:18" ht="22.5">
+    <row r="301" spans="1:18" ht="22">
       <c r="A301" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -33017,7 +32983,7 @@
       <c r="Q301" s="99"/>
       <c r="R301" s="66"/>
     </row>
-    <row r="302" spans="1:18" ht="22.5">
+    <row r="302" spans="1:18" ht="22">
       <c r="A302" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -33052,7 +33018,7 @@
       <c r="Q302" s="170"/>
       <c r="R302" s="168"/>
     </row>
-    <row r="303" spans="1:18" ht="45">
+    <row r="303" spans="1:18" ht="44">
       <c r="A303" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -33109,7 +33075,7 @@
       <c r="Q303" s="62"/>
       <c r="R303" s="62"/>
     </row>
-    <row r="304" spans="1:18" ht="56.25">
+    <row r="304" spans="1:18" ht="55">
       <c r="A304" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -33162,7 +33128,7 @@
       <c r="Q304" s="62"/>
       <c r="R304" s="62"/>
     </row>
-    <row r="305" spans="1:18" ht="56.25">
+    <row r="305" spans="1:18" ht="55">
       <c r="A305" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -33209,7 +33175,7 @@
       <c r="Q305" s="62"/>
       <c r="R305" s="62"/>
     </row>
-    <row r="306" spans="1:18" ht="56.25">
+    <row r="306" spans="1:18" ht="55">
       <c r="A306" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
@@ -33256,7 +33222,7 @@
       <c r="Q306" s="62"/>
       <c r="R306" s="62"/>
     </row>
-    <row r="307" spans="1:18" ht="56.25">
+    <row r="307" spans="1:18" ht="55">
       <c r="A307" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -33309,7 +33275,7 @@
       <c r="Q307" s="62"/>
       <c r="R307" s="62"/>
     </row>
-    <row r="308" spans="1:18" ht="67.5">
+    <row r="308" spans="1:18" ht="66">
       <c r="A308" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
@@ -33358,7 +33324,7 @@
       <c r="Q308" s="62"/>
       <c r="R308" s="62"/>
     </row>
-    <row r="309" spans="1:18" ht="45">
+    <row r="309" spans="1:18" ht="44">
       <c r="A309" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -33393,7 +33359,7 @@
       <c r="Q309" s="67"/>
       <c r="R309" s="67"/>
     </row>
-    <row r="310" spans="1:18" ht="33.75">
+    <row r="310" spans="1:18" ht="33">
       <c r="A310" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -33432,7 +33398,7 @@
       <c r="Q310" s="67"/>
       <c r="R310" s="67"/>
     </row>
-    <row r="311" spans="1:18" ht="45">
+    <row r="311" spans="1:18" ht="44">
       <c r="A311" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -33469,7 +33435,7 @@
       <c r="Q311" s="67"/>
       <c r="R311" s="67"/>
     </row>
-    <row r="312" spans="1:18" ht="67.5">
+    <row r="312" spans="1:18" ht="66">
       <c r="A312" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -33522,7 +33488,7 @@
       <c r="Q312" s="62"/>
       <c r="R312" s="62"/>
     </row>
-    <row r="313" spans="1:18" ht="67.5">
+    <row r="313" spans="1:18" ht="66">
       <c r="A313" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -33569,7 +33535,7 @@
       <c r="Q313" s="62"/>
       <c r="R313" s="62"/>
     </row>
-    <row r="314" spans="1:18" ht="78.75">
+    <row r="314" spans="1:18" ht="77">
       <c r="A314" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -33618,7 +33584,7 @@
       <c r="Q314" s="62"/>
       <c r="R314" s="62"/>
     </row>
-    <row r="315" spans="1:18" ht="45">
+    <row r="315" spans="1:18" ht="44">
       <c r="A315" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -33653,7 +33619,7 @@
       <c r="Q315" s="67"/>
       <c r="R315" s="67"/>
     </row>
-    <row r="316" spans="1:18" ht="45">
+    <row r="316" spans="1:18" ht="44">
       <c r="A316" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -33688,7 +33654,7 @@
       <c r="Q316" s="67"/>
       <c r="R316" s="67"/>
     </row>
-    <row r="317" spans="1:18" ht="45">
+    <row r="317" spans="1:18" ht="44">
       <c r="A317" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -33723,7 +33689,7 @@
       <c r="Q317" s="67"/>
       <c r="R317" s="67"/>
     </row>
-    <row r="318" spans="1:18" ht="45">
+    <row r="318" spans="1:18" ht="44">
       <c r="A318" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -33758,7 +33724,7 @@
       <c r="Q318" s="67"/>
       <c r="R318" s="67"/>
     </row>
-    <row r="319" spans="1:18" ht="45">
+    <row r="319" spans="1:18" ht="44">
       <c r="A319" s="135" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),
@@ -33793,7 +33759,7 @@
       <c r="Q319" s="67"/>
       <c r="R319" s="67"/>
     </row>
-    <row r="320" spans="1:18" ht="22.5">
+    <row r="320" spans="1:18" ht="22">
       <c r="A320" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A320" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E320),

--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10103_顧客登録.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FE4F58-EE1C-4413-850C-69E016A5BFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F96C1A-9F88-46A5-81B9-0439B7C4F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11510" yWindow="2960" windowWidth="25580" windowHeight="15380" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -8906,74 +8906,62 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -9083,65 +9071,77 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9694,10 +9694,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06BC059-6C8D-4F0A-9F9D-91DDC8785DBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA19C6D8-69A3-49C3-97EB-CDABDA872F07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9705,8 +9705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1816100"/>
-          <a:ext cx="4798218" cy="1717674"/>
+          <a:off x="3270250" y="1689100"/>
+          <a:ext cx="10900568" cy="3140074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9734,13 +9734,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@AssertTrue</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラス単体テストで確認が必要な観点なし。机上確認とリクエスト単体テストで品質担保する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>によるバリデーションなど、クラス単体で確認が必要な処理なし</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10095,12 +10100,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="175" t="str">
+      <c r="I25" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10660,57 +10665,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="200" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="207" t="s">
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222" t="s">
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="218" t="s">
         <v>583</v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="227" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="198" t="str">
+      <c r="AD1" s="228"/>
+      <c r="AE1" s="228"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="194" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="195"/>
+      <c r="AI1" s="196"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10718,53 +10723,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="207" t="s">
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="203" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="222"/>
+      <c r="U2" s="222"/>
+      <c r="V2" s="222"/>
+      <c r="W2" s="222"/>
+      <c r="X2" s="222"/>
+      <c r="Y2" s="222"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="210" t="str">
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="206" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="194" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="195"/>
+      <c r="AI2" s="196"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10772,45 +10777,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="224"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="225"/>
+      <c r="V3" s="225"/>
+      <c r="W3" s="225"/>
+      <c r="X3" s="225"/>
+      <c r="Y3" s="225"/>
+      <c r="Z3" s="226"/>
+      <c r="AA3" s="200"/>
+      <c r="AB3" s="202"/>
+      <c r="AC3" s="227"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="228"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="194"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="196"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10847,85 +10852,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="201" t="s">
+      <c r="C7" s="198"/>
+      <c r="D7" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="199"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="197" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="201" t="s">
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="198"/>
+      <c r="AF7" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="202"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="198"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="196"/>
-      <c r="Z8" s="196"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="197"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="249"/>
+      <c r="M8" s="249"/>
+      <c r="N8" s="249"/>
+      <c r="O8" s="249"/>
+      <c r="P8" s="250"/>
+      <c r="Q8" s="248"/>
+      <c r="R8" s="249"/>
+      <c r="S8" s="249"/>
+      <c r="T8" s="249"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="249"/>
+      <c r="W8" s="249"/>
+      <c r="X8" s="249"/>
+      <c r="Y8" s="249"/>
+      <c r="Z8" s="249"/>
+      <c r="AA8" s="249"/>
+      <c r="AB8" s="249"/>
+      <c r="AC8" s="249"/>
+      <c r="AD8" s="249"/>
+      <c r="AE8" s="250"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10933,934 +10938,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="186"/>
-      <c r="AE9" s="187"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="184"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="237"/>
+      <c r="P9" s="238"/>
+      <c r="Q9" s="239"/>
+      <c r="R9" s="240"/>
+      <c r="S9" s="240"/>
+      <c r="T9" s="240"/>
+      <c r="U9" s="240"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="240"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="240"/>
+      <c r="Z9" s="240"/>
+      <c r="AA9" s="240"/>
+      <c r="AB9" s="240"/>
+      <c r="AC9" s="240"/>
+      <c r="AD9" s="240"/>
+      <c r="AE9" s="241"/>
+      <c r="AF9" s="236"/>
+      <c r="AG9" s="237"/>
+      <c r="AH9" s="237"/>
+      <c r="AI9" s="238"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="186"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="184"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="230"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="237"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="238"/>
+      <c r="Q10" s="239"/>
+      <c r="R10" s="240"/>
+      <c r="S10" s="240"/>
+      <c r="T10" s="240"/>
+      <c r="U10" s="240"/>
+      <c r="V10" s="240"/>
+      <c r="W10" s="240"/>
+      <c r="X10" s="240"/>
+      <c r="Y10" s="240"/>
+      <c r="Z10" s="240"/>
+      <c r="AA10" s="240"/>
+      <c r="AB10" s="240"/>
+      <c r="AC10" s="240"/>
+      <c r="AD10" s="240"/>
+      <c r="AE10" s="241"/>
+      <c r="AF10" s="236"/>
+      <c r="AG10" s="237"/>
+      <c r="AH10" s="237"/>
+      <c r="AI10" s="238"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="186"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="186"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="186"/>
-      <c r="AE11" s="187"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="184"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="231"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="238"/>
+      <c r="Q11" s="239"/>
+      <c r="R11" s="240"/>
+      <c r="S11" s="240"/>
+      <c r="T11" s="240"/>
+      <c r="U11" s="240"/>
+      <c r="V11" s="240"/>
+      <c r="W11" s="240"/>
+      <c r="X11" s="240"/>
+      <c r="Y11" s="240"/>
+      <c r="Z11" s="240"/>
+      <c r="AA11" s="240"/>
+      <c r="AB11" s="240"/>
+      <c r="AC11" s="240"/>
+      <c r="AD11" s="240"/>
+      <c r="AE11" s="241"/>
+      <c r="AF11" s="236"/>
+      <c r="AG11" s="237"/>
+      <c r="AH11" s="237"/>
+      <c r="AI11" s="238"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="184"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="183"/>
-      <c r="AI12" s="184"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="231"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="233"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="230"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="237"/>
+      <c r="L12" s="237"/>
+      <c r="M12" s="237"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="238"/>
+      <c r="Q12" s="239"/>
+      <c r="R12" s="240"/>
+      <c r="S12" s="240"/>
+      <c r="T12" s="240"/>
+      <c r="U12" s="240"/>
+      <c r="V12" s="240"/>
+      <c r="W12" s="240"/>
+      <c r="X12" s="240"/>
+      <c r="Y12" s="240"/>
+      <c r="Z12" s="240"/>
+      <c r="AA12" s="240"/>
+      <c r="AB12" s="240"/>
+      <c r="AC12" s="240"/>
+      <c r="AD12" s="240"/>
+      <c r="AE12" s="241"/>
+      <c r="AF12" s="236"/>
+      <c r="AG12" s="237"/>
+      <c r="AH12" s="237"/>
+      <c r="AI12" s="238"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
-      <c r="AE13" s="187"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="183"/>
-      <c r="AH13" s="183"/>
-      <c r="AI13" s="184"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="238"/>
+      <c r="Q13" s="239"/>
+      <c r="R13" s="240"/>
+      <c r="S13" s="240"/>
+      <c r="T13" s="240"/>
+      <c r="U13" s="240"/>
+      <c r="V13" s="240"/>
+      <c r="W13" s="240"/>
+      <c r="X13" s="240"/>
+      <c r="Y13" s="240"/>
+      <c r="Z13" s="240"/>
+      <c r="AA13" s="240"/>
+      <c r="AB13" s="240"/>
+      <c r="AC13" s="240"/>
+      <c r="AD13" s="240"/>
+      <c r="AE13" s="241"/>
+      <c r="AF13" s="236"/>
+      <c r="AG13" s="237"/>
+      <c r="AH13" s="237"/>
+      <c r="AI13" s="238"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="187"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="183"/>
-      <c r="AI14" s="184"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="231"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="238"/>
+      <c r="Q14" s="239"/>
+      <c r="R14" s="240"/>
+      <c r="S14" s="240"/>
+      <c r="T14" s="240"/>
+      <c r="U14" s="240"/>
+      <c r="V14" s="240"/>
+      <c r="W14" s="240"/>
+      <c r="X14" s="240"/>
+      <c r="Y14" s="240"/>
+      <c r="Z14" s="240"/>
+      <c r="AA14" s="240"/>
+      <c r="AB14" s="240"/>
+      <c r="AC14" s="240"/>
+      <c r="AD14" s="240"/>
+      <c r="AE14" s="241"/>
+      <c r="AF14" s="236"/>
+      <c r="AG14" s="237"/>
+      <c r="AH14" s="237"/>
+      <c r="AI14" s="238"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="183"/>
-      <c r="AI15" s="184"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="231"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="235"/>
+      <c r="I15" s="231"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="237"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="239"/>
+      <c r="R15" s="240"/>
+      <c r="S15" s="240"/>
+      <c r="T15" s="240"/>
+      <c r="U15" s="240"/>
+      <c r="V15" s="240"/>
+      <c r="W15" s="240"/>
+      <c r="X15" s="240"/>
+      <c r="Y15" s="240"/>
+      <c r="Z15" s="240"/>
+      <c r="AA15" s="240"/>
+      <c r="AB15" s="240"/>
+      <c r="AC15" s="240"/>
+      <c r="AD15" s="240"/>
+      <c r="AE15" s="241"/>
+      <c r="AF15" s="236"/>
+      <c r="AG15" s="237"/>
+      <c r="AH15" s="237"/>
+      <c r="AI15" s="238"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="184"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="187"/>
-      <c r="AF16" s="182"/>
-      <c r="AG16" s="183"/>
-      <c r="AH16" s="183"/>
-      <c r="AI16" s="184"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="231"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="238"/>
+      <c r="Q16" s="239"/>
+      <c r="R16" s="240"/>
+      <c r="S16" s="240"/>
+      <c r="T16" s="240"/>
+      <c r="U16" s="240"/>
+      <c r="V16" s="240"/>
+      <c r="W16" s="240"/>
+      <c r="X16" s="240"/>
+      <c r="Y16" s="240"/>
+      <c r="Z16" s="240"/>
+      <c r="AA16" s="240"/>
+      <c r="AB16" s="240"/>
+      <c r="AC16" s="240"/>
+      <c r="AD16" s="240"/>
+      <c r="AE16" s="241"/>
+      <c r="AF16" s="236"/>
+      <c r="AG16" s="237"/>
+      <c r="AH16" s="237"/>
+      <c r="AI16" s="238"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="186"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="186"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="186"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="186"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
-      <c r="AD17" s="186"/>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="183"/>
-      <c r="AI17" s="184"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="237"/>
+      <c r="L17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="238"/>
+      <c r="Q17" s="239"/>
+      <c r="R17" s="240"/>
+      <c r="S17" s="240"/>
+      <c r="T17" s="240"/>
+      <c r="U17" s="240"/>
+      <c r="V17" s="240"/>
+      <c r="W17" s="240"/>
+      <c r="X17" s="240"/>
+      <c r="Y17" s="240"/>
+      <c r="Z17" s="240"/>
+      <c r="AA17" s="240"/>
+      <c r="AB17" s="240"/>
+      <c r="AC17" s="240"/>
+      <c r="AD17" s="240"/>
+      <c r="AE17" s="241"/>
+      <c r="AF17" s="236"/>
+      <c r="AG17" s="237"/>
+      <c r="AH17" s="237"/>
+      <c r="AI17" s="238"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="187"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="183"/>
-      <c r="AI18" s="184"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="234"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="237"/>
+      <c r="L18" s="237"/>
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="238"/>
+      <c r="Q18" s="239"/>
+      <c r="R18" s="240"/>
+      <c r="S18" s="240"/>
+      <c r="T18" s="240"/>
+      <c r="U18" s="240"/>
+      <c r="V18" s="240"/>
+      <c r="W18" s="240"/>
+      <c r="X18" s="240"/>
+      <c r="Y18" s="240"/>
+      <c r="Z18" s="240"/>
+      <c r="AA18" s="240"/>
+      <c r="AB18" s="240"/>
+      <c r="AC18" s="240"/>
+      <c r="AD18" s="240"/>
+      <c r="AE18" s="241"/>
+      <c r="AF18" s="236"/>
+      <c r="AG18" s="237"/>
+      <c r="AH18" s="237"/>
+      <c r="AI18" s="238"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="184"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="187"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="183"/>
-      <c r="AH19" s="183"/>
-      <c r="AI19" s="184"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="234"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="231"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="238"/>
+      <c r="Q19" s="239"/>
+      <c r="R19" s="240"/>
+      <c r="S19" s="240"/>
+      <c r="T19" s="240"/>
+      <c r="U19" s="240"/>
+      <c r="V19" s="240"/>
+      <c r="W19" s="240"/>
+      <c r="X19" s="240"/>
+      <c r="Y19" s="240"/>
+      <c r="Z19" s="240"/>
+      <c r="AA19" s="240"/>
+      <c r="AB19" s="240"/>
+      <c r="AC19" s="240"/>
+      <c r="AD19" s="240"/>
+      <c r="AE19" s="241"/>
+      <c r="AF19" s="236"/>
+      <c r="AG19" s="237"/>
+      <c r="AH19" s="237"/>
+      <c r="AI19" s="238"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="186"/>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="187"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="183"/>
-      <c r="AH20" s="183"/>
-      <c r="AI20" s="184"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
+      <c r="M20" s="237"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="238"/>
+      <c r="Q20" s="239"/>
+      <c r="R20" s="240"/>
+      <c r="S20" s="240"/>
+      <c r="T20" s="240"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="240"/>
+      <c r="W20" s="240"/>
+      <c r="X20" s="240"/>
+      <c r="Y20" s="240"/>
+      <c r="Z20" s="240"/>
+      <c r="AA20" s="240"/>
+      <c r="AB20" s="240"/>
+      <c r="AC20" s="240"/>
+      <c r="AD20" s="240"/>
+      <c r="AE20" s="241"/>
+      <c r="AF20" s="236"/>
+      <c r="AG20" s="237"/>
+      <c r="AH20" s="237"/>
+      <c r="AI20" s="238"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
-      <c r="AD21" s="186"/>
-      <c r="AE21" s="187"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="183"/>
-      <c r="AH21" s="183"/>
-      <c r="AI21" s="184"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="231"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="230"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="238"/>
+      <c r="Q21" s="239"/>
+      <c r="R21" s="240"/>
+      <c r="S21" s="240"/>
+      <c r="T21" s="240"/>
+      <c r="U21" s="240"/>
+      <c r="V21" s="240"/>
+      <c r="W21" s="240"/>
+      <c r="X21" s="240"/>
+      <c r="Y21" s="240"/>
+      <c r="Z21" s="240"/>
+      <c r="AA21" s="240"/>
+      <c r="AB21" s="240"/>
+      <c r="AC21" s="240"/>
+      <c r="AD21" s="240"/>
+      <c r="AE21" s="241"/>
+      <c r="AF21" s="236"/>
+      <c r="AG21" s="237"/>
+      <c r="AH21" s="237"/>
+      <c r="AI21" s="238"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="187"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="184"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="231"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="230"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="236"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="M22" s="237"/>
+      <c r="N22" s="237"/>
+      <c r="O22" s="237"/>
+      <c r="P22" s="238"/>
+      <c r="Q22" s="239"/>
+      <c r="R22" s="240"/>
+      <c r="S22" s="240"/>
+      <c r="T22" s="240"/>
+      <c r="U22" s="240"/>
+      <c r="V22" s="240"/>
+      <c r="W22" s="240"/>
+      <c r="X22" s="240"/>
+      <c r="Y22" s="240"/>
+      <c r="Z22" s="240"/>
+      <c r="AA22" s="240"/>
+      <c r="AB22" s="240"/>
+      <c r="AC22" s="240"/>
+      <c r="AD22" s="240"/>
+      <c r="AE22" s="241"/>
+      <c r="AF22" s="236"/>
+      <c r="AG22" s="237"/>
+      <c r="AH22" s="237"/>
+      <c r="AI22" s="238"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="186"/>
-      <c r="Z23" s="186"/>
-      <c r="AA23" s="186"/>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="187"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="184"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="232"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="234"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="235"/>
+      <c r="I23" s="231"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
+      <c r="N23" s="237"/>
+      <c r="O23" s="237"/>
+      <c r="P23" s="238"/>
+      <c r="Q23" s="239"/>
+      <c r="R23" s="240"/>
+      <c r="S23" s="240"/>
+      <c r="T23" s="240"/>
+      <c r="U23" s="240"/>
+      <c r="V23" s="240"/>
+      <c r="W23" s="240"/>
+      <c r="X23" s="240"/>
+      <c r="Y23" s="240"/>
+      <c r="Z23" s="240"/>
+      <c r="AA23" s="240"/>
+      <c r="AB23" s="240"/>
+      <c r="AC23" s="240"/>
+      <c r="AD23" s="240"/>
+      <c r="AE23" s="241"/>
+      <c r="AF23" s="236"/>
+      <c r="AG23" s="237"/>
+      <c r="AH23" s="237"/>
+      <c r="AI23" s="238"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="186"/>
-      <c r="AA24" s="186"/>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="186"/>
-      <c r="AE24" s="187"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="184"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="236"/>
+      <c r="K24" s="237"/>
+      <c r="L24" s="237"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="237"/>
+      <c r="O24" s="237"/>
+      <c r="P24" s="238"/>
+      <c r="Q24" s="239"/>
+      <c r="R24" s="240"/>
+      <c r="S24" s="240"/>
+      <c r="T24" s="240"/>
+      <c r="U24" s="240"/>
+      <c r="V24" s="240"/>
+      <c r="W24" s="240"/>
+      <c r="X24" s="240"/>
+      <c r="Y24" s="240"/>
+      <c r="Z24" s="240"/>
+      <c r="AA24" s="240"/>
+      <c r="AB24" s="240"/>
+      <c r="AC24" s="240"/>
+      <c r="AD24" s="240"/>
+      <c r="AE24" s="241"/>
+      <c r="AF24" s="236"/>
+      <c r="AG24" s="237"/>
+      <c r="AH24" s="237"/>
+      <c r="AI24" s="238"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="186"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="187"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="184"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="232"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="236"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="237"/>
+      <c r="N25" s="237"/>
+      <c r="O25" s="237"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="239"/>
+      <c r="R25" s="240"/>
+      <c r="S25" s="240"/>
+      <c r="T25" s="240"/>
+      <c r="U25" s="240"/>
+      <c r="V25" s="240"/>
+      <c r="W25" s="240"/>
+      <c r="X25" s="240"/>
+      <c r="Y25" s="240"/>
+      <c r="Z25" s="240"/>
+      <c r="AA25" s="240"/>
+      <c r="AB25" s="240"/>
+      <c r="AC25" s="240"/>
+      <c r="AD25" s="240"/>
+      <c r="AE25" s="241"/>
+      <c r="AF25" s="236"/>
+      <c r="AG25" s="237"/>
+      <c r="AH25" s="237"/>
+      <c r="AI25" s="238"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="186"/>
-      <c r="AB26" s="186"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="186"/>
-      <c r="AE26" s="187"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="183"/>
-      <c r="AH26" s="183"/>
-      <c r="AI26" s="184"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="234"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="235"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="236"/>
+      <c r="K26" s="237"/>
+      <c r="L26" s="237"/>
+      <c r="M26" s="237"/>
+      <c r="N26" s="237"/>
+      <c r="O26" s="237"/>
+      <c r="P26" s="238"/>
+      <c r="Q26" s="239"/>
+      <c r="R26" s="240"/>
+      <c r="S26" s="240"/>
+      <c r="T26" s="240"/>
+      <c r="U26" s="240"/>
+      <c r="V26" s="240"/>
+      <c r="W26" s="240"/>
+      <c r="X26" s="240"/>
+      <c r="Y26" s="240"/>
+      <c r="Z26" s="240"/>
+      <c r="AA26" s="240"/>
+      <c r="AB26" s="240"/>
+      <c r="AC26" s="240"/>
+      <c r="AD26" s="240"/>
+      <c r="AE26" s="241"/>
+      <c r="AF26" s="236"/>
+      <c r="AG26" s="237"/>
+      <c r="AH26" s="237"/>
+      <c r="AI26" s="238"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="186"/>
-      <c r="AD27" s="186"/>
-      <c r="AE27" s="187"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="184"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="234"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="231"/>
+      <c r="J27" s="236"/>
+      <c r="K27" s="237"/>
+      <c r="L27" s="237"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="237"/>
+      <c r="O27" s="237"/>
+      <c r="P27" s="238"/>
+      <c r="Q27" s="239"/>
+      <c r="R27" s="240"/>
+      <c r="S27" s="240"/>
+      <c r="T27" s="240"/>
+      <c r="U27" s="240"/>
+      <c r="V27" s="240"/>
+      <c r="W27" s="240"/>
+      <c r="X27" s="240"/>
+      <c r="Y27" s="240"/>
+      <c r="Z27" s="240"/>
+      <c r="AA27" s="240"/>
+      <c r="AB27" s="240"/>
+      <c r="AC27" s="240"/>
+      <c r="AD27" s="240"/>
+      <c r="AE27" s="241"/>
+      <c r="AF27" s="236"/>
+      <c r="AG27" s="237"/>
+      <c r="AH27" s="237"/>
+      <c r="AI27" s="238"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="186"/>
-      <c r="W28" s="186"/>
-      <c r="X28" s="186"/>
-      <c r="Y28" s="186"/>
-      <c r="Z28" s="186"/>
-      <c r="AA28" s="186"/>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="184"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="232"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="234"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="231"/>
+      <c r="J28" s="236"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="237"/>
+      <c r="N28" s="237"/>
+      <c r="O28" s="237"/>
+      <c r="P28" s="238"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="240"/>
+      <c r="S28" s="240"/>
+      <c r="T28" s="240"/>
+      <c r="U28" s="240"/>
+      <c r="V28" s="240"/>
+      <c r="W28" s="240"/>
+      <c r="X28" s="240"/>
+      <c r="Y28" s="240"/>
+      <c r="Z28" s="240"/>
+      <c r="AA28" s="240"/>
+      <c r="AB28" s="240"/>
+      <c r="AC28" s="240"/>
+      <c r="AD28" s="240"/>
+      <c r="AE28" s="241"/>
+      <c r="AF28" s="236"/>
+      <c r="AG28" s="237"/>
+      <c r="AH28" s="237"/>
+      <c r="AI28" s="238"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="186"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="186"/>
-      <c r="AA29" s="186"/>
-      <c r="AB29" s="186"/>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="183"/>
-      <c r="AH29" s="183"/>
-      <c r="AI29" s="184"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="231"/>
+      <c r="J29" s="236"/>
+      <c r="K29" s="237"/>
+      <c r="L29" s="237"/>
+      <c r="M29" s="237"/>
+      <c r="N29" s="237"/>
+      <c r="O29" s="237"/>
+      <c r="P29" s="238"/>
+      <c r="Q29" s="239"/>
+      <c r="R29" s="240"/>
+      <c r="S29" s="240"/>
+      <c r="T29" s="240"/>
+      <c r="U29" s="240"/>
+      <c r="V29" s="240"/>
+      <c r="W29" s="240"/>
+      <c r="X29" s="240"/>
+      <c r="Y29" s="240"/>
+      <c r="Z29" s="240"/>
+      <c r="AA29" s="240"/>
+      <c r="AB29" s="240"/>
+      <c r="AC29" s="240"/>
+      <c r="AD29" s="240"/>
+      <c r="AE29" s="241"/>
+      <c r="AF29" s="236"/>
+      <c r="AG29" s="237"/>
+      <c r="AH29" s="237"/>
+      <c r="AI29" s="238"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="184"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="237"/>
+      <c r="L30" s="237"/>
+      <c r="M30" s="237"/>
+      <c r="N30" s="237"/>
+      <c r="O30" s="237"/>
+      <c r="P30" s="238"/>
+      <c r="Q30" s="239"/>
+      <c r="R30" s="240"/>
+      <c r="S30" s="240"/>
+      <c r="T30" s="240"/>
+      <c r="U30" s="240"/>
+      <c r="V30" s="240"/>
+      <c r="W30" s="240"/>
+      <c r="X30" s="240"/>
+      <c r="Y30" s="240"/>
+      <c r="Z30" s="240"/>
+      <c r="AA30" s="240"/>
+      <c r="AB30" s="240"/>
+      <c r="AC30" s="240"/>
+      <c r="AD30" s="240"/>
+      <c r="AE30" s="241"/>
+      <c r="AF30" s="236"/>
+      <c r="AG30" s="237"/>
+      <c r="AH30" s="237"/>
+      <c r="AI30" s="238"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="186"/>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="186"/>
-      <c r="Z31" s="186"/>
-      <c r="AA31" s="186"/>
-      <c r="AB31" s="186"/>
-      <c r="AC31" s="186"/>
-      <c r="AD31" s="186"/>
-      <c r="AE31" s="187"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="183"/>
-      <c r="AH31" s="183"/>
-      <c r="AI31" s="184"/>
+      <c r="B31" s="230"/>
+      <c r="C31" s="231"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="236"/>
+      <c r="K31" s="237"/>
+      <c r="L31" s="237"/>
+      <c r="M31" s="237"/>
+      <c r="N31" s="237"/>
+      <c r="O31" s="237"/>
+      <c r="P31" s="238"/>
+      <c r="Q31" s="239"/>
+      <c r="R31" s="240"/>
+      <c r="S31" s="240"/>
+      <c r="T31" s="240"/>
+      <c r="U31" s="240"/>
+      <c r="V31" s="240"/>
+      <c r="W31" s="240"/>
+      <c r="X31" s="240"/>
+      <c r="Y31" s="240"/>
+      <c r="Z31" s="240"/>
+      <c r="AA31" s="240"/>
+      <c r="AB31" s="240"/>
+      <c r="AC31" s="240"/>
+      <c r="AD31" s="240"/>
+      <c r="AE31" s="241"/>
+      <c r="AF31" s="236"/>
+      <c r="AG31" s="237"/>
+      <c r="AH31" s="237"/>
+      <c r="AI31" s="238"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="186"/>
-      <c r="AA32" s="186"/>
-      <c r="AB32" s="186"/>
-      <c r="AC32" s="186"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="187"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="183"/>
-      <c r="AH32" s="183"/>
-      <c r="AI32" s="184"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="231"/>
+      <c r="D32" s="232"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="234"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="231"/>
+      <c r="J32" s="236"/>
+      <c r="K32" s="251"/>
+      <c r="L32" s="237"/>
+      <c r="M32" s="237"/>
+      <c r="N32" s="237"/>
+      <c r="O32" s="237"/>
+      <c r="P32" s="238"/>
+      <c r="Q32" s="239"/>
+      <c r="R32" s="240"/>
+      <c r="S32" s="240"/>
+      <c r="T32" s="240"/>
+      <c r="U32" s="240"/>
+      <c r="V32" s="240"/>
+      <c r="W32" s="240"/>
+      <c r="X32" s="240"/>
+      <c r="Y32" s="240"/>
+      <c r="Z32" s="240"/>
+      <c r="AA32" s="240"/>
+      <c r="AB32" s="240"/>
+      <c r="AC32" s="240"/>
+      <c r="AD32" s="240"/>
+      <c r="AE32" s="241"/>
+      <c r="AF32" s="236"/>
+      <c r="AG32" s="237"/>
+      <c r="AH32" s="237"/>
+      <c r="AI32" s="238"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="186"/>
-      <c r="W33" s="186"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="186"/>
-      <c r="Z33" s="186"/>
-      <c r="AA33" s="186"/>
-      <c r="AB33" s="186"/>
-      <c r="AC33" s="186"/>
-      <c r="AD33" s="186"/>
-      <c r="AE33" s="187"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="183"/>
-      <c r="AH33" s="183"/>
-      <c r="AI33" s="184"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="231"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="237"/>
+      <c r="M33" s="237"/>
+      <c r="N33" s="237"/>
+      <c r="O33" s="237"/>
+      <c r="P33" s="238"/>
+      <c r="Q33" s="239"/>
+      <c r="R33" s="240"/>
+      <c r="S33" s="240"/>
+      <c r="T33" s="240"/>
+      <c r="U33" s="240"/>
+      <c r="V33" s="240"/>
+      <c r="W33" s="240"/>
+      <c r="X33" s="240"/>
+      <c r="Y33" s="240"/>
+      <c r="Z33" s="240"/>
+      <c r="AA33" s="240"/>
+      <c r="AB33" s="240"/>
+      <c r="AC33" s="240"/>
+      <c r="AD33" s="240"/>
+      <c r="AE33" s="241"/>
+      <c r="AF33" s="236"/>
+      <c r="AG33" s="237"/>
+      <c r="AH33" s="237"/>
+      <c r="AI33" s="238"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11884,161 +12044,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -15892,7 +15897,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B114" s="234" t="s">
+      <c r="B114" s="252" t="s">
         <v>193</v>
       </c>
       <c r="C114" s="56"/>
@@ -15928,7 +15933,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B115" s="234"/>
+      <c r="B115" s="252"/>
       <c r="C115" s="56"/>
       <c r="D115" s="43"/>
       <c r="E115" s="86"/>
@@ -16600,7 +16605,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B134" s="234" t="s">
+      <c r="B134" s="252" t="s">
         <v>221</v>
       </c>
       <c r="C134" s="56"/>
@@ -16636,7 +16641,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B135" s="234"/>
+      <c r="B135" s="252"/>
       <c r="C135" s="56"/>
       <c r="D135" s="43"/>
       <c r="E135" s="43"/>
@@ -23613,13 +23618,13 @@
       <c r="B42" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="253" t="s">
+      <c r="D42" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="253" t="s">
+      <c r="E42" s="192" t="s">
         <v>93</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -23630,7 +23635,7 @@
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="240"/>
+      <c r="J42" s="179"/>
       <c r="K42" s="65"/>
       <c r="L42" s="66"/>
       <c r="M42" s="67"/>
@@ -23664,7 +23669,7 @@
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
-      <c r="J43" s="240"/>
+      <c r="J43" s="179"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66"/>
       <c r="M43" s="67"/>
@@ -23698,7 +23703,7 @@
       </c>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
-      <c r="J44" s="240"/>
+      <c r="J44" s="179"/>
       <c r="K44" s="65"/>
       <c r="L44" s="66"/>
       <c r="M44" s="161"/>
@@ -23734,7 +23739,7 @@
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="240"/>
+      <c r="J45" s="179"/>
       <c r="K45" s="65"/>
       <c r="L45" s="66"/>
       <c r="M45" s="161"/>
@@ -23768,7 +23773,7 @@
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
-      <c r="J46" s="240"/>
+      <c r="J46" s="179"/>
       <c r="K46" s="65"/>
       <c r="L46" s="66"/>
       <c r="M46" s="161"/>
@@ -23802,7 +23807,7 @@
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
-      <c r="J47" s="240"/>
+      <c r="J47" s="179"/>
       <c r="K47" s="65"/>
       <c r="L47" s="66"/>
       <c r="M47" s="161"/>
@@ -23838,7 +23843,7 @@
       </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
-      <c r="J48" s="240"/>
+      <c r="J48" s="179"/>
       <c r="K48" s="65"/>
       <c r="L48" s="66"/>
       <c r="M48" s="67"/>
@@ -23872,7 +23877,7 @@
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
-      <c r="J49" s="240"/>
+      <c r="J49" s="179"/>
       <c r="K49" s="65"/>
       <c r="L49" s="66"/>
       <c r="M49" s="67"/>
@@ -23908,7 +23913,7 @@
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
-      <c r="J50" s="240"/>
+      <c r="J50" s="179"/>
       <c r="K50" s="65"/>
       <c r="L50" s="66"/>
       <c r="M50" s="161"/>
@@ -23942,7 +23947,7 @@
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
-      <c r="J51" s="240"/>
+      <c r="J51" s="179"/>
       <c r="K51" s="65"/>
       <c r="L51" s="66"/>
       <c r="M51" s="161"/>
@@ -23976,7 +23981,7 @@
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
-      <c r="J52" s="240"/>
+      <c r="J52" s="179"/>
       <c r="K52" s="65"/>
       <c r="L52" s="66"/>
       <c r="M52" s="161"/>
@@ -24010,7 +24015,7 @@
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
-      <c r="J53" s="240"/>
+      <c r="J53" s="179"/>
       <c r="K53" s="65"/>
       <c r="L53" s="66"/>
       <c r="M53" s="161"/>
@@ -24044,7 +24049,7 @@
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
-      <c r="J54" s="240"/>
+      <c r="J54" s="179"/>
       <c r="K54" s="65"/>
       <c r="L54" s="66"/>
       <c r="M54" s="161"/>
@@ -24078,7 +24083,7 @@
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
-      <c r="J55" s="240"/>
+      <c r="J55" s="179"/>
       <c r="K55" s="65"/>
       <c r="L55" s="66"/>
       <c r="M55" s="161"/>
@@ -24114,7 +24119,7 @@
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
-      <c r="J56" s="240"/>
+      <c r="J56" s="179"/>
       <c r="K56" s="65"/>
       <c r="L56" s="66"/>
       <c r="M56" s="161"/>
@@ -24150,7 +24155,7 @@
       </c>
       <c r="H57" s="51"/>
       <c r="I57" s="51"/>
-      <c r="J57" s="240"/>
+      <c r="J57" s="179"/>
       <c r="K57" s="65"/>
       <c r="L57" s="66"/>
       <c r="M57" s="161"/>
@@ -24186,7 +24191,7 @@
       </c>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
-      <c r="J58" s="240"/>
+      <c r="J58" s="179"/>
       <c r="K58" s="65"/>
       <c r="L58" s="66"/>
       <c r="M58" s="161"/>
@@ -24224,7 +24229,7 @@
       </c>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
-      <c r="J59" s="240"/>
+      <c r="J59" s="179"/>
       <c r="K59" s="65"/>
       <c r="L59" s="66"/>
       <c r="M59" s="161"/>
@@ -24258,7 +24263,7 @@
       </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
-      <c r="J60" s="240"/>
+      <c r="J60" s="179"/>
       <c r="K60" s="65"/>
       <c r="L60" s="66"/>
       <c r="M60" s="161"/>
@@ -24292,7 +24297,7 @@
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
-      <c r="J61" s="240"/>
+      <c r="J61" s="179"/>
       <c r="K61" s="65"/>
       <c r="L61" s="66"/>
       <c r="M61" s="161"/>
@@ -24326,7 +24331,7 @@
       </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
-      <c r="J62" s="240"/>
+      <c r="J62" s="179"/>
       <c r="K62" s="65"/>
       <c r="L62" s="66"/>
       <c r="M62" s="161"/>
@@ -24360,7 +24365,7 @@
       </c>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
-      <c r="J63" s="240"/>
+      <c r="J63" s="179"/>
       <c r="K63" s="65"/>
       <c r="L63" s="66"/>
       <c r="M63" s="161"/>
@@ -24396,7 +24401,7 @@
       </c>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
-      <c r="J64" s="240"/>
+      <c r="J64" s="179"/>
       <c r="K64" s="65"/>
       <c r="L64" s="66"/>
       <c r="M64" s="161"/>
@@ -24430,7 +24435,7 @@
       </c>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
-      <c r="J65" s="240"/>
+      <c r="J65" s="179"/>
       <c r="K65" s="65"/>
       <c r="L65" s="66"/>
       <c r="M65" s="161"/>
@@ -24464,7 +24469,7 @@
       </c>
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
-      <c r="J66" s="240"/>
+      <c r="J66" s="179"/>
       <c r="K66" s="65"/>
       <c r="L66" s="66"/>
       <c r="M66" s="161"/>
@@ -24498,7 +24503,7 @@
       </c>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
-      <c r="J67" s="240"/>
+      <c r="J67" s="179"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66"/>
       <c r="M67" s="161"/>
@@ -24532,7 +24537,7 @@
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
-      <c r="J68" s="240"/>
+      <c r="J68" s="179"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66"/>
       <c r="M68" s="161"/>
@@ -24566,7 +24571,7 @@
       </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
-      <c r="J69" s="240"/>
+      <c r="J69" s="179"/>
       <c r="K69" s="65"/>
       <c r="L69" s="66"/>
       <c r="M69" s="161"/>
@@ -24600,7 +24605,7 @@
       </c>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
-      <c r="J70" s="240"/>
+      <c r="J70" s="179"/>
       <c r="K70" s="65"/>
       <c r="L70" s="66"/>
       <c r="M70" s="161"/>
@@ -24634,13 +24639,13 @@
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
-      <c r="J71" s="242"/>
-      <c r="K71" s="252"/>
+      <c r="J71" s="181"/>
+      <c r="K71" s="191"/>
       <c r="L71" s="168"/>
-      <c r="M71" s="250"/>
+      <c r="M71" s="189"/>
       <c r="N71" s="169"/>
-      <c r="O71" s="251"/>
-      <c r="P71" s="250"/>
+      <c r="O71" s="190"/>
+      <c r="P71" s="189"/>
       <c r="Q71" s="169"/>
     </row>
     <row r="72" spans="1:17" s="32" customFormat="1" ht="22">
@@ -24656,9 +24661,9 @@
 )</f>
         <v>22-1-1</v>
       </c>
-      <c r="B72" s="249"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="248"/>
+      <c r="B72" s="188"/>
+      <c r="C72" s="188"/>
+      <c r="D72" s="187"/>
       <c r="E72" s="42" t="s">
         <v>131</v>
       </c>
@@ -24669,7 +24674,7 @@
         <v>482</v>
       </c>
       <c r="H72" s="51"/>
-      <c r="I72" s="247"/>
+      <c r="I72" s="186"/>
       <c r="J72" s="65"/>
       <c r="K72" s="65"/>
       <c r="L72" s="65"/>
@@ -24693,7 +24698,7 @@
         <v>23-1-1</v>
       </c>
       <c r="B73" s="58"/>
-      <c r="C73" s="245"/>
+      <c r="C73" s="184"/>
       <c r="D73" s="174"/>
       <c r="E73" s="42" t="s">
         <v>133</v>
@@ -24705,7 +24710,7 @@
         <v>482</v>
       </c>
       <c r="H73" s="51"/>
-      <c r="I73" s="246"/>
+      <c r="I73" s="185"/>
       <c r="J73" s="65"/>
       <c r="K73" s="65"/>
       <c r="L73" s="65"/>
@@ -24729,7 +24734,7 @@
         <v>23-2-1</v>
       </c>
       <c r="B74" s="58"/>
-      <c r="C74" s="245"/>
+      <c r="C74" s="184"/>
       <c r="D74" s="174"/>
       <c r="E74" s="174"/>
       <c r="F74" s="51" t="s">
@@ -24740,7 +24745,7 @@
       </c>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
-      <c r="J74" s="240"/>
+      <c r="J74" s="179"/>
       <c r="K74" s="65"/>
       <c r="L74" s="66"/>
       <c r="M74" s="161"/>
@@ -24763,7 +24768,7 @@
         <v>23-3-1</v>
       </c>
       <c r="B75" s="50"/>
-      <c r="C75" s="245"/>
+      <c r="C75" s="184"/>
       <c r="D75" s="174"/>
       <c r="E75" s="174"/>
       <c r="F75" s="51" t="s">
@@ -24774,7 +24779,7 @@
       </c>
       <c r="H75" s="51"/>
       <c r="I75" s="51"/>
-      <c r="J75" s="240"/>
+      <c r="J75" s="179"/>
       <c r="K75" s="67"/>
       <c r="L75" s="66"/>
       <c r="M75" s="67"/>
@@ -24797,7 +24802,7 @@
         <v>23-4-1</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="245"/>
+      <c r="C76" s="184"/>
       <c r="D76" s="174"/>
       <c r="E76" s="174"/>
       <c r="F76" s="51" t="s">
@@ -24808,7 +24813,7 @@
       </c>
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
-      <c r="J76" s="240"/>
+      <c r="J76" s="179"/>
       <c r="K76" s="67"/>
       <c r="L76" s="66"/>
       <c r="M76" s="67"/>
@@ -24831,7 +24836,7 @@
         <v>23-5-1</v>
       </c>
       <c r="B77" s="58"/>
-      <c r="C77" s="241"/>
+      <c r="C77" s="180"/>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
       <c r="F77" s="51" t="s">
@@ -24842,7 +24847,7 @@
       </c>
       <c r="H77" s="51"/>
       <c r="I77" s="51"/>
-      <c r="J77" s="240"/>
+      <c r="J77" s="179"/>
       <c r="K77" s="67"/>
       <c r="L77" s="66"/>
       <c r="M77" s="67"/>
@@ -24882,7 +24887,7 @@
       </c>
       <c r="H78" s="51"/>
       <c r="I78" s="51"/>
-      <c r="J78" s="240"/>
+      <c r="J78" s="179"/>
       <c r="K78" s="65"/>
       <c r="L78" s="66"/>
       <c r="M78" s="67"/>
@@ -24905,7 +24910,7 @@
         <v>24-2-1</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="243"/>
+      <c r="C79" s="182"/>
       <c r="D79" s="174"/>
       <c r="E79" s="174"/>
       <c r="F79" s="42" t="s">
@@ -24916,7 +24921,7 @@
       </c>
       <c r="H79" s="51"/>
       <c r="I79" s="51"/>
-      <c r="J79" s="240"/>
+      <c r="J79" s="179"/>
       <c r="K79" s="65"/>
       <c r="L79" s="66"/>
       <c r="M79" s="67"/>
@@ -24939,7 +24944,7 @@
         <v>25-1-1</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="243"/>
+      <c r="C80" s="182"/>
       <c r="D80" s="174"/>
       <c r="E80" s="42" t="s">
         <v>144</v>
@@ -24952,7 +24957,7 @@
       </c>
       <c r="H80" s="51"/>
       <c r="I80" s="51"/>
-      <c r="J80" s="240"/>
+      <c r="J80" s="179"/>
       <c r="K80" s="67"/>
       <c r="L80" s="66"/>
       <c r="M80" s="67"/>
@@ -24975,7 +24980,7 @@
         <v>26-1-1</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="243"/>
+      <c r="C81" s="182"/>
       <c r="D81" s="174"/>
       <c r="E81" s="42" t="s">
         <v>146</v>
@@ -24988,7 +24993,7 @@
       </c>
       <c r="H81" s="51"/>
       <c r="I81" s="51"/>
-      <c r="J81" s="240"/>
+      <c r="J81" s="179"/>
       <c r="K81" s="65"/>
       <c r="L81" s="66"/>
       <c r="M81" s="67"/>
@@ -25011,7 +25016,7 @@
         <v>26-2-1</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="243"/>
+      <c r="C82" s="182"/>
       <c r="D82" s="174"/>
       <c r="E82" s="54"/>
       <c r="F82" s="51" t="s">
@@ -25022,7 +25027,7 @@
       </c>
       <c r="H82" s="51"/>
       <c r="I82" s="51"/>
-      <c r="J82" s="240"/>
+      <c r="J82" s="179"/>
       <c r="K82" s="67"/>
       <c r="L82" s="66"/>
       <c r="M82" s="67"/>
@@ -25045,7 +25050,7 @@
         <v>27-1-1</v>
       </c>
       <c r="B83" s="50"/>
-      <c r="C83" s="243"/>
+      <c r="C83" s="182"/>
       <c r="D83" s="174"/>
       <c r="E83" s="54" t="s">
         <v>149</v>
@@ -25058,7 +25063,7 @@
       </c>
       <c r="H83" s="51"/>
       <c r="I83" s="51"/>
-      <c r="J83" s="240"/>
+      <c r="J83" s="179"/>
       <c r="K83" s="67"/>
       <c r="L83" s="66"/>
       <c r="M83" s="67"/>
@@ -25094,7 +25099,7 @@
       </c>
       <c r="H84" s="51"/>
       <c r="I84" s="51"/>
-      <c r="J84" s="240"/>
+      <c r="J84" s="179"/>
       <c r="K84" s="67"/>
       <c r="L84" s="66"/>
       <c r="M84" s="67"/>
@@ -25133,8 +25138,8 @@
         <v>482</v>
       </c>
       <c r="H85" s="51"/>
-      <c r="I85" s="244"/>
-      <c r="J85" s="240"/>
+      <c r="I85" s="183"/>
+      <c r="J85" s="179"/>
       <c r="K85" s="67"/>
       <c r="L85" s="66"/>
       <c r="M85" s="67"/>
@@ -25157,7 +25162,7 @@
         <v>30-1-1</v>
       </c>
       <c r="B86" s="50"/>
-      <c r="C86" s="243"/>
+      <c r="C86" s="182"/>
       <c r="D86" s="174"/>
       <c r="E86" s="54" t="s">
         <v>144</v>
@@ -25169,8 +25174,8 @@
         <v>482</v>
       </c>
       <c r="H86" s="51"/>
-      <c r="I86" s="244"/>
-      <c r="J86" s="240"/>
+      <c r="I86" s="183"/>
+      <c r="J86" s="179"/>
       <c r="K86" s="67"/>
       <c r="L86" s="66"/>
       <c r="M86" s="67"/>
@@ -25206,7 +25211,7 @@
       </c>
       <c r="H87" s="51"/>
       <c r="I87" s="51"/>
-      <c r="J87" s="240"/>
+      <c r="J87" s="179"/>
       <c r="K87" s="67"/>
       <c r="L87" s="66"/>
       <c r="M87" s="67"/>
@@ -25245,8 +25250,8 @@
         <v>482</v>
       </c>
       <c r="H88" s="51"/>
-      <c r="I88" s="244"/>
-      <c r="J88" s="240"/>
+      <c r="I88" s="183"/>
+      <c r="J88" s="179"/>
       <c r="K88" s="67"/>
       <c r="L88" s="66"/>
       <c r="M88" s="67"/>
@@ -25269,7 +25274,7 @@
         <v>32-2-1</v>
       </c>
       <c r="B89" s="50"/>
-      <c r="C89" s="243"/>
+      <c r="C89" s="182"/>
       <c r="D89" s="174"/>
       <c r="E89" s="54"/>
       <c r="F89" s="42" t="s">
@@ -25279,8 +25284,8 @@
         <v>482</v>
       </c>
       <c r="H89" s="51"/>
-      <c r="I89" s="244"/>
-      <c r="J89" s="240"/>
+      <c r="I89" s="183"/>
+      <c r="J89" s="179"/>
       <c r="K89" s="67"/>
       <c r="L89" s="66"/>
       <c r="M89" s="67"/>
@@ -25303,7 +25308,7 @@
         <v>33-1-1</v>
       </c>
       <c r="B90" s="50"/>
-      <c r="C90" s="243"/>
+      <c r="C90" s="182"/>
       <c r="D90" s="174"/>
       <c r="E90" s="51" t="s">
         <v>144</v>
@@ -25315,8 +25320,8 @@
         <v>482</v>
       </c>
       <c r="H90" s="51"/>
-      <c r="I90" s="244"/>
-      <c r="J90" s="240"/>
+      <c r="I90" s="183"/>
+      <c r="J90" s="179"/>
       <c r="K90" s="67"/>
       <c r="L90" s="66"/>
       <c r="M90" s="67"/>
@@ -25339,7 +25344,7 @@
         <v>34-1-1</v>
       </c>
       <c r="B91" s="50"/>
-      <c r="C91" s="243"/>
+      <c r="C91" s="182"/>
       <c r="D91" s="174"/>
       <c r="E91" s="174" t="s">
         <v>146</v>
@@ -25352,7 +25357,7 @@
       </c>
       <c r="H91" s="51"/>
       <c r="I91" s="51"/>
-      <c r="J91" s="240"/>
+      <c r="J91" s="179"/>
       <c r="K91" s="67"/>
       <c r="L91" s="66"/>
       <c r="M91" s="67"/>
@@ -25375,7 +25380,7 @@
         <v>34-2-1</v>
       </c>
       <c r="B92" s="50"/>
-      <c r="C92" s="243"/>
+      <c r="C92" s="182"/>
       <c r="D92" s="174"/>
       <c r="E92" s="54"/>
       <c r="F92" s="51" t="s">
@@ -25386,7 +25391,7 @@
       </c>
       <c r="H92" s="51"/>
       <c r="I92" s="51"/>
-      <c r="J92" s="240"/>
+      <c r="J92" s="179"/>
       <c r="K92" s="67"/>
       <c r="L92" s="66"/>
       <c r="M92" s="67"/>
@@ -25422,7 +25427,7 @@
       </c>
       <c r="H93" s="51"/>
       <c r="I93" s="51"/>
-      <c r="J93" s="240"/>
+      <c r="J93" s="179"/>
       <c r="K93" s="67"/>
       <c r="L93" s="66"/>
       <c r="M93" s="67"/>
@@ -25462,7 +25467,7 @@
       </c>
       <c r="H94" s="51"/>
       <c r="I94" s="51"/>
-      <c r="J94" s="240"/>
+      <c r="J94" s="179"/>
       <c r="K94" s="67"/>
       <c r="L94" s="66"/>
       <c r="M94" s="67"/>
@@ -25496,7 +25501,7 @@
       </c>
       <c r="H95" s="51"/>
       <c r="I95" s="51"/>
-      <c r="J95" s="240"/>
+      <c r="J95" s="179"/>
       <c r="K95" s="67"/>
       <c r="L95" s="66"/>
       <c r="M95" s="67"/>
@@ -25530,7 +25535,7 @@
       </c>
       <c r="H96" s="51"/>
       <c r="I96" s="51"/>
-      <c r="J96" s="240"/>
+      <c r="J96" s="179"/>
       <c r="K96" s="67"/>
       <c r="L96" s="66"/>
       <c r="M96" s="67"/>
@@ -25553,7 +25558,7 @@
         <v>36-4-1</v>
       </c>
       <c r="B97" s="50"/>
-      <c r="C97" s="243"/>
+      <c r="C97" s="182"/>
       <c r="D97" s="174"/>
       <c r="E97" s="174"/>
       <c r="F97" s="51" t="s">
@@ -25564,7 +25569,7 @@
       </c>
       <c r="H97" s="51"/>
       <c r="I97" s="51"/>
-      <c r="J97" s="240"/>
+      <c r="J97" s="179"/>
       <c r="K97" s="67"/>
       <c r="L97" s="66"/>
       <c r="M97" s="67"/>
@@ -25587,7 +25592,7 @@
         <v>36-5-1</v>
       </c>
       <c r="B98" s="50"/>
-      <c r="C98" s="243"/>
+      <c r="C98" s="182"/>
       <c r="D98" s="174"/>
       <c r="E98" s="54"/>
       <c r="F98" s="51" t="s">
@@ -25598,7 +25603,7 @@
       </c>
       <c r="H98" s="51"/>
       <c r="I98" s="51"/>
-      <c r="J98" s="240"/>
+      <c r="J98" s="179"/>
       <c r="K98" s="67"/>
       <c r="L98" s="66"/>
       <c r="M98" s="67"/>
@@ -25633,8 +25638,8 @@
         <v>482</v>
       </c>
       <c r="H99" s="51"/>
-      <c r="I99" s="244"/>
-      <c r="J99" s="240"/>
+      <c r="I99" s="183"/>
+      <c r="J99" s="179"/>
       <c r="K99" s="67"/>
       <c r="L99" s="66"/>
       <c r="M99" s="67"/>
@@ -25656,7 +25661,7 @@
 )</f>
         <v>37-2-1</v>
       </c>
-      <c r="B100" s="245"/>
+      <c r="B100" s="184"/>
       <c r="C100" s="58"/>
       <c r="D100" s="174"/>
       <c r="E100" s="174"/>
@@ -25668,7 +25673,7 @@
       </c>
       <c r="H100" s="51"/>
       <c r="I100" s="51"/>
-      <c r="J100" s="240"/>
+      <c r="J100" s="179"/>
       <c r="K100" s="67"/>
       <c r="L100" s="66"/>
       <c r="M100" s="67"/>
@@ -25690,7 +25695,7 @@
 )</f>
         <v>37-3-1</v>
       </c>
-      <c r="B101" s="245"/>
+      <c r="B101" s="184"/>
       <c r="C101" s="58"/>
       <c r="D101" s="174"/>
       <c r="E101" s="174"/>
@@ -25701,8 +25706,8 @@
         <v>482</v>
       </c>
       <c r="H101" s="51"/>
-      <c r="I101" s="244"/>
-      <c r="J101" s="240"/>
+      <c r="I101" s="183"/>
+      <c r="J101" s="179"/>
       <c r="K101" s="67"/>
       <c r="L101" s="66"/>
       <c r="M101" s="67"/>
@@ -25725,7 +25730,7 @@
         <v>37-4-1</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="243"/>
+      <c r="C102" s="182"/>
       <c r="D102" s="174"/>
       <c r="E102" s="174"/>
       <c r="F102" s="51" t="s">
@@ -25736,7 +25741,7 @@
       </c>
       <c r="H102" s="51"/>
       <c r="I102" s="51"/>
-      <c r="J102" s="240"/>
+      <c r="J102" s="179"/>
       <c r="K102" s="67"/>
       <c r="L102" s="66"/>
       <c r="M102" s="67"/>
@@ -25759,7 +25764,7 @@
         <v>37-5-1</v>
       </c>
       <c r="B103" s="50"/>
-      <c r="C103" s="243"/>
+      <c r="C103" s="182"/>
       <c r="D103" s="174"/>
       <c r="E103" s="174"/>
       <c r="F103" s="42" t="s">
@@ -25770,7 +25775,7 @@
       </c>
       <c r="H103" s="42"/>
       <c r="I103" s="42"/>
-      <c r="J103" s="242"/>
+      <c r="J103" s="181"/>
       <c r="K103" s="169"/>
       <c r="L103" s="168"/>
       <c r="M103" s="169"/>
@@ -25792,7 +25797,7 @@
 )</f>
         <v>38-1-1</v>
       </c>
-      <c r="B104" s="241"/>
+      <c r="B104" s="180"/>
       <c r="C104" s="162"/>
       <c r="D104" s="54"/>
       <c r="E104" s="51" t="s">
@@ -25806,7 +25811,7 @@
       </c>
       <c r="H104" s="51"/>
       <c r="I104" s="51"/>
-      <c r="J104" s="240"/>
+      <c r="J104" s="179"/>
       <c r="K104" s="67"/>
       <c r="L104" s="66"/>
       <c r="M104" s="67"/>
@@ -25828,7 +25833,7 @@
 )</f>
         <v>39-1-1</v>
       </c>
-      <c r="B105" s="239" t="s">
+      <c r="B105" s="178" t="s">
         <v>179</v>
       </c>
       <c r="C105" s="51" t="s">
@@ -26100,7 +26105,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="234" t="s">
+      <c r="B112" s="252" t="s">
         <v>193</v>
       </c>
       <c r="C112" s="56"/>
@@ -26136,7 +26141,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="234"/>
+      <c r="B113" s="252"/>
       <c r="C113" s="56"/>
       <c r="D113" s="174"/>
       <c r="E113" s="86"/>
@@ -26808,7 +26813,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="234" t="s">
+      <c r="B132" s="252" t="s">
         <v>221</v>
       </c>
       <c r="C132" s="56"/>
@@ -26844,7 +26849,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="234"/>
+      <c r="B133" s="252"/>
       <c r="C133" s="56"/>
       <c r="D133" s="174"/>
       <c r="E133" s="174"/>
@@ -28484,7 +28489,7 @@
       <c r="C180" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="D180" s="238" t="s">
+      <c r="D180" s="177" t="s">
         <v>283</v>
       </c>
       <c r="E180" s="51" t="s">
@@ -28522,7 +28527,7 @@
       </c>
       <c r="B181" s="174"/>
       <c r="C181" s="56"/>
-      <c r="D181" s="238" t="s">
+      <c r="D181" s="177" t="s">
         <v>286</v>
       </c>
       <c r="E181" s="51" t="s">
@@ -28675,7 +28680,7 @@
         <v>69-2-1</v>
       </c>
       <c r="B185" s="86"/>
-      <c r="C185" s="236"/>
+      <c r="C185" s="175"/>
       <c r="D185" s="174"/>
       <c r="E185" s="54"/>
       <c r="F185" s="51" t="s">
@@ -28746,7 +28751,7 @@
       </c>
       <c r="B187" s="86"/>
       <c r="C187" s="56"/>
-      <c r="D187" s="237"/>
+      <c r="D187" s="176"/>
       <c r="E187" s="54"/>
       <c r="F187" s="51" t="s">
         <v>298</v>
@@ -28857,7 +28862,7 @@
         <v>72-2-1</v>
       </c>
       <c r="B190" s="86"/>
-      <c r="C190" s="236"/>
+      <c r="C190" s="175"/>
       <c r="D190" s="174"/>
       <c r="E190" s="174"/>
       <c r="F190" s="51" t="s">
@@ -28891,7 +28896,7 @@
         <v>72-3-1</v>
       </c>
       <c r="B191" s="86"/>
-      <c r="C191" s="236"/>
+      <c r="C191" s="175"/>
       <c r="D191" s="174"/>
       <c r="E191" s="174"/>
       <c r="F191" s="51" t="s">
@@ -28925,7 +28930,7 @@
         <v>72-4-1</v>
       </c>
       <c r="B192" s="86"/>
-      <c r="C192" s="236"/>
+      <c r="C192" s="175"/>
       <c r="D192" s="174"/>
       <c r="E192" s="174"/>
       <c r="F192" s="51" t="s">
@@ -28959,7 +28964,7 @@
         <v>72-5-1</v>
       </c>
       <c r="B193" s="86"/>
-      <c r="C193" s="236"/>
+      <c r="C193" s="175"/>
       <c r="D193" s="174"/>
       <c r="E193" s="174"/>
       <c r="F193" s="51" t="s">
@@ -28993,7 +28998,7 @@
         <v>72-6-1</v>
       </c>
       <c r="B194" s="86"/>
-      <c r="C194" s="236"/>
+      <c r="C194" s="175"/>
       <c r="D194" s="174"/>
       <c r="E194" s="174"/>
       <c r="F194" s="51" t="s">
@@ -29027,7 +29032,7 @@
         <v>72-7-1</v>
       </c>
       <c r="B195" s="86"/>
-      <c r="C195" s="236"/>
+      <c r="C195" s="175"/>
       <c r="D195" s="174"/>
       <c r="E195" s="54"/>
       <c r="F195" s="51" t="s">
@@ -36846,7 +36851,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B119" s="235" t="s">
+      <c r="B119" s="253" t="s">
         <v>438</v>
       </c>
       <c r="C119" s="103"/>
@@ -36883,7 +36888,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B120" s="235"/>
+      <c r="B120" s="253"/>
       <c r="C120" s="103"/>
       <c r="D120" s="97"/>
       <c r="E120" s="114"/>
@@ -37574,7 +37579,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B139" s="235" t="s">
+      <c r="B139" s="253" t="s">
         <v>221</v>
       </c>
       <c r="C139" s="103"/>
@@ -37611,7 +37616,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B140" s="235"/>
+      <c r="B140" s="253"/>
       <c r="C140" s="103"/>
       <c r="D140" s="97"/>
       <c r="E140" s="103"/>

--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10103_顧客登録.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F96C1A-9F88-46A5-81B9-0439B7C4F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A742996-A1B1-4AD4-8909-03C8E9F712F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="593">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -7809,6 +7809,16 @@
     </rPh>
     <rPh sb="4" eb="8">
       <t>コキャクカンリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストターゲット名：顧客登録</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>コキャクトウロク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -8963,6 +8973,72 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9069,72 +9145,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10665,57 +10675,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203" t="s">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="225" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="209" t="s">
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="227"/>
+      <c r="O1" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="218" t="s">
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="240" t="s">
         <v>583</v>
       </c>
-      <c r="T1" s="219"/>
-      <c r="U1" s="219"/>
-      <c r="V1" s="219"/>
-      <c r="W1" s="219"/>
-      <c r="X1" s="219"/>
-      <c r="Y1" s="219"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="200" t="s">
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="241"/>
+      <c r="Z1" s="242"/>
+      <c r="AA1" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="227" t="str">
+      <c r="AB1" s="224"/>
+      <c r="AC1" s="249" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="228"/>
-      <c r="AE1" s="228"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="194" t="str">
+      <c r="AD1" s="250"/>
+      <c r="AE1" s="250"/>
+      <c r="AF1" s="251"/>
+      <c r="AG1" s="216" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="196"/>
+      <c r="AH1" s="217"/>
+      <c r="AI1" s="218"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10723,53 +10733,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="203" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="225" t="s">
         <v>461</v>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="212"/>
-      <c r="P2" s="213"/>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221"/>
-      <c r="T2" s="222"/>
-      <c r="U2" s="222"/>
-      <c r="V2" s="222"/>
-      <c r="W2" s="222"/>
-      <c r="X2" s="222"/>
-      <c r="Y2" s="222"/>
-      <c r="Z2" s="223"/>
-      <c r="AA2" s="200" t="s">
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="226"/>
+      <c r="J2" s="226"/>
+      <c r="K2" s="226"/>
+      <c r="L2" s="226"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="235"/>
+      <c r="Q2" s="235"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="243"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
+      <c r="Z2" s="245"/>
+      <c r="AA2" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="202"/>
-      <c r="AC2" s="206" t="str">
+      <c r="AB2" s="224"/>
+      <c r="AC2" s="228" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="207"/>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="194" t="str">
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="230"/>
+      <c r="AG2" s="216" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="195"/>
-      <c r="AI2" s="196"/>
+      <c r="AH2" s="217"/>
+      <c r="AI2" s="218"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10777,45 +10787,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="203" t="s">
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="224"/>
+      <c r="E3" s="225" t="s">
         <v>462</v>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="216"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="224"/>
-      <c r="T3" s="225"/>
-      <c r="U3" s="225"/>
-      <c r="V3" s="225"/>
-      <c r="W3" s="225"/>
-      <c r="X3" s="225"/>
-      <c r="Y3" s="225"/>
-      <c r="Z3" s="226"/>
-      <c r="AA3" s="200"/>
-      <c r="AB3" s="202"/>
-      <c r="AC3" s="227"/>
-      <c r="AD3" s="228"/>
-      <c r="AE3" s="228"/>
-      <c r="AF3" s="229"/>
-      <c r="AG3" s="194"/>
-      <c r="AH3" s="195"/>
-      <c r="AI3" s="196"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="226"/>
+      <c r="I3" s="226"/>
+      <c r="J3" s="226"/>
+      <c r="K3" s="226"/>
+      <c r="L3" s="226"/>
+      <c r="M3" s="226"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="247"/>
+      <c r="U3" s="247"/>
+      <c r="V3" s="247"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="247"/>
+      <c r="Y3" s="247"/>
+      <c r="Z3" s="248"/>
+      <c r="AA3" s="222"/>
+      <c r="AB3" s="224"/>
+      <c r="AC3" s="249"/>
+      <c r="AD3" s="250"/>
+      <c r="AE3" s="250"/>
+      <c r="AF3" s="251"/>
+      <c r="AG3" s="216"/>
+      <c r="AH3" s="217"/>
+      <c r="AI3" s="218"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10852,85 +10862,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="197" t="s">
+      <c r="B7" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="198"/>
-      <c r="D7" s="197" t="s">
+      <c r="C7" s="220"/>
+      <c r="D7" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="197" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="219" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="199"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="197" t="s">
+      <c r="H7" s="221"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="199"/>
-      <c r="L7" s="199"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="198"/>
-      <c r="Q7" s="197" t="s">
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="221"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="199"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="199"/>
-      <c r="AA7" s="199"/>
-      <c r="AB7" s="199"/>
-      <c r="AC7" s="199"/>
-      <c r="AD7" s="199"/>
-      <c r="AE7" s="198"/>
-      <c r="AF7" s="197" t="s">
+      <c r="R7" s="221"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="221"/>
+      <c r="W7" s="221"/>
+      <c r="X7" s="221"/>
+      <c r="Y7" s="221"/>
+      <c r="Z7" s="221"/>
+      <c r="AA7" s="221"/>
+      <c r="AB7" s="221"/>
+      <c r="AC7" s="221"/>
+      <c r="AD7" s="221"/>
+      <c r="AE7" s="220"/>
+      <c r="AF7" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="199"/>
-      <c r="AH7" s="199"/>
-      <c r="AI7" s="198"/>
+      <c r="AG7" s="221"/>
+      <c r="AH7" s="221"/>
+      <c r="AI7" s="220"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="242"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="249"/>
-      <c r="L8" s="249"/>
-      <c r="M8" s="249"/>
-      <c r="N8" s="249"/>
-      <c r="O8" s="249"/>
-      <c r="P8" s="250"/>
-      <c r="Q8" s="248"/>
-      <c r="R8" s="249"/>
-      <c r="S8" s="249"/>
-      <c r="T8" s="249"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="249"/>
-      <c r="W8" s="249"/>
-      <c r="X8" s="249"/>
-      <c r="Y8" s="249"/>
-      <c r="Z8" s="249"/>
-      <c r="AA8" s="249"/>
-      <c r="AB8" s="249"/>
-      <c r="AC8" s="249"/>
-      <c r="AD8" s="249"/>
-      <c r="AE8" s="250"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="210"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="207"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="213"/>
+      <c r="R8" s="214"/>
+      <c r="S8" s="214"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="214"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="214"/>
+      <c r="AA8" s="214"/>
+      <c r="AB8" s="214"/>
+      <c r="AC8" s="214"/>
+      <c r="AD8" s="214"/>
+      <c r="AE8" s="215"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10938,1089 +10948,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="237"/>
-      <c r="M9" s="237"/>
-      <c r="N9" s="237"/>
-      <c r="O9" s="237"/>
-      <c r="P9" s="238"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="240"/>
-      <c r="S9" s="240"/>
-      <c r="T9" s="240"/>
-      <c r="U9" s="240"/>
-      <c r="V9" s="240"/>
-      <c r="W9" s="240"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="240"/>
-      <c r="AA9" s="240"/>
-      <c r="AB9" s="240"/>
-      <c r="AC9" s="240"/>
-      <c r="AD9" s="240"/>
-      <c r="AE9" s="241"/>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="237"/>
-      <c r="AH9" s="237"/>
-      <c r="AI9" s="238"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="200"/>
+      <c r="AG9" s="201"/>
+      <c r="AH9" s="201"/>
+      <c r="AI9" s="202"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="237"/>
-      <c r="L10" s="237"/>
-      <c r="M10" s="237"/>
-      <c r="N10" s="237"/>
-      <c r="O10" s="237"/>
-      <c r="P10" s="238"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="240"/>
-      <c r="S10" s="240"/>
-      <c r="T10" s="240"/>
-      <c r="U10" s="240"/>
-      <c r="V10" s="240"/>
-      <c r="W10" s="240"/>
-      <c r="X10" s="240"/>
-      <c r="Y10" s="240"/>
-      <c r="Z10" s="240"/>
-      <c r="AA10" s="240"/>
-      <c r="AB10" s="240"/>
-      <c r="AC10" s="240"/>
-      <c r="AD10" s="240"/>
-      <c r="AE10" s="241"/>
-      <c r="AF10" s="236"/>
-      <c r="AG10" s="237"/>
-      <c r="AH10" s="237"/>
-      <c r="AI10" s="238"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="200"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="201"/>
+      <c r="AI10" s="202"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="231"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="231"/>
-      <c r="J11" s="236"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="239"/>
-      <c r="R11" s="240"/>
-      <c r="S11" s="240"/>
-      <c r="T11" s="240"/>
-      <c r="U11" s="240"/>
-      <c r="V11" s="240"/>
-      <c r="W11" s="240"/>
-      <c r="X11" s="240"/>
-      <c r="Y11" s="240"/>
-      <c r="Z11" s="240"/>
-      <c r="AA11" s="240"/>
-      <c r="AB11" s="240"/>
-      <c r="AC11" s="240"/>
-      <c r="AD11" s="240"/>
-      <c r="AE11" s="241"/>
-      <c r="AF11" s="236"/>
-      <c r="AG11" s="237"/>
-      <c r="AH11" s="237"/>
-      <c r="AI11" s="238"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="205"/>
+      <c r="AF11" s="200"/>
+      <c r="AG11" s="201"/>
+      <c r="AH11" s="201"/>
+      <c r="AI11" s="202"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="233"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="231"/>
-      <c r="J12" s="236"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="237"/>
-      <c r="M12" s="237"/>
-      <c r="N12" s="237"/>
-      <c r="O12" s="237"/>
-      <c r="P12" s="238"/>
-      <c r="Q12" s="239"/>
-      <c r="R12" s="240"/>
-      <c r="S12" s="240"/>
-      <c r="T12" s="240"/>
-      <c r="U12" s="240"/>
-      <c r="V12" s="240"/>
-      <c r="W12" s="240"/>
-      <c r="X12" s="240"/>
-      <c r="Y12" s="240"/>
-      <c r="Z12" s="240"/>
-      <c r="AA12" s="240"/>
-      <c r="AB12" s="240"/>
-      <c r="AC12" s="240"/>
-      <c r="AD12" s="240"/>
-      <c r="AE12" s="241"/>
-      <c r="AF12" s="236"/>
-      <c r="AG12" s="237"/>
-      <c r="AH12" s="237"/>
-      <c r="AI12" s="238"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="204"/>
+      <c r="AC12" s="204"/>
+      <c r="AD12" s="204"/>
+      <c r="AE12" s="205"/>
+      <c r="AF12" s="200"/>
+      <c r="AG12" s="201"/>
+      <c r="AH12" s="201"/>
+      <c r="AI12" s="202"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="231"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="238"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="240"/>
-      <c r="S13" s="240"/>
-      <c r="T13" s="240"/>
-      <c r="U13" s="240"/>
-      <c r="V13" s="240"/>
-      <c r="W13" s="240"/>
-      <c r="X13" s="240"/>
-      <c r="Y13" s="240"/>
-      <c r="Z13" s="240"/>
-      <c r="AA13" s="240"/>
-      <c r="AB13" s="240"/>
-      <c r="AC13" s="240"/>
-      <c r="AD13" s="240"/>
-      <c r="AE13" s="241"/>
-      <c r="AF13" s="236"/>
-      <c r="AG13" s="237"/>
-      <c r="AH13" s="237"/>
-      <c r="AI13" s="238"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="204"/>
+      <c r="W13" s="204"/>
+      <c r="X13" s="204"/>
+      <c r="Y13" s="204"/>
+      <c r="Z13" s="204"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="204"/>
+      <c r="AC13" s="204"/>
+      <c r="AD13" s="204"/>
+      <c r="AE13" s="205"/>
+      <c r="AF13" s="200"/>
+      <c r="AG13" s="201"/>
+      <c r="AH13" s="201"/>
+      <c r="AI13" s="202"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="231"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
-      <c r="N14" s="237"/>
-      <c r="O14" s="237"/>
-      <c r="P14" s="238"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="240"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="240"/>
-      <c r="U14" s="240"/>
-      <c r="V14" s="240"/>
-      <c r="W14" s="240"/>
-      <c r="X14" s="240"/>
-      <c r="Y14" s="240"/>
-      <c r="Z14" s="240"/>
-      <c r="AA14" s="240"/>
-      <c r="AB14" s="240"/>
-      <c r="AC14" s="240"/>
-      <c r="AD14" s="240"/>
-      <c r="AE14" s="241"/>
-      <c r="AF14" s="236"/>
-      <c r="AG14" s="237"/>
-      <c r="AH14" s="237"/>
-      <c r="AI14" s="238"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="204"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="205"/>
+      <c r="AF14" s="200"/>
+      <c r="AG14" s="201"/>
+      <c r="AH14" s="201"/>
+      <c r="AI14" s="202"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="231"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="235"/>
-      <c r="I15" s="231"/>
-      <c r="J15" s="236"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="237"/>
-      <c r="N15" s="237"/>
-      <c r="O15" s="237"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="240"/>
-      <c r="S15" s="240"/>
-      <c r="T15" s="240"/>
-      <c r="U15" s="240"/>
-      <c r="V15" s="240"/>
-      <c r="W15" s="240"/>
-      <c r="X15" s="240"/>
-      <c r="Y15" s="240"/>
-      <c r="Z15" s="240"/>
-      <c r="AA15" s="240"/>
-      <c r="AB15" s="240"/>
-      <c r="AC15" s="240"/>
-      <c r="AD15" s="240"/>
-      <c r="AE15" s="241"/>
-      <c r="AF15" s="236"/>
-      <c r="AG15" s="237"/>
-      <c r="AH15" s="237"/>
-      <c r="AI15" s="238"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="202"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="204"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="204"/>
+      <c r="U15" s="204"/>
+      <c r="V15" s="204"/>
+      <c r="W15" s="204"/>
+      <c r="X15" s="204"/>
+      <c r="Y15" s="204"/>
+      <c r="Z15" s="204"/>
+      <c r="AA15" s="204"/>
+      <c r="AB15" s="204"/>
+      <c r="AC15" s="204"/>
+      <c r="AD15" s="204"/>
+      <c r="AE15" s="205"/>
+      <c r="AF15" s="200"/>
+      <c r="AG15" s="201"/>
+      <c r="AH15" s="201"/>
+      <c r="AI15" s="202"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="231"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="238"/>
-      <c r="Q16" s="239"/>
-      <c r="R16" s="240"/>
-      <c r="S16" s="240"/>
-      <c r="T16" s="240"/>
-      <c r="U16" s="240"/>
-      <c r="V16" s="240"/>
-      <c r="W16" s="240"/>
-      <c r="X16" s="240"/>
-      <c r="Y16" s="240"/>
-      <c r="Z16" s="240"/>
-      <c r="AA16" s="240"/>
-      <c r="AB16" s="240"/>
-      <c r="AC16" s="240"/>
-      <c r="AD16" s="240"/>
-      <c r="AE16" s="241"/>
-      <c r="AF16" s="236"/>
-      <c r="AG16" s="237"/>
-      <c r="AH16" s="237"/>
-      <c r="AI16" s="238"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="204"/>
+      <c r="S16" s="204"/>
+      <c r="T16" s="204"/>
+      <c r="U16" s="204"/>
+      <c r="V16" s="204"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="204"/>
+      <c r="Y16" s="204"/>
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="204"/>
+      <c r="AB16" s="204"/>
+      <c r="AC16" s="204"/>
+      <c r="AD16" s="204"/>
+      <c r="AE16" s="205"/>
+      <c r="AF16" s="200"/>
+      <c r="AG16" s="201"/>
+      <c r="AH16" s="201"/>
+      <c r="AI16" s="202"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="231"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="237"/>
-      <c r="O17" s="237"/>
-      <c r="P17" s="238"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="240"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="240"/>
-      <c r="U17" s="240"/>
-      <c r="V17" s="240"/>
-      <c r="W17" s="240"/>
-      <c r="X17" s="240"/>
-      <c r="Y17" s="240"/>
-      <c r="Z17" s="240"/>
-      <c r="AA17" s="240"/>
-      <c r="AB17" s="240"/>
-      <c r="AC17" s="240"/>
-      <c r="AD17" s="240"/>
-      <c r="AE17" s="241"/>
-      <c r="AF17" s="236"/>
-      <c r="AG17" s="237"/>
-      <c r="AH17" s="237"/>
-      <c r="AI17" s="238"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
+      <c r="T17" s="204"/>
+      <c r="U17" s="204"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="204"/>
+      <c r="X17" s="204"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="204"/>
+      <c r="AA17" s="204"/>
+      <c r="AB17" s="204"/>
+      <c r="AC17" s="204"/>
+      <c r="AD17" s="204"/>
+      <c r="AE17" s="205"/>
+      <c r="AF17" s="200"/>
+      <c r="AG17" s="201"/>
+      <c r="AH17" s="201"/>
+      <c r="AI17" s="202"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="231"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="234"/>
-      <c r="G18" s="230"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="236"/>
-      <c r="K18" s="237"/>
-      <c r="L18" s="237"/>
-      <c r="M18" s="237"/>
-      <c r="N18" s="237"/>
-      <c r="O18" s="237"/>
-      <c r="P18" s="238"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="240"/>
-      <c r="S18" s="240"/>
-      <c r="T18" s="240"/>
-      <c r="U18" s="240"/>
-      <c r="V18" s="240"/>
-      <c r="W18" s="240"/>
-      <c r="X18" s="240"/>
-      <c r="Y18" s="240"/>
-      <c r="Z18" s="240"/>
-      <c r="AA18" s="240"/>
-      <c r="AB18" s="240"/>
-      <c r="AC18" s="240"/>
-      <c r="AD18" s="240"/>
-      <c r="AE18" s="241"/>
-      <c r="AF18" s="236"/>
-      <c r="AG18" s="237"/>
-      <c r="AH18" s="237"/>
-      <c r="AI18" s="238"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="204"/>
+      <c r="AE18" s="205"/>
+      <c r="AF18" s="200"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="202"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="234"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="235"/>
-      <c r="I19" s="231"/>
-      <c r="J19" s="236"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="237"/>
-      <c r="N19" s="237"/>
-      <c r="O19" s="237"/>
-      <c r="P19" s="238"/>
-      <c r="Q19" s="239"/>
-      <c r="R19" s="240"/>
-      <c r="S19" s="240"/>
-      <c r="T19" s="240"/>
-      <c r="U19" s="240"/>
-      <c r="V19" s="240"/>
-      <c r="W19" s="240"/>
-      <c r="X19" s="240"/>
-      <c r="Y19" s="240"/>
-      <c r="Z19" s="240"/>
-      <c r="AA19" s="240"/>
-      <c r="AB19" s="240"/>
-      <c r="AC19" s="240"/>
-      <c r="AD19" s="240"/>
-      <c r="AE19" s="241"/>
-      <c r="AF19" s="236"/>
-      <c r="AG19" s="237"/>
-      <c r="AH19" s="237"/>
-      <c r="AI19" s="238"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204"/>
+      <c r="AD19" s="204"/>
+      <c r="AE19" s="205"/>
+      <c r="AF19" s="200"/>
+      <c r="AG19" s="201"/>
+      <c r="AH19" s="201"/>
+      <c r="AI19" s="202"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="230"/>
-      <c r="C20" s="231"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="230"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="236"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
-      <c r="N20" s="237"/>
-      <c r="O20" s="237"/>
-      <c r="P20" s="238"/>
-      <c r="Q20" s="239"/>
-      <c r="R20" s="240"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="240"/>
-      <c r="U20" s="240"/>
-      <c r="V20" s="240"/>
-      <c r="W20" s="240"/>
-      <c r="X20" s="240"/>
-      <c r="Y20" s="240"/>
-      <c r="Z20" s="240"/>
-      <c r="AA20" s="240"/>
-      <c r="AB20" s="240"/>
-      <c r="AC20" s="240"/>
-      <c r="AD20" s="240"/>
-      <c r="AE20" s="241"/>
-      <c r="AF20" s="236"/>
-      <c r="AG20" s="237"/>
-      <c r="AH20" s="237"/>
-      <c r="AI20" s="238"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="202"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="204"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="204"/>
+      <c r="AE20" s="205"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="201"/>
+      <c r="AH20" s="201"/>
+      <c r="AI20" s="202"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="230"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="236"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="237"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="237"/>
-      <c r="O21" s="237"/>
-      <c r="P21" s="238"/>
-      <c r="Q21" s="239"/>
-      <c r="R21" s="240"/>
-      <c r="S21" s="240"/>
-      <c r="T21" s="240"/>
-      <c r="U21" s="240"/>
-      <c r="V21" s="240"/>
-      <c r="W21" s="240"/>
-      <c r="X21" s="240"/>
-      <c r="Y21" s="240"/>
-      <c r="Z21" s="240"/>
-      <c r="AA21" s="240"/>
-      <c r="AB21" s="240"/>
-      <c r="AC21" s="240"/>
-      <c r="AD21" s="240"/>
-      <c r="AE21" s="241"/>
-      <c r="AF21" s="236"/>
-      <c r="AG21" s="237"/>
-      <c r="AH21" s="237"/>
-      <c r="AI21" s="238"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="204"/>
+      <c r="T21" s="204"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="204"/>
+      <c r="X21" s="204"/>
+      <c r="Y21" s="204"/>
+      <c r="Z21" s="204"/>
+      <c r="AA21" s="204"/>
+      <c r="AB21" s="204"/>
+      <c r="AC21" s="204"/>
+      <c r="AD21" s="204"/>
+      <c r="AE21" s="205"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="201"/>
+      <c r="AI21" s="202"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="231"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="233"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="235"/>
-      <c r="I22" s="231"/>
-      <c r="J22" s="236"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="237"/>
-      <c r="N22" s="237"/>
-      <c r="O22" s="237"/>
-      <c r="P22" s="238"/>
-      <c r="Q22" s="239"/>
-      <c r="R22" s="240"/>
-      <c r="S22" s="240"/>
-      <c r="T22" s="240"/>
-      <c r="U22" s="240"/>
-      <c r="V22" s="240"/>
-      <c r="W22" s="240"/>
-      <c r="X22" s="240"/>
-      <c r="Y22" s="240"/>
-      <c r="Z22" s="240"/>
-      <c r="AA22" s="240"/>
-      <c r="AB22" s="240"/>
-      <c r="AC22" s="240"/>
-      <c r="AD22" s="240"/>
-      <c r="AE22" s="241"/>
-      <c r="AF22" s="236"/>
-      <c r="AG22" s="237"/>
-      <c r="AH22" s="237"/>
-      <c r="AI22" s="238"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="201"/>
+      <c r="O22" s="201"/>
+      <c r="P22" s="202"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="204"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="204"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="204"/>
+      <c r="Y22" s="204"/>
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="204"/>
+      <c r="AB22" s="204"/>
+      <c r="AC22" s="204"/>
+      <c r="AD22" s="204"/>
+      <c r="AE22" s="205"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="201"/>
+      <c r="AH22" s="201"/>
+      <c r="AI22" s="202"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="231"/>
-      <c r="D23" s="232"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="234"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="235"/>
-      <c r="I23" s="231"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
-      <c r="N23" s="237"/>
-      <c r="O23" s="237"/>
-      <c r="P23" s="238"/>
-      <c r="Q23" s="239"/>
-      <c r="R23" s="240"/>
-      <c r="S23" s="240"/>
-      <c r="T23" s="240"/>
-      <c r="U23" s="240"/>
-      <c r="V23" s="240"/>
-      <c r="W23" s="240"/>
-      <c r="X23" s="240"/>
-      <c r="Y23" s="240"/>
-      <c r="Z23" s="240"/>
-      <c r="AA23" s="240"/>
-      <c r="AB23" s="240"/>
-      <c r="AC23" s="240"/>
-      <c r="AD23" s="240"/>
-      <c r="AE23" s="241"/>
-      <c r="AF23" s="236"/>
-      <c r="AG23" s="237"/>
-      <c r="AH23" s="237"/>
-      <c r="AI23" s="238"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="204"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="204"/>
+      <c r="W23" s="204"/>
+      <c r="X23" s="204"/>
+      <c r="Y23" s="204"/>
+      <c r="Z23" s="204"/>
+      <c r="AA23" s="204"/>
+      <c r="AB23" s="204"/>
+      <c r="AC23" s="204"/>
+      <c r="AD23" s="204"/>
+      <c r="AE23" s="205"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="201"/>
+      <c r="AI23" s="202"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="236"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="237"/>
-      <c r="P24" s="238"/>
-      <c r="Q24" s="239"/>
-      <c r="R24" s="240"/>
-      <c r="S24" s="240"/>
-      <c r="T24" s="240"/>
-      <c r="U24" s="240"/>
-      <c r="V24" s="240"/>
-      <c r="W24" s="240"/>
-      <c r="X24" s="240"/>
-      <c r="Y24" s="240"/>
-      <c r="Z24" s="240"/>
-      <c r="AA24" s="240"/>
-      <c r="AB24" s="240"/>
-      <c r="AC24" s="240"/>
-      <c r="AD24" s="240"/>
-      <c r="AE24" s="241"/>
-      <c r="AF24" s="236"/>
-      <c r="AG24" s="237"/>
-      <c r="AH24" s="237"/>
-      <c r="AI24" s="238"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="202"/>
+      <c r="Q24" s="203"/>
+      <c r="R24" s="204"/>
+      <c r="S24" s="204"/>
+      <c r="T24" s="204"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="204"/>
+      <c r="AD24" s="204"/>
+      <c r="AE24" s="205"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="201"/>
+      <c r="AI24" s="202"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="230"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="232"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="234"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="236"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="237"/>
-      <c r="N25" s="237"/>
-      <c r="O25" s="237"/>
-      <c r="P25" s="238"/>
-      <c r="Q25" s="239"/>
-      <c r="R25" s="240"/>
-      <c r="S25" s="240"/>
-      <c r="T25" s="240"/>
-      <c r="U25" s="240"/>
-      <c r="V25" s="240"/>
-      <c r="W25" s="240"/>
-      <c r="X25" s="240"/>
-      <c r="Y25" s="240"/>
-      <c r="Z25" s="240"/>
-      <c r="AA25" s="240"/>
-      <c r="AB25" s="240"/>
-      <c r="AC25" s="240"/>
-      <c r="AD25" s="240"/>
-      <c r="AE25" s="241"/>
-      <c r="AF25" s="236"/>
-      <c r="AG25" s="237"/>
-      <c r="AH25" s="237"/>
-      <c r="AI25" s="238"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="204"/>
+      <c r="S25" s="204"/>
+      <c r="T25" s="204"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+      <c r="AC25" s="204"/>
+      <c r="AD25" s="204"/>
+      <c r="AE25" s="205"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="201"/>
+      <c r="AH25" s="201"/>
+      <c r="AI25" s="202"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="230"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="236"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
-      <c r="N26" s="237"/>
-      <c r="O26" s="237"/>
-      <c r="P26" s="238"/>
-      <c r="Q26" s="239"/>
-      <c r="R26" s="240"/>
-      <c r="S26" s="240"/>
-      <c r="T26" s="240"/>
-      <c r="U26" s="240"/>
-      <c r="V26" s="240"/>
-      <c r="W26" s="240"/>
-      <c r="X26" s="240"/>
-      <c r="Y26" s="240"/>
-      <c r="Z26" s="240"/>
-      <c r="AA26" s="240"/>
-      <c r="AB26" s="240"/>
-      <c r="AC26" s="240"/>
-      <c r="AD26" s="240"/>
-      <c r="AE26" s="241"/>
-      <c r="AF26" s="236"/>
-      <c r="AG26" s="237"/>
-      <c r="AH26" s="237"/>
-      <c r="AI26" s="238"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="202"/>
+      <c r="Q26" s="203"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="205"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="201"/>
+      <c r="AH26" s="201"/>
+      <c r="AI26" s="202"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="230"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="233"/>
-      <c r="F27" s="234"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="236"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="237"/>
-      <c r="N27" s="237"/>
-      <c r="O27" s="237"/>
-      <c r="P27" s="238"/>
-      <c r="Q27" s="239"/>
-      <c r="R27" s="240"/>
-      <c r="S27" s="240"/>
-      <c r="T27" s="240"/>
-      <c r="U27" s="240"/>
-      <c r="V27" s="240"/>
-      <c r="W27" s="240"/>
-      <c r="X27" s="240"/>
-      <c r="Y27" s="240"/>
-      <c r="Z27" s="240"/>
-      <c r="AA27" s="240"/>
-      <c r="AB27" s="240"/>
-      <c r="AC27" s="240"/>
-      <c r="AD27" s="240"/>
-      <c r="AE27" s="241"/>
-      <c r="AF27" s="236"/>
-      <c r="AG27" s="237"/>
-      <c r="AH27" s="237"/>
-      <c r="AI27" s="238"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="201"/>
+      <c r="O27" s="201"/>
+      <c r="P27" s="202"/>
+      <c r="Q27" s="203"/>
+      <c r="R27" s="204"/>
+      <c r="S27" s="204"/>
+      <c r="T27" s="204"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="204"/>
+      <c r="X27" s="204"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="204"/>
+      <c r="AB27" s="204"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="204"/>
+      <c r="AE27" s="205"/>
+      <c r="AF27" s="200"/>
+      <c r="AG27" s="201"/>
+      <c r="AH27" s="201"/>
+      <c r="AI27" s="202"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="230"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="234"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="236"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="237"/>
-      <c r="N28" s="237"/>
-      <c r="O28" s="237"/>
-      <c r="P28" s="238"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="240"/>
-      <c r="S28" s="240"/>
-      <c r="T28" s="240"/>
-      <c r="U28" s="240"/>
-      <c r="V28" s="240"/>
-      <c r="W28" s="240"/>
-      <c r="X28" s="240"/>
-      <c r="Y28" s="240"/>
-      <c r="Z28" s="240"/>
-      <c r="AA28" s="240"/>
-      <c r="AB28" s="240"/>
-      <c r="AC28" s="240"/>
-      <c r="AD28" s="240"/>
-      <c r="AE28" s="241"/>
-      <c r="AF28" s="236"/>
-      <c r="AG28" s="237"/>
-      <c r="AH28" s="237"/>
-      <c r="AI28" s="238"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="203"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="204"/>
+      <c r="X28" s="204"/>
+      <c r="Y28" s="204"/>
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="204"/>
+      <c r="AB28" s="204"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="205"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="201"/>
+      <c r="AH28" s="201"/>
+      <c r="AI28" s="202"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="230"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="234"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="237"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="237"/>
-      <c r="N29" s="237"/>
-      <c r="O29" s="237"/>
-      <c r="P29" s="238"/>
-      <c r="Q29" s="239"/>
-      <c r="R29" s="240"/>
-      <c r="S29" s="240"/>
-      <c r="T29" s="240"/>
-      <c r="U29" s="240"/>
-      <c r="V29" s="240"/>
-      <c r="W29" s="240"/>
-      <c r="X29" s="240"/>
-      <c r="Y29" s="240"/>
-      <c r="Z29" s="240"/>
-      <c r="AA29" s="240"/>
-      <c r="AB29" s="240"/>
-      <c r="AC29" s="240"/>
-      <c r="AD29" s="240"/>
-      <c r="AE29" s="241"/>
-      <c r="AF29" s="236"/>
-      <c r="AG29" s="237"/>
-      <c r="AH29" s="237"/>
-      <c r="AI29" s="238"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="202"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="205"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="201"/>
+      <c r="AI29" s="202"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="230"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="234"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="235"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="236"/>
-      <c r="K30" s="237"/>
-      <c r="L30" s="237"/>
-      <c r="M30" s="237"/>
-      <c r="N30" s="237"/>
-      <c r="O30" s="237"/>
-      <c r="P30" s="238"/>
-      <c r="Q30" s="239"/>
-      <c r="R30" s="240"/>
-      <c r="S30" s="240"/>
-      <c r="T30" s="240"/>
-      <c r="U30" s="240"/>
-      <c r="V30" s="240"/>
-      <c r="W30" s="240"/>
-      <c r="X30" s="240"/>
-      <c r="Y30" s="240"/>
-      <c r="Z30" s="240"/>
-      <c r="AA30" s="240"/>
-      <c r="AB30" s="240"/>
-      <c r="AC30" s="240"/>
-      <c r="AD30" s="240"/>
-      <c r="AE30" s="241"/>
-      <c r="AF30" s="236"/>
-      <c r="AG30" s="237"/>
-      <c r="AH30" s="237"/>
-      <c r="AI30" s="238"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="203"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="205"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="201"/>
+      <c r="AI30" s="202"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="230"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="235"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="236"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="237"/>
-      <c r="N31" s="237"/>
-      <c r="O31" s="237"/>
-      <c r="P31" s="238"/>
-      <c r="Q31" s="239"/>
-      <c r="R31" s="240"/>
-      <c r="S31" s="240"/>
-      <c r="T31" s="240"/>
-      <c r="U31" s="240"/>
-      <c r="V31" s="240"/>
-      <c r="W31" s="240"/>
-      <c r="X31" s="240"/>
-      <c r="Y31" s="240"/>
-      <c r="Z31" s="240"/>
-      <c r="AA31" s="240"/>
-      <c r="AB31" s="240"/>
-      <c r="AC31" s="240"/>
-      <c r="AD31" s="240"/>
-      <c r="AE31" s="241"/>
-      <c r="AF31" s="236"/>
-      <c r="AG31" s="237"/>
-      <c r="AH31" s="237"/>
-      <c r="AI31" s="238"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="201"/>
+      <c r="N31" s="201"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="204"/>
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="204"/>
+      <c r="Y31" s="204"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="205"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="201"/>
+      <c r="AH31" s="201"/>
+      <c r="AI31" s="202"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="230"/>
-      <c r="C32" s="231"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="234"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="235"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="236"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="237"/>
-      <c r="N32" s="237"/>
-      <c r="O32" s="237"/>
-      <c r="P32" s="238"/>
-      <c r="Q32" s="239"/>
-      <c r="R32" s="240"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="240"/>
-      <c r="W32" s="240"/>
-      <c r="X32" s="240"/>
-      <c r="Y32" s="240"/>
-      <c r="Z32" s="240"/>
-      <c r="AA32" s="240"/>
-      <c r="AB32" s="240"/>
-      <c r="AC32" s="240"/>
-      <c r="AD32" s="240"/>
-      <c r="AE32" s="241"/>
-      <c r="AF32" s="236"/>
-      <c r="AG32" s="237"/>
-      <c r="AH32" s="237"/>
-      <c r="AI32" s="238"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="203"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="204"/>
+      <c r="X32" s="204"/>
+      <c r="Y32" s="204"/>
+      <c r="Z32" s="204"/>
+      <c r="AA32" s="204"/>
+      <c r="AB32" s="204"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="205"/>
+      <c r="AF32" s="200"/>
+      <c r="AG32" s="201"/>
+      <c r="AH32" s="201"/>
+      <c r="AI32" s="202"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="230"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="234"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="235"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
-      <c r="P33" s="238"/>
-      <c r="Q33" s="239"/>
-      <c r="R33" s="240"/>
-      <c r="S33" s="240"/>
-      <c r="T33" s="240"/>
-      <c r="U33" s="240"/>
-      <c r="V33" s="240"/>
-      <c r="W33" s="240"/>
-      <c r="X33" s="240"/>
-      <c r="Y33" s="240"/>
-      <c r="Z33" s="240"/>
-      <c r="AA33" s="240"/>
-      <c r="AB33" s="240"/>
-      <c r="AC33" s="240"/>
-      <c r="AD33" s="240"/>
-      <c r="AE33" s="241"/>
-      <c r="AF33" s="236"/>
-      <c r="AG33" s="237"/>
-      <c r="AH33" s="237"/>
-      <c r="AI33" s="238"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="202"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="204"/>
+      <c r="U33" s="204"/>
+      <c r="V33" s="204"/>
+      <c r="W33" s="204"/>
+      <c r="X33" s="204"/>
+      <c r="Y33" s="204"/>
+      <c r="Z33" s="204"/>
+      <c r="AA33" s="204"/>
+      <c r="AB33" s="204"/>
+      <c r="AC33" s="204"/>
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="205"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="201"/>
+      <c r="AH33" s="201"/>
+      <c r="AI33" s="202"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -12044,6 +11899,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -32641,7 +32651,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -32651,7 +32661,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="30" t="s">
+        <v>584</v>
+      </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
